--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\Final Project\FinalProject\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E33856F-CA35-4F49-B76A-5073611CB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2619016-9AA9-4469-9446-F28D6A727EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admins" sheetId="2" r:id="rId1"/>
@@ -12976,8 +12976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -31723,7 +31723,7 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\Final Project\FinalProject\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2619016-9AA9-4469-9446-F28D6A727EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCF82D-CE8D-44B7-9DD1-A5A8F6CE678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admins" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1109">
   <si>
     <t>Password</t>
   </si>
@@ -3362,6 +3362,15 @@
   </si>
   <si>
     <t>12/29/2024,12/30/2024,12/31/2024,1/1/2025</t>
+  </si>
+  <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
+    <t>/images/properties/Home1.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3371,11 +3380,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3590,23 +3606,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3618,41 +3633,46 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12976,7 +12996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -17559,10 +17579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17586,10 +17606,11 @@
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
     <col min="20" max="20" width="10.6328125" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="28" width="8.6328125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="23" max="28" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5">
+    <row r="1" spans="1:22" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>362</v>
       </c>
@@ -17653,8 +17674,11 @@
       <c r="U1" s="35" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.5">
+      <c r="V1" s="45" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.5">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
@@ -17714,8 +17738,11 @@
       <c r="U2" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.5">
+      <c r="V2" s="44" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.5">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
@@ -17779,8 +17806,11 @@
       <c r="U3" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="14.5">
+      <c r="V3" s="44" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="14.5">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
@@ -17841,7 +17871,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.5">
+    <row r="5" spans="1:22" ht="14.5">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
@@ -17902,7 +17932,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5">
+    <row r="6" spans="1:22" ht="14.5">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
@@ -17963,7 +17993,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5">
+    <row r="7" spans="1:22" ht="14.5">
       <c r="A7" s="1">
         <v>3006</v>
       </c>
@@ -18028,7 +18058,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.5">
+    <row r="8" spans="1:22" ht="14.5">
       <c r="A8" s="1">
         <v>3007</v>
       </c>
@@ -18089,7 +18119,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5">
+    <row r="9" spans="1:22" ht="14.5">
       <c r="A9" s="1">
         <v>3008</v>
       </c>
@@ -18154,7 +18184,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.5">
+    <row r="10" spans="1:22" ht="14.5">
       <c r="A10" s="1">
         <v>3009</v>
       </c>
@@ -18217,7 +18247,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.5">
+    <row r="11" spans="1:22" ht="14.5">
       <c r="A11" s="1">
         <v>3010</v>
       </c>
@@ -18278,7 +18308,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.5">
+    <row r="12" spans="1:22" ht="14.5">
       <c r="A12" s="1">
         <v>3011</v>
       </c>
@@ -18339,7 +18369,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.5">
+    <row r="13" spans="1:22" ht="14.5">
       <c r="A13" s="1">
         <v>3012</v>
       </c>
@@ -18400,7 +18430,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.5">
+    <row r="14" spans="1:22" ht="14.5">
       <c r="A14" s="1">
         <v>3013</v>
       </c>
@@ -18461,7 +18491,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.5">
+    <row r="15" spans="1:22" ht="14.5">
       <c r="A15" s="1">
         <v>3014</v>
       </c>
@@ -18522,7 +18552,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.5">
+    <row r="16" spans="1:22" ht="14.5">
       <c r="A16" s="1">
         <v>3015</v>
       </c>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\Final Project\FinalProject\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E33856F-CA35-4F49-B76A-5073611CB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62373936-8ED9-4840-BBEC-9F8760B9BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admins" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1109">
   <si>
     <t>Password</t>
   </si>
@@ -3362,6 +3362,15 @@
   </si>
   <si>
     <t>12/29/2024,12/30/2024,12/31/2024,1/1/2025</t>
+  </si>
+  <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
+    <t>/images/properties/Home1.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3371,11 +3380,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3590,23 +3606,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3618,41 +3633,43 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12977,7 +12994,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17559,10 +17576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17586,10 +17603,11 @@
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
     <col min="20" max="20" width="10.6328125" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="28" width="8.6328125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="23" max="28" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5">
+    <row r="1" spans="1:22" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>362</v>
       </c>
@@ -17653,8 +17671,11 @@
       <c r="U1" s="35" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.5">
+      <c r="V1" s="26" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.5">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
@@ -17714,8 +17735,11 @@
       <c r="U2" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.5">
+      <c r="V2" s="44" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.5">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
@@ -17779,8 +17803,11 @@
       <c r="U3" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="14.5">
+      <c r="V3" s="44" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="14.5">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
@@ -17841,7 +17868,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.5">
+    <row r="5" spans="1:22" ht="14.5">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
@@ -17902,7 +17929,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5">
+    <row r="6" spans="1:22" ht="14.5">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
@@ -17963,7 +17990,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5">
+    <row r="7" spans="1:22" ht="14.5">
       <c r="A7" s="1">
         <v>3006</v>
       </c>
@@ -18028,7 +18055,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.5">
+    <row r="8" spans="1:22" ht="14.5">
       <c r="A8" s="1">
         <v>3007</v>
       </c>
@@ -18089,7 +18116,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5">
+    <row r="9" spans="1:22" ht="14.5">
       <c r="A9" s="1">
         <v>3008</v>
       </c>
@@ -18154,7 +18181,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.5">
+    <row r="10" spans="1:22" ht="14.5">
       <c r="A10" s="1">
         <v>3009</v>
       </c>
@@ -18217,7 +18244,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.5">
+    <row r="11" spans="1:22" ht="14.5">
       <c r="A11" s="1">
         <v>3010</v>
       </c>
@@ -18278,7 +18305,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.5">
+    <row r="12" spans="1:22" ht="14.5">
       <c r="A12" s="1">
         <v>3011</v>
       </c>
@@ -18339,7 +18366,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.5">
+    <row r="13" spans="1:22" ht="14.5">
       <c r="A13" s="1">
         <v>3012</v>
       </c>
@@ -18400,7 +18427,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.5">
+    <row r="14" spans="1:22" ht="14.5">
       <c r="A14" s="1">
         <v>3013</v>
       </c>
@@ -18461,7 +18488,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.5">
+    <row r="15" spans="1:22" ht="14.5">
       <c r="A15" s="1">
         <v>3014</v>
       </c>
@@ -18522,7 +18549,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.5">
+    <row r="16" spans="1:22" ht="14.5">
       <c r="A16" s="1">
         <v>3015</v>
       </c>
@@ -30158,7 +30185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -31723,7 +31750,7 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\Final Project\FinalProject\FinalProject\wwwroot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeksEnterprises\source\repos\Group-25\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62373936-8ED9-4840-BBEC-9F8760B9BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A659DD-A44D-4876-B673-57075EC68B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1119">
   <si>
     <t>Password</t>
   </si>
@@ -3371,6 +3371,36 @@
   </si>
   <si>
     <t>/images/properties/Home2.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home3.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home4.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home5.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home6.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home7.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home8.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home9.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home10.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home11.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home12.jpg</t>
   </si>
 </sst>
 </file>
@@ -3380,11 +3410,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3606,23 +3643,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3634,42 +3670,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17576,10 +17615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="Q25" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17607,7 +17646,7 @@
     <col min="23" max="28" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.5">
+    <row r="1" spans="1:26" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>362</v>
       </c>
@@ -17675,7 +17714,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.5">
+    <row r="2" spans="1:26" ht="14.5">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
@@ -17739,7 +17778,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.5">
+    <row r="3" spans="1:26" ht="14.5">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
@@ -17807,7 +17846,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.5">
+    <row r="4" spans="1:26" ht="14.5">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
@@ -17867,8 +17906,14 @@
       <c r="U4" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.5">
+      <c r="V4" s="45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.5">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
@@ -17928,8 +17973,11 @@
       <c r="U5" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.5">
+      <c r="V5" s="46" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.5">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
@@ -17989,8 +18037,11 @@
       <c r="U6" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.5">
+      <c r="V6" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.5">
       <c r="A7" s="1">
         <v>3006</v>
       </c>
@@ -18054,8 +18105,11 @@
       <c r="U7" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="14.5">
+      <c r="V7" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.5">
       <c r="A8" s="1">
         <v>3007</v>
       </c>
@@ -18115,8 +18169,12 @@
       <c r="U8" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="14.5">
+      <c r="V8">
+        <f ca="1">IF(L8=0,Z6,V8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.5">
       <c r="A9" s="1">
         <v>3008</v>
       </c>
@@ -18180,8 +18238,11 @@
       <c r="U9" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="14.5">
+      <c r="V9" s="45" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.5">
       <c r="A10" s="1">
         <v>3009</v>
       </c>
@@ -18243,8 +18304,11 @@
       <c r="U10" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="14.5">
+      <c r="V10" s="45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.5">
       <c r="A11" s="1">
         <v>3010</v>
       </c>
@@ -18304,8 +18368,11 @@
       <c r="U11" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.5">
+      <c r="V11" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.5">
       <c r="A12" s="1">
         <v>3011</v>
       </c>
@@ -18365,8 +18432,12 @@
       <c r="U12" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.5">
+      <c r="V12" t="str">
+        <f>IF(L12=0,Z4,V6)</f>
+        <v>/images/properties/Home4.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.5">
       <c r="A13" s="1">
         <v>3012</v>
       </c>
@@ -18426,8 +18497,12 @@
       <c r="U13" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.5">
+      <c r="V13">
+        <f t="shared" ref="V13:V15" si="0">IF(L8 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.5">
       <c r="A14" s="1">
         <v>3013</v>
       </c>
@@ -18487,8 +18562,11 @@
       <c r="U14" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.5">
+      <c r="V14" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.5">
       <c r="A15" s="1">
         <v>3014</v>
       </c>
@@ -18548,8 +18626,11 @@
       <c r="U15" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.5">
+      <c r="V15" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.5">
       <c r="A16" s="1">
         <v>3015</v>
       </c>
@@ -18609,8 +18690,12 @@
       <c r="U16" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5">
+      <c r="V16" t="str">
+        <f>IF(L16 =3,$V$4, )</f>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.5">
       <c r="A17" s="1">
         <v>3016</v>
       </c>
@@ -18674,8 +18759,12 @@
       <c r="U17" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.5">
+      <c r="V17">
+        <f>IF(L7 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.5">
       <c r="A18" s="1">
         <v>3017</v>
       </c>
@@ -18735,8 +18824,12 @@
       <c r="U18" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5">
+      <c r="V18">
+        <f t="shared" ref="V18:V21" si="1">IF(L8 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.5">
       <c r="A19" s="1">
         <v>3018</v>
       </c>
@@ -18800,8 +18893,12 @@
       <c r="U19" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.5">
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.5">
       <c r="A20" s="1">
         <v>3019</v>
       </c>
@@ -18861,8 +18958,12 @@
       <c r="U20" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>3020</v>
       </c>
@@ -18922,8 +19023,11 @@
       <c r="U21" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V21" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>3021</v>
       </c>
@@ -18983,8 +19087,12 @@
       <c r="U22" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V22" t="str">
+        <f t="shared" ref="V6:V69" si="2">IF(L22 =3,$V$4, )</f>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>3022</v>
       </c>
@@ -19048,8 +19156,11 @@
       <c r="U23" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V23" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>3023</v>
       </c>
@@ -19109,8 +19220,12 @@
       <c r="U24" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>3024</v>
       </c>
@@ -19170,8 +19285,11 @@
       <c r="U25" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V25" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>3025</v>
       </c>
@@ -19231,8 +19349,11 @@
       <c r="U26" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V26" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>3026</v>
       </c>
@@ -19296,8 +19417,12 @@
       <c r="U27" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>3027</v>
       </c>
@@ -19361,8 +19486,11 @@
       <c r="U28" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V28" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>3028</v>
       </c>
@@ -19426,8 +19554,11 @@
       <c r="U29" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V29" s="45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>3029</v>
       </c>
@@ -19487,8 +19618,12 @@
       <c r="U30" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>3030</v>
       </c>
@@ -19548,8 +19683,12 @@
       <c r="U31" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>3031</v>
       </c>
@@ -19609,8 +19748,11 @@
       <c r="U32" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V32" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>3032</v>
       </c>
@@ -19674,8 +19816,12 @@
       <c r="U33" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V33" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>3033</v>
       </c>
@@ -19735,8 +19881,12 @@
       <c r="U34" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>3034</v>
       </c>
@@ -19796,8 +19946,11 @@
       <c r="U35" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V35" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>3035</v>
       </c>
@@ -19861,8 +20014,12 @@
       <c r="U36" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>3036</v>
       </c>
@@ -19926,8 +20083,11 @@
       <c r="U37" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V37" s="45" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>3037</v>
       </c>
@@ -19991,8 +20151,11 @@
       <c r="U38" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V38" s="45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>3038</v>
       </c>
@@ -20056,8 +20219,12 @@
       <c r="U39" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V39" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>3039</v>
       </c>
@@ -20117,8 +20284,12 @@
       <c r="U40" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>3040</v>
       </c>
@@ -20178,8 +20349,12 @@
       <c r="U41" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>3041</v>
       </c>
@@ -20239,8 +20414,12 @@
       <c r="U42" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V42" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>3042</v>
       </c>
@@ -20300,8 +20479,12 @@
       <c r="U43" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>3043</v>
       </c>
@@ -20365,8 +20548,11 @@
       <c r="U44" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V44" s="45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>3044</v>
       </c>
@@ -20426,8 +20612,11 @@
       <c r="U45" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V45" s="45" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>3045</v>
       </c>
@@ -20487,8 +20676,12 @@
       <c r="U46" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>3046</v>
       </c>
@@ -20548,8 +20741,11 @@
       <c r="U47" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V47" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>3047</v>
       </c>
@@ -20613,8 +20809,11 @@
       <c r="U48" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V48" s="45" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>3048</v>
       </c>
@@ -20678,8 +20877,12 @@
       <c r="U49" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>3049</v>
       </c>
@@ -20739,8 +20942,12 @@
       <c r="U50" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>3050</v>
       </c>
@@ -20800,8 +21007,12 @@
       <c r="U51" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>3051</v>
       </c>
@@ -20861,8 +21072,12 @@
       <c r="U52" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V52" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>3052</v>
       </c>
@@ -20926,8 +21141,11 @@
       <c r="U53" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V53" s="45" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>3053</v>
       </c>
@@ -20991,8 +21209,12 @@
       <c r="U54" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V54" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>3054</v>
       </c>
@@ -21056,8 +21278,11 @@
       <c r="U55" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V55" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>3055</v>
       </c>
@@ -21117,8 +21342,9 @@
       <c r="U56" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>3056</v>
       </c>
@@ -21182,8 +21408,12 @@
       <c r="U57" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>3057</v>
       </c>
@@ -21247,8 +21477,12 @@
       <c r="U58" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>3058</v>
       </c>
@@ -21312,8 +21546,12 @@
       <c r="U59" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>3059</v>
       </c>
@@ -21377,8 +21615,12 @@
       <c r="U60" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V60" t="str">
+        <f t="shared" si="2"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>3060</v>
       </c>
@@ -21442,8 +21684,12 @@
       <c r="U61" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V61">
+        <f>IF(L7 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>3061</v>
       </c>
@@ -21503,8 +21749,12 @@
       <c r="U62" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V62">
+        <f t="shared" ref="V62:V81" si="3">IF(L8 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>3062</v>
       </c>
@@ -21568,8 +21818,12 @@
       <c r="U63" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>3063</v>
       </c>
@@ -21633,8 +21887,12 @@
       <c r="U64" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>3064</v>
       </c>
@@ -21698,8 +21956,12 @@
       <c r="U65" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>3065</v>
       </c>
@@ -21763,8 +22025,12 @@
       <c r="U66" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>3066</v>
       </c>
@@ -21828,8 +22094,12 @@
       <c r="U67" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>3067</v>
       </c>
@@ -21889,8 +22159,12 @@
       <c r="U68" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>3068</v>
       </c>
@@ -21950,8 +22224,12 @@
       <c r="U69" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>3069</v>
       </c>
@@ -22015,8 +22293,12 @@
       <c r="U70" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>3070</v>
       </c>
@@ -22076,8 +22358,12 @@
       <c r="U71" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>3071</v>
       </c>
@@ -22137,8 +22423,12 @@
       <c r="U72" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>3072</v>
       </c>
@@ -22202,8 +22492,11 @@
       <c r="U73" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V73" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>3073</v>
       </c>
@@ -22263,8 +22556,12 @@
       <c r="U74" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>3074</v>
       </c>
@@ -22328,8 +22625,12 @@
       <c r="U75" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V75">
+        <f>IF(L21 =4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>3075</v>
       </c>
@@ -22393,8 +22694,12 @@
       <c r="U76" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>3076</v>
       </c>
@@ -22458,8 +22763,12 @@
       <c r="U77" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V77" s="45">
+        <f>IF(L88=4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>3077</v>
       </c>
@@ -22519,8 +22828,11 @@
       <c r="U78" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V78" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>3078</v>
       </c>
@@ -22580,8 +22892,12 @@
       <c r="U79" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V79">
+        <f t="shared" ref="V78:V83" si="4">IF(L79=4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>3079</v>
       </c>
@@ -22641,8 +22957,12 @@
       <c r="U80" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>3080</v>
       </c>
@@ -22702,8 +23022,12 @@
       <c r="U81" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>3081</v>
       </c>
@@ -22763,8 +23087,12 @@
       <c r="U82" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>3082</v>
       </c>
@@ -22828,8 +23156,12 @@
       <c r="U83" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>3083</v>
       </c>
@@ -22893,8 +23225,12 @@
       <c r="U84" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V84" t="str">
+        <f t="shared" ref="V70:V133" si="5">IF(L84 =3,$V$4, )</f>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>3084</v>
       </c>
@@ -22954,8 +23290,12 @@
       <c r="U85" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V85" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>3085</v>
       </c>
@@ -23015,8 +23355,12 @@
       <c r="U86" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>3086</v>
       </c>
@@ -23076,8 +23420,12 @@
       <c r="U87" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V87">
+        <f>IF(L87 =4,$V$4, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>3087</v>
       </c>
@@ -23141,8 +23489,12 @@
       <c r="U88" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V88">
+        <f>IF(L88=4,$V$5, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>3088</v>
       </c>
@@ -23202,8 +23554,11 @@
       <c r="U89" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V89" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>3089</v>
       </c>
@@ -23267,8 +23622,11 @@
       <c r="U90" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V90" s="45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>3090</v>
       </c>
@@ -23328,8 +23686,11 @@
       <c r="U91" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V91" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>3091</v>
       </c>
@@ -23389,8 +23750,11 @@
       <c r="U92" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V92" s="45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>3092</v>
       </c>
@@ -23450,8 +23814,12 @@
       <c r="U93" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>3093</v>
       </c>
@@ -23511,8 +23879,12 @@
       <c r="U94" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>3094</v>
       </c>
@@ -23572,8 +23944,11 @@
       <c r="U95" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V95" s="45" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>3095</v>
       </c>
@@ -23637,8 +24012,12 @@
       <c r="U96" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>3096</v>
       </c>
@@ -23698,8 +24077,12 @@
       <c r="U97" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>3097</v>
       </c>
@@ -23763,8 +24146,12 @@
       <c r="U98" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>3098</v>
       </c>
@@ -23824,8 +24211,11 @@
       <c r="U99" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V99" s="45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>3099</v>
       </c>
@@ -23891,8 +24281,12 @@
       <c r="U100" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>3100</v>
       </c>
@@ -23954,8 +24348,12 @@
       <c r="U101" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>3101</v>
       </c>
@@ -24019,8 +24417,12 @@
       <c r="U102" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>3102</v>
       </c>
@@ -24084,8 +24486,12 @@
       <c r="U103" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>3103</v>
       </c>
@@ -24145,8 +24551,11 @@
       <c r="U104" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V104" s="45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>3104</v>
       </c>
@@ -24210,8 +24619,12 @@
       <c r="U105" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>3105</v>
       </c>
@@ -24271,8 +24684,12 @@
       <c r="U106" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>3106</v>
       </c>
@@ -24332,8 +24749,12 @@
       <c r="U107" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>3107</v>
       </c>
@@ -24397,8 +24818,12 @@
       <c r="U108" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V108" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>3108</v>
       </c>
@@ -24458,8 +24883,12 @@
       <c r="U109" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>3109</v>
       </c>
@@ -24523,8 +24952,12 @@
       <c r="U110" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>3110</v>
       </c>
@@ -24588,8 +25021,11 @@
       <c r="U111" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V111" s="45" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>3111</v>
       </c>
@@ -24649,8 +25085,12 @@
       <c r="U112" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V112" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>3112</v>
       </c>
@@ -24714,8 +25154,11 @@
       <c r="U113" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>3113</v>
       </c>
@@ -24777,8 +25220,11 @@
       <c r="U114" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V114" s="45" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>3114</v>
       </c>
@@ -24838,8 +25284,12 @@
       <c r="U115" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>3115</v>
       </c>
@@ -24903,8 +25353,12 @@
       <c r="U116" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>3116</v>
       </c>
@@ -24968,8 +25422,12 @@
       <c r="U117" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>3117</v>
       </c>
@@ -25029,8 +25487,12 @@
       <c r="U118" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>3118</v>
       </c>
@@ -25094,8 +25556,12 @@
       <c r="U119" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>3119</v>
       </c>
@@ -25159,8 +25625,12 @@
       <c r="U120" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>3120</v>
       </c>
@@ -25220,8 +25690,12 @@
       <c r="U121" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V121" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>3121</v>
       </c>
@@ -25285,8 +25759,12 @@
       <c r="U122" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V122" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>3122</v>
       </c>
@@ -25346,8 +25824,11 @@
       <c r="U123" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V123" s="45" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>3123</v>
       </c>
@@ -25407,8 +25888,12 @@
       <c r="U124" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>3124</v>
       </c>
@@ -25468,8 +25953,11 @@
       <c r="U125" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V125" s="45" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>3125</v>
       </c>
@@ -25529,8 +26017,11 @@
       <c r="U126" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V126" s="45" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>3126</v>
       </c>
@@ -25590,8 +26081,12 @@
       <c r="U127" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>3127</v>
       </c>
@@ -25651,8 +26146,12 @@
       <c r="U128" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>3128</v>
       </c>
@@ -25712,8 +26211,12 @@
       <c r="U129" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>3129</v>
       </c>
@@ -25773,8 +26276,12 @@
       <c r="U130" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>3130</v>
       </c>
@@ -25838,8 +26345,12 @@
       <c r="U131" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V131" t="str">
+        <f t="shared" si="5"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>3131</v>
       </c>
@@ -25903,8 +26414,12 @@
       <c r="U132" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V132" t="str">
+        <f>IF(L158 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>3132</v>
       </c>
@@ -25964,8 +26479,12 @@
       <c r="U133" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V133">
+        <f t="shared" ref="V133:V145" si="6">IF(L159 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>3133</v>
       </c>
@@ -26025,8 +26544,12 @@
       <c r="U134" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V134" t="str">
+        <f t="shared" si="6"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>3134</v>
       </c>
@@ -26090,8 +26613,12 @@
       <c r="U135" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V135" t="str">
+        <f t="shared" si="6"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>3135</v>
       </c>
@@ -26155,8 +26682,12 @@
       <c r="U136" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V136" t="str">
+        <f t="shared" si="6"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>3136</v>
       </c>
@@ -26216,8 +26747,12 @@
       <c r="U137" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V137" t="str">
+        <f t="shared" si="6"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>3137</v>
       </c>
@@ -26278,7 +26813,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75" customHeight="1">
+    <row r="139" spans="1:22" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>3138</v>
       </c>
@@ -26338,8 +26873,12 @@
       <c r="U139" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V139" t="str">
+        <f t="shared" si="6"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>3139</v>
       </c>
@@ -26399,8 +26938,12 @@
       <c r="U140" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V140">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>3140</v>
       </c>
@@ -26460,8 +27003,12 @@
       <c r="U141" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V141">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>3141</v>
       </c>
@@ -26521,8 +27068,12 @@
       <c r="U142" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V142">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>3142</v>
       </c>
@@ -26582,8 +27133,12 @@
       <c r="U143" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V143">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>3143</v>
       </c>
@@ -26647,8 +27202,12 @@
       <c r="U144" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>3144</v>
       </c>
@@ -26712,8 +27271,12 @@
       <c r="U145" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>3145</v>
       </c>
@@ -26773,8 +27336,12 @@
       <c r="U146" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V146" t="str">
+        <f t="shared" ref="V134:V184" si="7">IF(L146 =3,$V$4, )</f>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>3146</v>
       </c>
@@ -26838,8 +27405,12 @@
       <c r="U147" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>3147</v>
       </c>
@@ -26903,8 +27474,12 @@
       <c r="U148" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>3148</v>
       </c>
@@ -26964,8 +27539,15 @@
       <c r="U149" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V149" t="str">
+        <f>IF(L149 =0,$Y$149, )</f>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="Y149" s="45" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>3149</v>
       </c>
@@ -27025,8 +27607,12 @@
       <c r="U150" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V150" t="str">
+        <f t="shared" ref="V150:V167" si="8">IF(L150 =0,$Y$149, )</f>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>3150</v>
       </c>
@@ -27090,8 +27676,15 @@
       <c r="U151" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V151" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="Y151" s="45" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>3151</v>
       </c>
@@ -27151,8 +27744,12 @@
       <c r="U152" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V152" t="str">
+        <f>IF(L152 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>3152</v>
       </c>
@@ -27212,8 +27809,12 @@
       <c r="U153" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V153">
+        <f t="shared" ref="V153:V154" si="9">IF(L153 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>3153</v>
       </c>
@@ -27277,8 +27878,12 @@
       <c r="U154" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V154" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>3154</v>
       </c>
@@ -27342,8 +27947,12 @@
       <c r="U155" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V155" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>3155</v>
       </c>
@@ -27407,8 +28016,12 @@
       <c r="U156" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V156" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>3156</v>
       </c>
@@ -27472,8 +28085,12 @@
       <c r="U157" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V157" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>3157</v>
       </c>
@@ -27533,8 +28150,12 @@
       <c r="U158" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V158" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="1">
         <v>3158</v>
       </c>
@@ -27598,8 +28219,12 @@
       <c r="U159" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V159" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1">
       <c r="A160" s="1">
         <v>3159</v>
       </c>
@@ -27659,8 +28284,12 @@
       <c r="U160" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V160" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="15.75" customHeight="1">
       <c r="A161" s="1">
         <v>3160</v>
       </c>
@@ -27724,8 +28353,12 @@
       <c r="U161" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V161">
+        <f t="shared" ref="V161:V163" si="10">IF(L155 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>3161</v>
       </c>
@@ -27789,8 +28422,12 @@
       <c r="U162" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V162">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="15.75" customHeight="1">
       <c r="A163" s="1">
         <v>3162</v>
       </c>
@@ -27850,8 +28487,12 @@
       <c r="U163" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V163">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="15.75" customHeight="1">
       <c r="A164" s="1">
         <v>3163</v>
       </c>
@@ -27915,8 +28556,12 @@
       <c r="U164" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V164" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="15.75" customHeight="1">
       <c r="A165" s="1">
         <v>3164</v>
       </c>
@@ -27976,8 +28621,12 @@
       <c r="U165" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V165" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="15.75" customHeight="1">
       <c r="A166" s="1">
         <v>3165</v>
       </c>
@@ -28037,8 +28686,12 @@
       <c r="U166" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V166" t="str">
+        <f t="shared" si="8"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="15.75" customHeight="1">
       <c r="A167" s="1">
         <v>3166</v>
       </c>
@@ -28102,8 +28755,12 @@
       <c r="U167" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V167" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="15.75" customHeight="1">
       <c r="A168" s="1">
         <v>3167</v>
       </c>
@@ -28163,8 +28820,12 @@
       <c r="U168" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V168" t="str">
+        <f t="shared" si="7"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="15.75" customHeight="1">
       <c r="A169" s="1">
         <v>3168</v>
       </c>
@@ -28224,8 +28885,12 @@
       <c r="U169" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V169" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="15.75" customHeight="1">
       <c r="A170" s="1">
         <v>3169</v>
       </c>
@@ -28285,8 +28950,12 @@
       <c r="U170" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V170" t="str">
+        <f>IF(L154 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="15.75" customHeight="1">
       <c r="A171" s="1">
         <v>3170</v>
       </c>
@@ -28346,8 +29015,12 @@
       <c r="U171" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V171" t="str">
+        <f t="shared" si="7"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" ht="15.75" customHeight="1">
       <c r="A172" s="1">
         <v>3171</v>
       </c>
@@ -28407,8 +29080,12 @@
       <c r="U172" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V172">
+        <f>IF(L156 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>3172</v>
       </c>
@@ -28474,8 +29151,12 @@
       <c r="U173" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V173">
+        <f t="shared" ref="V173:V174" si="11">IF(L157 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>3173</v>
       </c>
@@ -28539,8 +29220,12 @@
       <c r="U174" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V174" t="str">
+        <f>IF(L158 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>3174</v>
       </c>
@@ -28600,8 +29285,12 @@
       <c r="U175" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V175" t="str">
+        <f t="shared" si="7"/>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>3175</v>
       </c>
@@ -28665,8 +29354,12 @@
       <c r="U176" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V176" t="str">
+        <f>IF(L149 =0,$Y$149, )</f>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>3176</v>
       </c>
@@ -28726,8 +29419,12 @@
       <c r="U177" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V177" t="str">
+        <f t="shared" ref="V177:V184" si="12">IF(L150 =0,$Y$149, )</f>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="15.75" customHeight="1">
       <c r="A178" s="1">
         <v>3177</v>
       </c>
@@ -28791,8 +29488,12 @@
       <c r="U178" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V178" t="str">
+        <f t="shared" si="12"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="15.75" customHeight="1">
       <c r="A179" s="1">
         <v>3178</v>
       </c>
@@ -28852,8 +29553,12 @@
       <c r="U179" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V179" t="str">
+        <f>IF(L158 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="15.75" customHeight="1">
       <c r="A180" s="1">
         <v>3179</v>
       </c>
@@ -28913,8 +29618,12 @@
       <c r="U180" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V180">
+        <f t="shared" ref="V180:V181" si="13">IF(L159 =2,$Y$151, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="15.75" customHeight="1">
       <c r="A181" s="1">
         <v>3180</v>
       </c>
@@ -28978,8 +29687,12 @@
       <c r="U181" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V181" t="str">
+        <f t="shared" si="13"/>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="15.75" customHeight="1">
       <c r="A182" s="1">
         <v>3181</v>
       </c>
@@ -29043,8 +29756,12 @@
       <c r="U182" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V182" t="str">
+        <f t="shared" si="12"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="15.75" customHeight="1">
       <c r="A183" s="1">
         <v>3182</v>
       </c>
@@ -29108,8 +29825,12 @@
       <c r="U183" s="7" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V183" t="str">
+        <f t="shared" si="12"/>
+        <v>/images/properties/Home11.jpg</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>3183</v>
       </c>
@@ -29169,29 +29890,33 @@
       <c r="U184" s="7" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" ht="15.75" customHeight="1">
+      <c r="V184" t="str">
+        <f>IF(L158 =2,$Y$151, )</f>
+        <v>/images/properties/Home12.jpg</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="15.75" customHeight="1">
       <c r="T185" s="34"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" customHeight="1">
+    <row r="186" spans="1:22" ht="15.75" customHeight="1">
       <c r="T186" s="34"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" customHeight="1">
+    <row r="187" spans="1:22" ht="15.75" customHeight="1">
       <c r="T187" s="34"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" customHeight="1">
+    <row r="188" spans="1:22" ht="15.75" customHeight="1">
       <c r="T188" s="34"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" customHeight="1">
+    <row r="189" spans="1:22" ht="15.75" customHeight="1">
       <c r="T189" s="34"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" customHeight="1">
+    <row r="190" spans="1:22" ht="15.75" customHeight="1">
       <c r="T190" s="34"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" customHeight="1">
+    <row r="191" spans="1:22" ht="15.75" customHeight="1">
       <c r="T191" s="34"/>
     </row>
-    <row r="192" spans="1:21" ht="15.75" customHeight="1">
+    <row r="192" spans="1:22" ht="15.75" customHeight="1">
       <c r="T192" s="34"/>
     </row>
     <row r="193" spans="20:20" ht="15.75" customHeight="1">
@@ -31750,7 +32475,7 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeksEnterprises\source\repos\Group-25\FinalProject\wwwroot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A659DD-A44D-4876-B673-57075EC68B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CA33F-4A55-495D-A15E-D11D0B5561DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="1131">
   <si>
     <t>Password</t>
   </si>
@@ -3401,6 +3401,42 @@
   </si>
   <si>
     <t>/images/properties/Home12.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home18.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home22.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home16.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home17.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home14.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home23.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home21.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home24.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home13.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home19.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home20.jpg</t>
+  </si>
+  <si>
+    <t>/images/properties/Home15.jpg</t>
   </si>
 </sst>
 </file>
@@ -3410,11 +3446,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3643,23 +3686,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3671,44 +3713,46 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3743,10 +3787,10 @@
       <sheetName val="Reservations"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2">
@@ -12824,9 +12868,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17615,16 +17659,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q25" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" customWidth="1"/>
     <col min="5" max="5" width="31.54296875" customWidth="1"/>
@@ -17642,11 +17686,11 @@
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
     <col min="20" max="20" width="10.6328125" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" customWidth="1"/>
-    <col min="23" max="28" width="8.6328125" customWidth="1"/>
+    <col min="22" max="22" width="26.7265625" customWidth="1"/>
+    <col min="23" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.5">
+    <row r="1" spans="1:27" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>362</v>
       </c>
@@ -17714,7 +17758,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.5">
+    <row r="2" spans="1:27" ht="14.5">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
@@ -17774,11 +17818,11 @@
       <c r="U2" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="43" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.5">
+    <row r="3" spans="1:27" ht="14.5">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
@@ -17842,11 +17886,11 @@
       <c r="U3" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="43" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.5">
+    <row r="4" spans="1:27" ht="14.5">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
@@ -17906,14 +17950,14 @@
       <c r="U4" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="44" t="s">
         <v>1109</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="AA4" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.5">
+    <row r="5" spans="1:27" ht="14.5">
       <c r="A5" s="1">
         <v>3004</v>
       </c>
@@ -17973,11 +18017,11 @@
       <c r="U5" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="45" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.5">
+    <row r="6" spans="1:27" ht="14.5">
       <c r="A6" s="1">
         <v>3005</v>
       </c>
@@ -18037,11 +18081,11 @@
       <c r="U6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V6" s="45" t="s">
+      <c r="V6" s="44" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.5">
+    <row r="7" spans="1:27" ht="14.5">
       <c r="A7" s="1">
         <v>3006</v>
       </c>
@@ -18105,11 +18149,11 @@
       <c r="U7" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="V7" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.5">
+    <row r="8" spans="1:27" ht="14.5">
       <c r="A8" s="1">
         <v>3007</v>
       </c>
@@ -18169,12 +18213,11 @@
       <c r="U8" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V8">
-        <f ca="1">IF(L8=0,Z6,V8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.5">
+      <c r="V8" s="44" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="14.5">
       <c r="A9" s="1">
         <v>3008</v>
       </c>
@@ -18238,11 +18281,11 @@
       <c r="U9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="44" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.5">
+    <row r="10" spans="1:27" ht="14.5">
       <c r="A10" s="1">
         <v>3009</v>
       </c>
@@ -18304,11 +18347,11 @@
       <c r="U10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V10" s="45" t="s">
+      <c r="V10" s="44" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.5">
+    <row r="11" spans="1:27" ht="14.5">
       <c r="A11" s="1">
         <v>3010</v>
       </c>
@@ -18368,11 +18411,11 @@
       <c r="U11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V11" s="45" t="s">
+      <c r="V11" s="47" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.5">
+    <row r="12" spans="1:27" ht="14.5">
       <c r="A12" s="1">
         <v>3011</v>
       </c>
@@ -18433,11 +18476,11 @@
         <v>380</v>
       </c>
       <c r="V12" t="str">
-        <f>IF(L12=0,Z4,V6)</f>
+        <f>IF(L12=0,AA4,V6)</f>
         <v>/images/properties/Home4.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.5">
+    <row r="13" spans="1:27" ht="14.5">
       <c r="A13" s="1">
         <v>3012</v>
       </c>
@@ -18497,12 +18540,12 @@
       <c r="U13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V13">
-        <f t="shared" ref="V13:V15" si="0">IF(L8 =4,$V$5, )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.5">
+      <c r="V13" t="str">
+        <f>IF(L13=0,AA5,V7)</f>
+        <v>/images/properties/Home9.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="14.5">
       <c r="A14" s="1">
         <v>3013</v>
       </c>
@@ -18562,11 +18605,11 @@
       <c r="U14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V14" s="45" t="s">
+      <c r="V14" s="47" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.5">
+    <row r="15" spans="1:27" ht="14.5">
       <c r="A15" s="1">
         <v>3014</v>
       </c>
@@ -18626,11 +18669,11 @@
       <c r="U15" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.5">
+    <row r="16" spans="1:27" ht="14.5">
       <c r="A16" s="1">
         <v>3015</v>
       </c>
@@ -18759,9 +18802,8 @@
       <c r="U17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V17">
-        <f>IF(L7 =4,$V$5, )</f>
-        <v>0</v>
+      <c r="V17" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.5">
@@ -18824,9 +18866,8 @@
       <c r="U18" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V18">
-        <f t="shared" ref="V18:V21" si="1">IF(L8 =4,$V$5, )</f>
-        <v>0</v>
+      <c r="V18" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.5">
@@ -18893,9 +18934,8 @@
       <c r="U19" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="V19" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.5">
@@ -18958,9 +18998,8 @@
       <c r="U20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="V20" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
@@ -19023,7 +19062,7 @@
       <c r="U21" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V21" s="45" t="s">
+      <c r="V21" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19088,7 +19127,7 @@
         <v>380</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" ref="V6:V69" si="2">IF(L22 =3,$V$4, )</f>
+        <f t="shared" ref="V22:V60" si="0">IF(L22 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -19156,7 +19195,7 @@
       <c r="U23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V23" s="45" t="s">
+      <c r="V23" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -19220,9 +19259,8 @@
       <c r="U24" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V24" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1">
@@ -19285,7 +19323,7 @@
       <c r="U25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V25" s="45" t="s">
+      <c r="V25" s="44" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -19349,7 +19387,7 @@
       <c r="U26" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V26" s="45" t="s">
+      <c r="V26" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19417,9 +19455,8 @@
       <c r="U27" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V27" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1">
@@ -19486,7 +19523,7 @@
       <c r="U28" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V28" s="45" t="s">
+      <c r="V28" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -19554,7 +19591,7 @@
       <c r="U29" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V29" s="45" t="s">
+      <c r="V29" s="44" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -19618,9 +19655,8 @@
       <c r="U30" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V30" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1">
@@ -19683,9 +19719,8 @@
       <c r="U31" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V31" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1">
@@ -19748,7 +19783,7 @@
       <c r="U32" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V32" s="45" t="s">
+      <c r="V32" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19817,7 +19852,7 @@
         <v>380</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -19881,9 +19916,8 @@
       <c r="U34" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V34">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V34" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1">
@@ -19946,7 +19980,7 @@
       <c r="U35" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V35" s="45" t="s">
+      <c r="V35" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -20014,9 +20048,8 @@
       <c r="U36" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V36" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1">
@@ -20083,7 +20116,7 @@
       <c r="U37" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V37" s="45" t="s">
+      <c r="V37" s="44" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -20151,7 +20184,7 @@
       <c r="U38" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V38" s="45" t="s">
+      <c r="V38" s="44" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -20220,7 +20253,7 @@
         <v>380</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -20284,9 +20317,8 @@
       <c r="U40" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V40" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1">
@@ -20349,9 +20381,8 @@
       <c r="U41" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V41" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
@@ -20414,9 +20445,8 @@
       <c r="U42" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V42" t="str">
-        <f t="shared" si="2"/>
-        <v>/images/properties/Home3.jpg</v>
+      <c r="V42" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
@@ -20479,9 +20509,8 @@
       <c r="U43" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V43" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1">
@@ -20548,7 +20577,7 @@
       <c r="U44" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V44" s="45" t="s">
+      <c r="V44" s="44" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -20612,7 +20641,7 @@
       <c r="U45" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V45" s="45" t="s">
+      <c r="V45" s="44" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -20676,9 +20705,8 @@
       <c r="U46" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V46" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
@@ -20741,7 +20769,7 @@
       <c r="U47" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V47" s="45" t="s">
+      <c r="V47" s="44" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -20809,7 +20837,7 @@
       <c r="U48" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V48" s="45" t="s">
+      <c r="V48" s="44" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -20877,9 +20905,8 @@
       <c r="U49" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V49" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1">
@@ -20942,9 +20969,8 @@
       <c r="U50" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V50" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1">
@@ -21007,9 +21033,8 @@
       <c r="U51" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V51" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1">
@@ -21073,7 +21098,7 @@
         <v>380</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21141,7 +21166,7 @@
       <c r="U53" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V53" s="45" t="s">
+      <c r="V53" s="44" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -21210,7 +21235,7 @@
         <v>380</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21278,7 +21303,7 @@
       <c r="U55" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V55" s="45" t="s">
+      <c r="V55" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -21342,7 +21367,9 @@
       <c r="U56" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V56" s="45"/>
+      <c r="V56" s="47" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1">
       <c r="A57" s="1">
@@ -21408,9 +21435,8 @@
       <c r="U57" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V57">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V57" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1">
@@ -21477,9 +21503,8 @@
       <c r="U58" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V58" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
@@ -21546,9 +21571,8 @@
       <c r="U59" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="V59" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1">
@@ -21616,7 +21640,7 @@
         <v>380</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21684,9 +21708,8 @@
       <c r="U61" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V61">
-        <f>IF(L7 =4,$V$5, )</f>
-        <v>0</v>
+      <c r="V61" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1">
@@ -21749,9 +21772,8 @@
       <c r="U62" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V62">
-        <f t="shared" ref="V62:V81" si="3">IF(L8 =4,$V$5, )</f>
-        <v>0</v>
+      <c r="V62" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1">
@@ -21818,9 +21840,8 @@
       <c r="U63" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V63" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1">
@@ -21887,9 +21908,8 @@
       <c r="U64" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V64">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V64" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1">
@@ -21956,9 +21976,8 @@
       <c r="U65" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V65" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1">
@@ -22025,9 +22044,8 @@
       <c r="U66" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V66">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V66" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1">
@@ -22094,9 +22112,8 @@
       <c r="U67" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V67" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
@@ -22159,9 +22176,8 @@
       <c r="U68" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V68">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V68" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1">
@@ -22224,9 +22240,8 @@
       <c r="U69" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V69" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1">
@@ -22293,9 +22308,8 @@
       <c r="U70" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V70">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V70" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1">
@@ -22358,9 +22372,8 @@
       <c r="U71" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V71">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V71" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
@@ -22423,9 +22436,8 @@
       <c r="U72" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V72">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V72" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
@@ -22492,7 +22504,7 @@
       <c r="U73" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V73" s="45" t="s">
+      <c r="V73" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -22556,9 +22568,8 @@
       <c r="U74" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V74">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V74" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
@@ -22625,9 +22636,8 @@
       <c r="U75" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V75">
-        <f>IF(L21 =4,$V$5, )</f>
-        <v>0</v>
+      <c r="V75" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1">
@@ -22694,9 +22704,8 @@
       <c r="U76" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V76">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="V76" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1">
@@ -22763,9 +22772,8 @@
       <c r="U77" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V77" s="45">
-        <f>IF(L88=4,$V$5, )</f>
-        <v>0</v>
+      <c r="V77" s="47" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
@@ -22828,7 +22836,7 @@
       <c r="U78" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V78" s="45" t="s">
+      <c r="V78" s="44" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -22892,9 +22900,8 @@
       <c r="U79" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V79">
-        <f t="shared" ref="V78:V83" si="4">IF(L79=4,$V$5, )</f>
-        <v>0</v>
+      <c r="V79" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1">
@@ -22957,9 +22964,8 @@
       <c r="U80" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V80">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="V80" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1">
@@ -23022,9 +23028,8 @@
       <c r="U81" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V81">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="V81" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1">
@@ -23087,9 +23092,8 @@
       <c r="U82" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V82">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="V82" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1">
@@ -23156,9 +23160,8 @@
       <c r="U83" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V83">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="V83" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1">
@@ -23226,7 +23229,7 @@
         <v>380</v>
       </c>
       <c r="V84" t="str">
-        <f t="shared" ref="V70:V133" si="5">IF(L84 =3,$V$4, )</f>
+        <f t="shared" ref="V84:V131" si="1">IF(L84 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -23291,7 +23294,7 @@
         <v>380</v>
       </c>
       <c r="V85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -23355,9 +23358,8 @@
       <c r="U86" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V86">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V86" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1">
@@ -23420,9 +23422,8 @@
       <c r="U87" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V87">
-        <f>IF(L87 =4,$V$4, )</f>
-        <v>0</v>
+      <c r="V87" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1">
@@ -23489,9 +23490,8 @@
       <c r="U88" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V88">
-        <f>IF(L88=4,$V$5, )</f>
-        <v>0</v>
+      <c r="V88" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1">
@@ -23554,7 +23554,7 @@
       <c r="U89" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V89" s="45" t="s">
+      <c r="V89" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="U90" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V90" s="45" t="s">
+      <c r="V90" s="44" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -23686,7 +23686,7 @@
       <c r="U91" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V91" s="45" t="s">
+      <c r="V91" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -23750,7 +23750,7 @@
       <c r="U92" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V92" s="45" t="s">
+      <c r="V92" s="44" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -23814,9 +23814,8 @@
       <c r="U93" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V93">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V93" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1">
@@ -23879,9 +23878,8 @@
       <c r="U94" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V94">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V94" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1">
@@ -23944,7 +23942,7 @@
       <c r="U95" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V95" s="45" t="s">
+      <c r="V95" s="44" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -24012,9 +24010,8 @@
       <c r="U96" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V96">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V96" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1">
@@ -24077,9 +24074,8 @@
       <c r="U97" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V97">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V97" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1">
@@ -24146,9 +24142,8 @@
       <c r="U98" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V98">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V98" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1">
@@ -24211,7 +24206,7 @@
       <c r="U99" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V99" s="45" t="s">
+      <c r="V99" s="44" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -24281,9 +24276,8 @@
       <c r="U100" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V100">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V100" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1">
@@ -24348,9 +24342,8 @@
       <c r="U101" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V101">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V101" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1">
@@ -24417,9 +24410,8 @@
       <c r="U102" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V102">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V102" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1">
@@ -24486,9 +24478,8 @@
       <c r="U103" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V103">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V103" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1">
@@ -24551,7 +24542,7 @@
       <c r="U104" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V104" s="45" t="s">
+      <c r="V104" s="44" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -24619,9 +24610,8 @@
       <c r="U105" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V105">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V105" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1">
@@ -24684,9 +24674,8 @@
       <c r="U106" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V106">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V106" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1">
@@ -24749,9 +24738,8 @@
       <c r="U107" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V107">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V107" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1">
@@ -24819,7 +24807,7 @@
         <v>380</v>
       </c>
       <c r="V108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -24883,9 +24871,8 @@
       <c r="U109" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V109">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V109" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1">
@@ -24952,9 +24939,8 @@
       <c r="U110" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V110" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1">
@@ -25021,7 +25007,7 @@
       <c r="U111" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V111" s="45" t="s">
+      <c r="V111" s="44" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -25086,7 +25072,7 @@
         <v>380</v>
       </c>
       <c r="V112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25154,8 +25140,8 @@
       <c r="U113" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V113">
-        <v>2</v>
+      <c r="V113" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="15.75" customHeight="1">
@@ -25220,7 +25206,7 @@
       <c r="U114" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V114" s="45" t="s">
+      <c r="V114" s="44" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -25284,9 +25270,8 @@
       <c r="U115" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V115">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V115" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="15.75" customHeight="1">
@@ -25353,9 +25338,8 @@
       <c r="U116" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V116">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V116" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="15.75" customHeight="1">
@@ -25422,9 +25406,8 @@
       <c r="U117" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V117">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V117" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="15.75" customHeight="1">
@@ -25487,9 +25470,8 @@
       <c r="U118" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V118">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V118" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="15.75" customHeight="1">
@@ -25556,9 +25538,8 @@
       <c r="U119" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V119">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V119" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="15.75" customHeight="1">
@@ -25625,9 +25606,8 @@
       <c r="U120" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V120">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V120" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="15.75" customHeight="1">
@@ -25691,7 +25671,7 @@
         <v>380</v>
       </c>
       <c r="V121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25760,7 +25740,7 @@
         <v>380</v>
       </c>
       <c r="V122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25824,7 +25804,7 @@
       <c r="U123" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V123" s="45" t="s">
+      <c r="V123" s="44" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -25888,9 +25868,8 @@
       <c r="U124" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V124">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V124" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="15.75" customHeight="1">
@@ -25953,7 +25932,7 @@
       <c r="U125" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V125" s="45" t="s">
+      <c r="V125" s="44" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -26017,7 +25996,7 @@
       <c r="U126" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V126" s="45" t="s">
+      <c r="V126" s="44" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -26081,9 +26060,8 @@
       <c r="U127" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V127">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V127" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1">
@@ -26146,9 +26124,8 @@
       <c r="U128" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V128">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V128" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="15.75" customHeight="1">
@@ -26211,9 +26188,8 @@
       <c r="U129" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V129">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V129" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="15.75" customHeight="1">
@@ -26276,9 +26252,8 @@
       <c r="U130" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V130">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="V130" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="15.75" customHeight="1">
@@ -26346,7 +26321,7 @@
         <v>380</v>
       </c>
       <c r="V131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -26415,7 +26390,7 @@
         <v>380</v>
       </c>
       <c r="V132" t="str">
-        <f>IF(L158 =2,$Y$151, )</f>
+        <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26479,9 +26454,8 @@
       <c r="U133" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V133">
-        <f t="shared" ref="V133:V145" si="6">IF(L159 =2,$Y$151, )</f>
-        <v>0</v>
+      <c r="V133" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="15.75" customHeight="1">
@@ -26545,7 +26519,7 @@
         <v>380</v>
       </c>
       <c r="V134" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(L160 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26614,7 +26588,7 @@
         <v>380</v>
       </c>
       <c r="V135" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(L161 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26683,7 +26657,7 @@
         <v>380</v>
       </c>
       <c r="V136" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(L162 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26748,7 +26722,7 @@
         <v>380</v>
       </c>
       <c r="V137" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(L163 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26812,6 +26786,9 @@
       <c r="U138" s="7" t="s">
         <v>380</v>
       </c>
+      <c r="V138" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="139" spans="1:22" ht="15.75" customHeight="1">
       <c r="A139" s="1">
@@ -26874,7 +26851,7 @@
         <v>380</v>
       </c>
       <c r="V139" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(L165 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -26938,9 +26915,8 @@
       <c r="U140" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V140">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="V140" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="15.75" customHeight="1">
@@ -27003,9 +26979,8 @@
       <c r="U141" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V141">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="V141" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="15.75" customHeight="1">
@@ -27068,9 +27043,8 @@
       <c r="U142" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V142">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="V142" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="15.75" customHeight="1">
@@ -27133,9 +27107,8 @@
       <c r="U143" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V143">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="V143" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="15.75" customHeight="1">
@@ -27202,12 +27175,11 @@
       <c r="U144" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V144">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+      <c r="V144" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>3144</v>
       </c>
@@ -27271,12 +27243,11 @@
       <c r="U145" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V145">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+      <c r="V145" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>3145</v>
       </c>
@@ -27337,11 +27308,11 @@
         <v>380</v>
       </c>
       <c r="V146" t="str">
-        <f t="shared" ref="V134:V184" si="7">IF(L146 =3,$V$4, )</f>
+        <f t="shared" ref="V146:V175" si="2">IF(L146 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:28" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>3146</v>
       </c>
@@ -27405,12 +27376,11 @@
       <c r="U147" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V147">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+      <c r="V147" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>3147</v>
       </c>
@@ -27474,12 +27444,11 @@
       <c r="U148" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V148">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+      <c r="V148" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>3148</v>
       </c>
@@ -27540,14 +27509,14 @@
         <v>380</v>
       </c>
       <c r="V149" t="str">
-        <f>IF(L149 =0,$Y$149, )</f>
+        <f>IF(L149 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-      <c r="Y149" s="45" t="s">
+      <c r="AB149" s="44" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+    <row r="150" spans="1:28" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>3149</v>
       </c>
@@ -27608,11 +27577,11 @@
         <v>380</v>
       </c>
       <c r="V150" t="str">
-        <f t="shared" ref="V150:V167" si="8">IF(L150 =0,$Y$149, )</f>
+        <f>IF(L150 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+    <row r="151" spans="1:28" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>3150</v>
       </c>
@@ -27677,14 +27646,14 @@
         <v>380</v>
       </c>
       <c r="V151" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L151 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-      <c r="Y151" s="45" t="s">
+      <c r="AB151" s="44" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:28" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>3151</v>
       </c>
@@ -27745,11 +27714,11 @@
         <v>380</v>
       </c>
       <c r="V152" t="str">
-        <f>IF(L152 =2,$Y$151, )</f>
+        <f>IF(L152 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+    <row r="153" spans="1:28" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>3152</v>
       </c>
@@ -27809,12 +27778,11 @@
       <c r="U153" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V153">
-        <f t="shared" ref="V153:V154" si="9">IF(L153 =2,$Y$151, )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+      <c r="V153" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>3153</v>
       </c>
@@ -27879,11 +27847,11 @@
         <v>380</v>
       </c>
       <c r="V154" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+    <row r="155" spans="1:28" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>3154</v>
       </c>
@@ -27948,11 +27916,11 @@
         <v>380</v>
       </c>
       <c r="V155" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L155 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+    <row r="156" spans="1:28" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>3155</v>
       </c>
@@ -28017,11 +27985,11 @@
         <v>380</v>
       </c>
       <c r="V156" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L156 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+    <row r="157" spans="1:28" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>3156</v>
       </c>
@@ -28086,11 +28054,11 @@
         <v>380</v>
       </c>
       <c r="V157" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+    <row r="158" spans="1:28" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>3157</v>
       </c>
@@ -28151,11 +28119,11 @@
         <v>380</v>
       </c>
       <c r="V158" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+    <row r="159" spans="1:28" ht="15.75" customHeight="1">
       <c r="A159" s="1">
         <v>3158</v>
       </c>
@@ -28220,11 +28188,11 @@
         <v>380</v>
       </c>
       <c r="V159" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L159 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+    <row r="160" spans="1:28" ht="15.75" customHeight="1">
       <c r="A160" s="1">
         <v>3159</v>
       </c>
@@ -28285,7 +28253,7 @@
         <v>380</v>
       </c>
       <c r="V160" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -28353,9 +28321,8 @@
       <c r="U161" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V161">
-        <f t="shared" ref="V161:V163" si="10">IF(L155 =2,$Y$151, )</f>
-        <v>0</v>
+      <c r="V161" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="15.75" customHeight="1">
@@ -28422,9 +28389,8 @@
       <c r="U162" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V162">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="V162" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="15.75" customHeight="1">
@@ -28487,9 +28453,8 @@
       <c r="U163" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V163">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="V163" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="164" spans="1:22" ht="15.75" customHeight="1">
@@ -28557,7 +28522,7 @@
         <v>380</v>
       </c>
       <c r="V164" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L164 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -28622,7 +28587,7 @@
         <v>380</v>
       </c>
       <c r="V165" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -28687,7 +28652,7 @@
         <v>380</v>
       </c>
       <c r="V166" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(L166 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -28756,7 +28721,7 @@
         <v>380</v>
       </c>
       <c r="V167" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -28821,7 +28786,7 @@
         <v>380</v>
       </c>
       <c r="V168" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -28886,7 +28851,7 @@
         <v>380</v>
       </c>
       <c r="V169" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -28951,7 +28916,7 @@
         <v>380</v>
       </c>
       <c r="V170" t="str">
-        <f>IF(L154 =2,$Y$151, )</f>
+        <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -29016,7 +28981,7 @@
         <v>380</v>
       </c>
       <c r="V171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -29080,9 +29045,8 @@
       <c r="U172" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V172">
-        <f>IF(L156 =2,$Y$151, )</f>
-        <v>0</v>
+      <c r="V172" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="15.75" customHeight="1">
@@ -29151,9 +29115,8 @@
       <c r="U173" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V173">
-        <f t="shared" ref="V173:V174" si="11">IF(L157 =2,$Y$151, )</f>
-        <v>0</v>
+      <c r="V173" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="15.75" customHeight="1">
@@ -29221,7 +29184,7 @@
         <v>380</v>
       </c>
       <c r="V174" t="str">
-        <f>IF(L158 =2,$Y$151, )</f>
+        <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -29286,7 +29249,7 @@
         <v>380</v>
       </c>
       <c r="V175" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -29355,7 +29318,7 @@
         <v>390</v>
       </c>
       <c r="V176" t="str">
-        <f>IF(L149 =0,$Y$149, )</f>
+        <f>IF(L149 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -29420,7 +29383,7 @@
         <v>380</v>
       </c>
       <c r="V177" t="str">
-        <f t="shared" ref="V177:V184" si="12">IF(L150 =0,$Y$149, )</f>
+        <f>IF(L150 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -29489,7 +29452,7 @@
         <v>380</v>
       </c>
       <c r="V178" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(L151 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -29554,7 +29517,7 @@
         <v>380</v>
       </c>
       <c r="V179" t="str">
-        <f>IF(L158 =2,$Y$151, )</f>
+        <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -29618,9 +29581,8 @@
       <c r="U180" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V180">
-        <f t="shared" ref="V180:V181" si="13">IF(L159 =2,$Y$151, )</f>
-        <v>0</v>
+      <c r="V180" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="181" spans="1:22" ht="15.75" customHeight="1">
@@ -29688,7 +29650,7 @@
         <v>380</v>
       </c>
       <c r="V181" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(L160 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -29757,7 +29719,7 @@
         <v>380</v>
       </c>
       <c r="V182" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(L155 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -29826,7 +29788,7 @@
         <v>390</v>
       </c>
       <c r="V183" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(L156 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
     </row>
@@ -29891,7 +29853,7 @@
         <v>380</v>
       </c>
       <c r="V184" t="str">
-        <f>IF(L158 =2,$Y$151, )</f>
+        <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
@@ -32475,8 +32437,8 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -32559,7 +32521,7 @@
         <f>VLOOKUP(B2,[1]Properties!$A$2:Q184,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="46">
         <f>VLOOKUP(B2,[1]Properties!$A$2:Q184,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32602,7 +32564,7 @@
         <f>VLOOKUP(B3,[1]Properties!$A$2:Q185,12,FALSE)</f>
         <v>26.36</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="46">
         <f>VLOOKUP(B3,[1]Properties!$A$2:Q185,17,FALSE)</f>
         <v>0.21728196533777849</v>
       </c>
@@ -32627,8 +32589,8 @@
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="8">
-        <v>45601</v>
+      <c r="D4" s="38">
+        <v>45602</v>
       </c>
       <c r="E4" s="8">
         <v>45606</v>
@@ -32645,7 +32607,7 @@
         <f>VLOOKUP(B4,[1]Properties!$A$2:Q186,12,FALSE)</f>
         <v>13.74</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="46">
         <f>VLOOKUP(B4,[1]Properties!$A$2:Q186,17,FALSE)</f>
         <v>0.15783334197277493</v>
       </c>
@@ -32688,7 +32650,7 @@
         <f>VLOOKUP(B5,[1]Properties!$A$2:Q187,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="46">
         <f>VLOOKUP(B5,[1]Properties!$A$2:Q187,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32731,7 +32693,7 @@
         <f>VLOOKUP(B6,[1]Properties!$A$2:Q188,12,FALSE)</f>
         <v>25.57</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="46">
         <f>VLOOKUP(B6,[1]Properties!$A$2:Q188,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32742,8 +32704,8 @@
       <c r="K6" s="7">
         <v>21903</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>1019</v>
+      <c r="L6" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.5">
@@ -32774,7 +32736,7 @@
         <f>VLOOKUP(B7,[1]Properties!$A$2:Q189,12,FALSE)</f>
         <v>27.65</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="46">
         <f>VLOOKUP(B7,[1]Properties!$A$2:Q189,17,FALSE)</f>
         <v>8.7890398442729001E-2</v>
       </c>
@@ -32817,7 +32779,7 @@
         <f>VLOOKUP(B8,[1]Properties!$A$2:Q190,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="46">
         <f>VLOOKUP(B8,[1]Properties!$A$2:Q190,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32843,7 +32805,7 @@
         <v>143</v>
       </c>
       <c r="D9" s="8">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="E9" s="8">
         <v>45623</v>
@@ -32860,7 +32822,7 @@
         <f>VLOOKUP(B9,[1]Properties!$A$2:Q191,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="46">
         <f>VLOOKUP(B9,[1]Properties!$A$2:Q191,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32871,8 +32833,8 @@
       <c r="K9" s="7">
         <v>21906</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>1019</v>
+      <c r="L9" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.5">
@@ -32903,7 +32865,7 @@
         <f>VLOOKUP(B10,[1]Properties!$A$2:Q192,12,FALSE)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="46">
         <f>VLOOKUP(B10,[1]Properties!$A$2:Q192,17,FALSE)</f>
         <v>0.17515031842671308</v>
       </c>
@@ -32946,7 +32908,7 @@
         <f>VLOOKUP(B11,[1]Properties!$A$2:Q193,12,FALSE)</f>
         <v>18.440000000000001</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="46">
         <f>VLOOKUP(B11,[1]Properties!$A$2:Q193,17,FALSE)</f>
         <v>7.7256559285791185E-2</v>
       </c>
@@ -32989,7 +32951,7 @@
         <f>VLOOKUP(B12,[1]Properties!$A$2:Q194,12,FALSE)</f>
         <v>24.75</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="46">
         <f>VLOOKUP(B12,[1]Properties!$A$2:Q194,17,FALSE)</f>
         <v>0.16765499120781757</v>
       </c>
@@ -33017,8 +32979,8 @@
       <c r="D13" s="8">
         <v>45624</v>
       </c>
-      <c r="E13" s="8">
-        <v>45633</v>
+      <c r="E13" s="38">
+        <v>45627</v>
       </c>
       <c r="F13" s="23">
         <f>VLOOKUP(B13,[1]Properties!$A$2:Q195,7,FALSE)</f>
@@ -33032,7 +32994,7 @@
         <f>VLOOKUP(B13,[1]Properties!$A$2:Q195,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="46">
         <f>VLOOKUP(B13,[1]Properties!$A$2:Q195,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -33060,8 +33022,8 @@
       <c r="D14" s="8">
         <v>45597</v>
       </c>
-      <c r="E14" s="8">
-        <v>45625</v>
+      <c r="E14" s="38">
+        <v>45601</v>
       </c>
       <c r="F14" s="23">
         <f>VLOOKUP(B14,[1]Properties!$A$2:Q196,7,FALSE)</f>
@@ -33075,7 +33037,7 @@
         <f>VLOOKUP(B14,[1]Properties!$A$2:Q196,12,FALSE)</f>
         <v>25.57</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="46">
         <f>VLOOKUP(B14,[1]Properties!$A$2:Q196,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33118,7 +33080,7 @@
         <f>VLOOKUP(B15,[1]Properties!$A$2:Q197,12,FALSE)</f>
         <v>24.31</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="46">
         <f>VLOOKUP(B15,[1]Properties!$A$2:Q197,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33161,7 +33123,7 @@
         <f>VLOOKUP(B16,[1]Properties!$A$2:Q198,12,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="46">
         <f>VLOOKUP(B16,[1]Properties!$A$2:Q198,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33189,8 +33151,8 @@
       <c r="D17" s="8">
         <v>45597</v>
       </c>
-      <c r="E17" s="8">
-        <v>45618</v>
+      <c r="E17" s="38">
+        <v>45612</v>
       </c>
       <c r="F17" s="23">
         <f>VLOOKUP(B17,[1]Properties!$A$2:Q199,7,FALSE)</f>
@@ -33204,7 +33166,7 @@
         <f>VLOOKUP(B17,[1]Properties!$A$2:Q199,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="46">
         <f>VLOOKUP(B17,[1]Properties!$A$2:Q199,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33247,7 +33209,7 @@
         <f>VLOOKUP(B18,[1]Properties!$A$2:Q200,12,FALSE)</f>
         <v>5.88</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="46">
         <f>VLOOKUP(B18,[1]Properties!$A$2:Q200,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33290,7 +33252,7 @@
         <f>VLOOKUP(B19,[1]Properties!$A$2:Q201,12,FALSE)</f>
         <v>29.74</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="46">
         <f>VLOOKUP(B19,[1]Properties!$A$2:Q201,17,FALSE)</f>
         <v>0.15023775787043414</v>
       </c>
@@ -33315,8 +33277,8 @@
       <c r="C20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="8">
-        <v>45627</v>
+      <c r="D20" s="38">
+        <v>45628</v>
       </c>
       <c r="E20" s="8">
         <v>45631</v>
@@ -33333,7 +33295,7 @@
         <f>VLOOKUP(B20,[1]Properties!$A$2:Q202,12,FALSE)</f>
         <v>8.27</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="46">
         <f>VLOOKUP(B20,[1]Properties!$A$2:Q202,17,FALSE)</f>
         <v>0.16075149978012182</v>
       </c>
@@ -33344,8 +33306,8 @@
       <c r="K20" s="7">
         <v>21917</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>1019</v>
+      <c r="L20" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
@@ -33376,7 +33338,7 @@
         <f>VLOOKUP(B21,[1]Properties!$A$2:Q203,12,FALSE)</f>
         <v>5.88</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="46">
         <f>VLOOKUP(B21,[1]Properties!$A$2:Q203,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33419,7 +33381,7 @@
         <f>VLOOKUP(B22,[1]Properties!$A$2:Q204,12,FALSE)</f>
         <v>24.26</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="46">
         <f>VLOOKUP(B22,[1]Properties!$A$2:Q204,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33444,8 +33406,8 @@
       <c r="C23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="8">
-        <v>45634</v>
+      <c r="D23" s="38">
+        <v>45636</v>
       </c>
       <c r="E23" s="8">
         <v>45637</v>
@@ -33462,7 +33424,7 @@
         <f>VLOOKUP(B23,[1]Properties!$A$2:Q205,12,FALSE)</f>
         <v>6.56</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="46">
         <f>VLOOKUP(B23,[1]Properties!$A$2:Q205,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33487,8 +33449,8 @@
       <c r="C24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="8">
-        <v>45634</v>
+      <c r="D24" s="38">
+        <v>45635</v>
       </c>
       <c r="E24" s="8">
         <v>45636</v>
@@ -33505,7 +33467,7 @@
         <f>VLOOKUP(B24,[1]Properties!$A$2:Q206,12,FALSE)</f>
         <v>18.64</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="46">
         <f>VLOOKUP(B24,[1]Properties!$A$2:Q206,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33533,8 +33495,8 @@
       <c r="D25" s="8">
         <v>45618</v>
       </c>
-      <c r="E25" s="8">
-        <v>45631</v>
+      <c r="E25" s="38">
+        <v>45627</v>
       </c>
       <c r="F25" s="23">
         <f>VLOOKUP(B25,[1]Properties!$A$2:Q207,7,FALSE)</f>
@@ -33548,7 +33510,7 @@
         <f>VLOOKUP(B25,[1]Properties!$A$2:Q207,12,FALSE)</f>
         <v>8.27</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="46">
         <f>VLOOKUP(B25,[1]Properties!$A$2:Q207,17,FALSE)</f>
         <v>0.16075149978012182</v>
       </c>
@@ -33559,8 +33521,8 @@
       <c r="K25" s="7">
         <v>21919</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>1019</v>
+      <c r="L25" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
@@ -33591,7 +33553,7 @@
         <f>VLOOKUP(B26,[1]Properties!$A$2:Q208,12,FALSE)</f>
         <v>13.02</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="46">
         <f>VLOOKUP(B26,[1]Properties!$A$2:Q208,17,FALSE)</f>
         <v>0.17221234967106303</v>
       </c>
@@ -33634,7 +33596,7 @@
         <f>VLOOKUP(B27,[1]Properties!$A$2:Q209,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>VLOOKUP(B27,[1]Properties!$A$2:Q209,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -33659,8 +33621,8 @@
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="8">
-        <v>45632</v>
+      <c r="D28" s="38">
+        <v>45638</v>
       </c>
       <c r="E28" s="8">
         <v>45641</v>
@@ -33677,7 +33639,7 @@
         <f>VLOOKUP(B28,[1]Properties!$A$2:Q210,12,FALSE)</f>
         <v>11.07</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="46">
         <f>VLOOKUP(B28,[1]Properties!$A$2:Q210,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33720,7 +33682,7 @@
         <f>VLOOKUP(B29,[1]Properties!$A$2:Q211,12,FALSE)</f>
         <v>14.53</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="46">
         <f>VLOOKUP(B29,[1]Properties!$A$2:Q211,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33763,7 +33725,7 @@
         <f>VLOOKUP(B30,[1]Properties!$A$2:Q212,12,FALSE)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="46">
         <f>VLOOKUP(B30,[1]Properties!$A$2:Q212,17,FALSE)</f>
         <v>9.0923177642016323E-2</v>
       </c>
@@ -33806,7 +33768,7 @@
         <f>VLOOKUP(B31,[1]Properties!$A$2:Q213,12,FALSE)</f>
         <v>13.02</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="46">
         <f>VLOOKUP(B31,[1]Properties!$A$2:Q213,17,FALSE)</f>
         <v>0.17221234967106303</v>
       </c>
@@ -33834,8 +33796,8 @@
       <c r="D32" s="8">
         <v>45642</v>
       </c>
-      <c r="E32" s="8">
-        <v>45657</v>
+      <c r="E32" s="38">
+        <v>45648</v>
       </c>
       <c r="F32" s="23">
         <f>VLOOKUP(B32,[1]Properties!$A$2:Q214,7,FALSE)</f>
@@ -33849,7 +33811,7 @@
         <f>VLOOKUP(B32,[1]Properties!$A$2:Q214,12,FALSE)</f>
         <v>5.36</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="46">
         <f>VLOOKUP(B32,[1]Properties!$A$2:Q214,17,FALSE)</f>
         <v>0.22717037959754555</v>
       </c>
@@ -33877,8 +33839,8 @@
       <c r="D33" s="8">
         <v>45616</v>
       </c>
-      <c r="E33" s="8">
-        <v>45648</v>
+      <c r="E33" s="38">
+        <v>45627</v>
       </c>
       <c r="F33" s="23">
         <f>VLOOKUP(B33,[1]Properties!$A$2:Q215,7,FALSE)</f>
@@ -33892,7 +33854,7 @@
         <f>VLOOKUP(B33,[1]Properties!$A$2:Q215,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="46">
         <f>VLOOKUP(B33,[1]Properties!$A$2:Q215,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -33935,7 +33897,7 @@
         <f>VLOOKUP(B34,[1]Properties!$A$2:Q216,12,FALSE)</f>
         <v>17.59</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="46">
         <f>VLOOKUP(B34,[1]Properties!$A$2:Q216,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33960,8 +33922,8 @@
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="8">
-        <v>45650</v>
+      <c r="D35" s="38">
+        <v>45654</v>
       </c>
       <c r="E35" s="8">
         <v>45657</v>
@@ -33978,7 +33940,7 @@
         <f>VLOOKUP(B35,[1]Properties!$A$2:Q217,12,FALSE)</f>
         <v>25.94</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="46">
         <f>VLOOKUP(B35,[1]Properties!$A$2:Q217,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34021,7 +33983,7 @@
         <f>VLOOKUP(B36,[1]Properties!$A$2:Q218,12,FALSE)</f>
         <v>19.14</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="46">
         <f>VLOOKUP(B36,[1]Properties!$A$2:Q218,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34046,8 +34008,8 @@
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="8">
-        <v>45627</v>
+      <c r="D37" s="38">
+        <v>45628</v>
       </c>
       <c r="E37" s="8">
         <v>45632</v>
@@ -34064,7 +34026,7 @@
         <f>VLOOKUP(B37,[1]Properties!$A$2:Q219,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="46">
         <f>VLOOKUP(B37,[1]Properties!$A$2:Q219,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34075,8 +34037,8 @@
       <c r="K37" s="7">
         <v>21926</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>1019</v>
+      <c r="L37" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
@@ -34107,7 +34069,7 @@
         <f>VLOOKUP(B38,[1]Properties!$A$2:Q220,12,FALSE)</f>
         <v>11.35</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="46">
         <f>VLOOKUP(B38,[1]Properties!$A$2:Q220,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34150,7 +34112,7 @@
         <f>VLOOKUP(B39,[1]Properties!$A$2:Q221,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="46">
         <f>VLOOKUP(B39,[1]Properties!$A$2:Q221,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -34193,7 +34155,7 @@
         <f>VLOOKUP(B40,[1]Properties!$A$2:Q222,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="46">
         <f>VLOOKUP(B40,[1]Properties!$A$2:Q222,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34218,8 +34180,8 @@
       <c r="C41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="8">
-        <v>45649</v>
+      <c r="D41" s="38">
+        <v>45654</v>
       </c>
       <c r="E41" s="8">
         <v>45660</v>
@@ -34236,7 +34198,7 @@
         <f>VLOOKUP(B41,[1]Properties!$A$2:Q223,12,FALSE)</f>
         <v>23.55</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="46">
         <f>VLOOKUP(B41,[1]Properties!$A$2:Q223,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34279,7 +34241,7 @@
         <f>VLOOKUP(B42,[1]Properties!$A$2:Q224,12,FALSE)</f>
         <v>15.89</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="46">
         <f>VLOOKUP(B42,[1]Properties!$A$2:Q224,17,FALSE)</f>
         <v>0.24471219336460792</v>
       </c>
@@ -34322,7 +34284,7 @@
         <f>VLOOKUP(B43,[1]Properties!$A$2:Q225,12,FALSE)</f>
         <v>6.69</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="46">
         <f>VLOOKUP(B43,[1]Properties!$A$2:Q225,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34365,7 +34327,7 @@
         <f>VLOOKUP(B44,[1]Properties!$A$2:Q226,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="46">
         <f>VLOOKUP(B44,[1]Properties!$A$2:Q226,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34408,7 +34370,7 @@
         <f>VLOOKUP(B45,[1]Properties!$A$2:Q227,12,FALSE)</f>
         <v>18.690000000000001</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="46">
         <f>VLOOKUP(B45,[1]Properties!$A$2:Q227,17,FALSE)</f>
         <v>7.8328543071037413E-2</v>
       </c>
@@ -34433,8 +34395,8 @@
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="8">
-        <v>45641</v>
+      <c r="D46" s="38">
+        <v>45652</v>
       </c>
       <c r="E46" s="8">
         <v>45657</v>
@@ -34451,7 +34413,7 @@
         <f>VLOOKUP(B46,[1]Properties!$A$2:Q228,12,FALSE)</f>
         <v>25.11</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="46">
         <f>VLOOKUP(B46,[1]Properties!$A$2:Q228,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34476,8 +34438,8 @@
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="8">
-        <v>45628</v>
+      <c r="D47" s="38">
+        <v>45630</v>
       </c>
       <c r="E47" s="8">
         <v>45632</v>
@@ -34494,7 +34456,7 @@
         <f>VLOOKUP(B47,[1]Properties!$A$2:Q229,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="46">
         <f>VLOOKUP(B47,[1]Properties!$A$2:Q229,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -34505,8 +34467,8 @@
       <c r="K47" s="7">
         <v>21932</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>1019</v>
+      <c r="L47" s="37" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
@@ -34519,8 +34481,8 @@
       <c r="C48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="8">
-        <v>45631</v>
+      <c r="D48" s="38">
+        <v>45632</v>
       </c>
       <c r="E48" s="8">
         <v>45636</v>
@@ -34537,7 +34499,7 @@
         <f>VLOOKUP(B48,[1]Properties!$A$2:Q230,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="46">
         <f>VLOOKUP(B48,[1]Properties!$A$2:Q230,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34580,7 +34542,7 @@
         <f>VLOOKUP(B49,[1]Properties!$A$2:Q231,12,FALSE)</f>
         <v>6.82</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="46">
         <f>VLOOKUP(B49,[1]Properties!$A$2:Q231,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34623,7 +34585,7 @@
         <f>VLOOKUP(B50,[1]Properties!$A$2:Q232,12,FALSE)</f>
         <v>5.62</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="46">
         <f>VLOOKUP(B50,[1]Properties!$A$2:Q232,17,FALSE)</f>
         <v>5.8409227655741816E-2</v>
       </c>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CA33F-4A55-495D-A15E-D11D0B5561DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662DC07-B753-4284-A1F0-E2EAC33AA0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17661,14 +17661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" customWidth="1"/>
     <col min="5" max="5" width="31.54296875" customWidth="1"/>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662DC07-B753-4284-A1F0-E2EAC33AA0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F191020C-05FE-4625-B564-1E61385A351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3446,11 +3446,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3686,23 +3693,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3714,44 +3720,46 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -17661,8 +17669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17684,7 +17692,7 @@
     <col min="17" max="17" width="13.54296875" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
     <col min="22" max="22" width="26.7265625" customWidth="1"/>
     <col min="23" max="26" width="8.6328125" customWidth="1"/>
@@ -18605,7 +18613,7 @@
       <c r="U14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V14" s="47" t="s">
+      <c r="V14" s="48" t="s">
         <v>1115</v>
       </c>
     </row>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F191020C-05FE-4625-B564-1E61385A351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319A5C5-20FA-4BED-A998-153BC28B1E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13084,8 +13084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A51" zoomScale="71" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17669,8 +17669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319A5C5-20FA-4BED-A998-153BC28B1E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9A996-4432-43C4-A1BA-4D722EC30AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3690,10 +3690,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3739,10 +3740,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3761,9 +3758,20 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17669,14 +17677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="39" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" customWidth="1"/>
     <col min="5" max="5" width="31.54296875" customWidth="1"/>
@@ -17692,7 +17700,7 @@
     <col min="17" max="17" width="13.54296875" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
-    <col min="20" max="20" width="14.36328125" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" style="49" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
     <col min="22" max="22" width="26.7265625" customWidth="1"/>
     <col min="23" max="26" width="8.6328125" customWidth="1"/>
@@ -17702,7 +17710,7 @@
       <c r="A1" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>1101</v>
       </c>
       <c r="C1" s="32" t="s">
@@ -17756,10 +17764,10 @@
       <c r="S1" s="32" t="s">
         <v>1099</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="48" t="s">
         <v>1014</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>1098</v>
       </c>
       <c r="V1" s="26" t="s">
@@ -17770,7 +17778,7 @@
       <c r="A2" s="1">
         <v>3001</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="2" t="s">
         <v>375</v>
       </c>
@@ -17822,11 +17830,11 @@
         <v>9</v>
       </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="33"/>
+      <c r="T2" s="47"/>
       <c r="U2" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="41" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -17834,7 +17842,7 @@
       <c r="A3" s="1">
         <v>3002</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2" t="s">
         <v>381</v>
       </c>
@@ -17888,21 +17896,25 @@
       <c r="S3" s="6">
         <v>4</v>
       </c>
-      <c r="T3" s="33">
-        <v>0.13755395258049169</v>
+      <c r="T3" s="47">
+        <v>14</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="41" t="s">
         <v>1108</v>
+      </c>
+      <c r="X3">
+        <f>14</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.5">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="2" t="s">
         <v>386</v>
       </c>
@@ -17954,14 +17966,14 @@
         <v>8</v>
       </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="33"/>
+      <c r="T4" s="47"/>
       <c r="U4" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="42" t="s">
         <v>1109</v>
       </c>
-      <c r="AA4" s="44" t="s">
+      <c r="AA4" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -17969,7 +17981,7 @@
       <c r="A5" s="1">
         <v>3004</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="2" t="s">
         <v>391</v>
       </c>
@@ -18021,11 +18033,11 @@
         <v>14</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="33"/>
+      <c r="T5" s="47"/>
       <c r="U5" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V5" s="45" t="s">
+      <c r="V5" s="43" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -18033,7 +18045,7 @@
       <c r="A6" s="1">
         <v>3005</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2" t="s">
         <v>395</v>
       </c>
@@ -18085,11 +18097,11 @@
         <v>12</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="33"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="V6" s="42" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -18097,7 +18109,7 @@
       <c r="A7" s="1">
         <v>3006</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="2" t="s">
         <v>399</v>
       </c>
@@ -18151,21 +18163,24 @@
       <c r="S7" s="6">
         <v>10</v>
       </c>
-      <c r="T7" s="33">
-        <v>0.23569316449850608</v>
+      <c r="T7" s="47">
+        <v>24</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V7" s="44" t="s">
+      <c r="V7" s="42" t="s">
         <v>1115</v>
+      </c>
+      <c r="X7">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.5">
       <c r="A8" s="1">
         <v>3007</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="2" t="s">
         <v>403</v>
       </c>
@@ -18217,11 +18232,11 @@
         <v>9</v>
       </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="33"/>
+      <c r="T8" s="47"/>
       <c r="U8" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -18229,7 +18244,7 @@
       <c r="A9" s="1">
         <v>3008</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="2" t="s">
         <v>406</v>
       </c>
@@ -18283,21 +18298,24 @@
       <c r="S9" s="6">
         <v>7</v>
       </c>
-      <c r="T9" s="33">
-        <v>5.2902566929787058E-2</v>
+      <c r="T9" s="47">
+        <v>5</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="42" t="s">
         <v>1112</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.5">
       <c r="A10" s="1">
         <v>3009</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>1102</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -18351,11 +18369,11 @@
         <v>4</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="33"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="V10" s="42" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -18363,7 +18381,7 @@
       <c r="A11" s="1">
         <v>3010</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="2" t="s">
         <v>414</v>
       </c>
@@ -18415,11 +18433,11 @@
         <v>3</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="33"/>
+      <c r="T11" s="47"/>
       <c r="U11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="45" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -18427,7 +18445,7 @@
       <c r="A12" s="1">
         <v>3011</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="2" t="s">
         <v>418</v>
       </c>
@@ -18479,7 +18497,7 @@
         <v>14</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="33"/>
+      <c r="T12" s="47"/>
       <c r="U12" s="7" t="s">
         <v>380</v>
       </c>
@@ -18492,7 +18510,7 @@
       <c r="A13" s="1">
         <v>3012</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="2" t="s">
         <v>422</v>
       </c>
@@ -18544,7 +18562,7 @@
         <v>8</v>
       </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="33"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="7" t="s">
         <v>380</v>
       </c>
@@ -18557,7 +18575,7 @@
       <c r="A14" s="1">
         <v>3013</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="2" t="s">
         <v>425</v>
       </c>
@@ -18609,11 +18627,11 @@
         <v>4</v>
       </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="33"/>
+      <c r="T14" s="47"/>
       <c r="U14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V14" s="48" t="s">
+      <c r="V14" s="46" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -18621,7 +18639,7 @@
       <c r="A15" s="1">
         <v>3014</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="2" t="s">
         <v>429</v>
       </c>
@@ -18673,11 +18691,11 @@
         <v>14</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="33"/>
+      <c r="T15" s="47"/>
       <c r="U15" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -18685,7 +18703,7 @@
       <c r="A16" s="1">
         <v>3015</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
         <v>432</v>
       </c>
@@ -18737,7 +18755,7 @@
         <v>11</v>
       </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="33"/>
+      <c r="T16" s="47"/>
       <c r="U16" s="7" t="s">
         <v>380</v>
       </c>
@@ -18750,7 +18768,7 @@
       <c r="A17" s="1">
         <v>3016</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="2" t="s">
         <v>436</v>
       </c>
@@ -18804,8 +18822,8 @@
       <c r="S17" s="6">
         <v>22</v>
       </c>
-      <c r="T17" s="33">
-        <v>0.12839496075567658</v>
+      <c r="T17" s="47">
+        <v>13</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>380</v>
@@ -18818,7 +18836,7 @@
       <c r="A18" s="1">
         <v>3017</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="2" t="s">
         <v>440</v>
       </c>
@@ -18870,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="33"/>
+      <c r="T18" s="47"/>
       <c r="U18" s="7" t="s">
         <v>380</v>
       </c>
@@ -18882,7 +18900,7 @@
       <c r="A19" s="1">
         <v>3018</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="2" t="s">
         <v>444</v>
       </c>
@@ -18936,8 +18954,8 @@
       <c r="S19" s="6">
         <v>30</v>
       </c>
-      <c r="T19" s="33">
-        <v>0.10807582150363287</v>
+      <c r="T19" s="47">
+        <v>11</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>380</v>
@@ -18950,7 +18968,7 @@
       <c r="A20" s="1">
         <v>3019</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="2" t="s">
         <v>448</v>
       </c>
@@ -19002,7 +19020,7 @@
         <v>5</v>
       </c>
       <c r="S20" s="6"/>
-      <c r="T20" s="33"/>
+      <c r="T20" s="47"/>
       <c r="U20" s="7" t="s">
         <v>380</v>
       </c>
@@ -19014,7 +19032,7 @@
       <c r="A21" s="1">
         <v>3020</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="2" t="s">
         <v>452</v>
       </c>
@@ -19066,11 +19084,11 @@
         <v>12</v>
       </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="33"/>
+      <c r="T21" s="47"/>
       <c r="U21" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V21" s="44" t="s">
+      <c r="V21" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19078,7 +19096,7 @@
       <c r="A22" s="1">
         <v>3021</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="2" t="s">
         <v>455</v>
       </c>
@@ -19130,12 +19148,12 @@
         <v>12</v>
       </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="33"/>
+      <c r="T22" s="47"/>
       <c r="U22" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" ref="V22:V60" si="0">IF(L22 =3,$V$4, )</f>
+        <f>IF(L22 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -19143,7 +19161,7 @@
       <c r="A23" s="1">
         <v>3022</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="2" t="s">
         <v>458</v>
       </c>
@@ -19197,13 +19215,13 @@
       <c r="S23" s="6">
         <v>21</v>
       </c>
-      <c r="T23" s="33">
-        <v>0.12510246334246305</v>
+      <c r="T23" s="47">
+        <v>13</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V23" s="44" t="s">
+      <c r="V23" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -19211,7 +19229,7 @@
       <c r="A24" s="1">
         <v>3023</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="2" t="s">
         <v>462</v>
       </c>
@@ -19263,7 +19281,7 @@
         <v>11</v>
       </c>
       <c r="S24" s="6"/>
-      <c r="T24" s="33"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="7" t="s">
         <v>380</v>
       </c>
@@ -19275,7 +19293,7 @@
       <c r="A25" s="1">
         <v>3024</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="2" t="s">
         <v>466</v>
       </c>
@@ -19327,11 +19345,11 @@
         <v>6</v>
       </c>
       <c r="S25" s="6"/>
-      <c r="T25" s="33"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V25" s="44" t="s">
+      <c r="V25" s="42" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -19339,7 +19357,7 @@
       <c r="A26" s="1">
         <v>3025</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="2" t="s">
         <v>469</v>
       </c>
@@ -19391,11 +19409,11 @@
         <v>11</v>
       </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="33"/>
+      <c r="T26" s="47"/>
       <c r="U26" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V26" s="44" t="s">
+      <c r="V26" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19403,7 +19421,7 @@
       <c r="A27" s="1">
         <v>3026</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="2" t="s">
         <v>473</v>
       </c>
@@ -19457,8 +19475,8 @@
       <c r="S27" s="6">
         <v>28</v>
       </c>
-      <c r="T27" s="33">
-        <v>6.1195224251615034E-2</v>
+      <c r="T27" s="47">
+        <v>6</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>380</v>
@@ -19471,7 +19489,7 @@
       <c r="A28" s="1">
         <v>3027</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="2" t="s">
         <v>477</v>
       </c>
@@ -19525,13 +19543,13 @@
       <c r="S28" s="6">
         <v>3</v>
       </c>
-      <c r="T28" s="33">
-        <v>7.8328543071037413E-2</v>
+      <c r="T28" s="47">
+        <v>8</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V28" s="44" t="s">
+      <c r="V28" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -19539,7 +19557,7 @@
       <c r="A29" s="1">
         <v>3028</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="2" t="s">
         <v>481</v>
       </c>
@@ -19593,13 +19611,13 @@
       <c r="S29" s="6">
         <v>20</v>
       </c>
-      <c r="T29" s="33">
-        <v>5.5568162308632776E-2</v>
+      <c r="T29" s="47">
+        <v>6</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V29" s="44" t="s">
+      <c r="V29" s="42" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -19607,7 +19625,7 @@
       <c r="A30" s="1">
         <v>3029</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="2" t="s">
         <v>484</v>
       </c>
@@ -19659,7 +19677,7 @@
         <v>9</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="33"/>
+      <c r="T30" s="47"/>
       <c r="U30" s="7" t="s">
         <v>380</v>
       </c>
@@ -19671,7 +19689,7 @@
       <c r="A31" s="1">
         <v>3030</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="2" t="s">
         <v>488</v>
       </c>
@@ -19723,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="33"/>
+      <c r="T31" s="47"/>
       <c r="U31" s="7" t="s">
         <v>380</v>
       </c>
@@ -19735,7 +19753,7 @@
       <c r="A32" s="1">
         <v>3031</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="2" t="s">
         <v>492</v>
       </c>
@@ -19787,11 +19805,11 @@
         <v>11</v>
       </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="33"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V32" s="44" t="s">
+      <c r="V32" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19799,7 +19817,7 @@
       <c r="A33" s="1">
         <v>3032</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="2" t="s">
         <v>495</v>
       </c>
@@ -19853,14 +19871,14 @@
       <c r="S33" s="6">
         <v>30</v>
       </c>
-      <c r="T33" s="33">
-        <v>0.23449968152149903</v>
+      <c r="T33" s="47">
+        <v>23</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(L33 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -19868,7 +19886,7 @@
       <c r="A34" s="1">
         <v>3033</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="2" t="s">
         <v>498</v>
       </c>
@@ -19920,7 +19938,7 @@
         <v>2</v>
       </c>
       <c r="S34" s="6"/>
-      <c r="T34" s="33"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="7" t="s">
         <v>380</v>
       </c>
@@ -19932,7 +19950,7 @@
       <c r="A35" s="1">
         <v>3034</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="2" t="s">
         <v>501</v>
       </c>
@@ -19984,11 +20002,11 @@
         <v>14</v>
       </c>
       <c r="S35" s="6"/>
-      <c r="T35" s="33"/>
+      <c r="T35" s="47"/>
       <c r="U35" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V35" s="44" t="s">
+      <c r="V35" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -19996,7 +20014,7 @@
       <c r="A36" s="1">
         <v>3035</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="2" t="s">
         <v>505</v>
       </c>
@@ -20050,8 +20068,9 @@
       <c r="S36" s="6">
         <v>42</v>
       </c>
-      <c r="T36" s="33">
-        <v>0.13216511725638552</v>
+      <c r="T36" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U36" s="7" t="s">
         <v>380</v>
@@ -20064,7 +20083,7 @@
       <c r="A37" s="1">
         <v>3036</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="2" t="s">
         <v>509</v>
       </c>
@@ -20118,13 +20137,14 @@
       <c r="S37" s="6">
         <v>7</v>
       </c>
-      <c r="T37" s="33">
-        <v>0.11378216453826158</v>
+      <c r="T37" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U37" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V37" s="44" t="s">
+      <c r="V37" s="42" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -20132,7 +20152,7 @@
       <c r="A38" s="1">
         <v>3037</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="2" t="s">
         <v>512</v>
       </c>
@@ -20186,13 +20206,14 @@
       <c r="S38" s="6">
         <v>19</v>
       </c>
-      <c r="T38" s="33">
-        <v>9.4467332093035178E-2</v>
+      <c r="T38" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U38" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V38" s="44" t="s">
+      <c r="V38" s="42" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -20200,7 +20221,7 @@
       <c r="A39" s="1">
         <v>3038</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="2" t="s">
         <v>515</v>
       </c>
@@ -20254,14 +20275,15 @@
       <c r="S39" s="6">
         <v>30</v>
       </c>
-      <c r="T39" s="33">
-        <v>0.22717037959754555</v>
+      <c r="T39" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U39" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(L39 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -20269,7 +20291,7 @@
       <c r="A40" s="1">
         <v>3039</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="2" t="s">
         <v>519</v>
       </c>
@@ -20321,7 +20343,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="6"/>
-      <c r="T40" s="33"/>
+      <c r="T40" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U40" s="7" t="s">
         <v>380</v>
       </c>
@@ -20333,7 +20358,7 @@
       <c r="A41" s="1">
         <v>3040</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="2" t="s">
         <v>522</v>
       </c>
@@ -20385,7 +20410,10 @@
         <v>9</v>
       </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="33"/>
+      <c r="T41" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U41" s="7" t="s">
         <v>380</v>
       </c>
@@ -20397,7 +20425,7 @@
       <c r="A42" s="1">
         <v>3041</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="2" t="s">
         <v>525</v>
       </c>
@@ -20449,7 +20477,10 @@
         <v>14</v>
       </c>
       <c r="S42" s="6"/>
-      <c r="T42" s="33"/>
+      <c r="T42" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U42" s="7" t="s">
         <v>380</v>
       </c>
@@ -20461,7 +20492,7 @@
       <c r="A43" s="1">
         <v>3042</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="2" t="s">
         <v>529</v>
       </c>
@@ -20513,7 +20544,10 @@
         <v>2</v>
       </c>
       <c r="S43" s="6"/>
-      <c r="T43" s="33"/>
+      <c r="T43" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U43" s="7" t="s">
         <v>380</v>
       </c>
@@ -20525,7 +20559,7 @@
       <c r="A44" s="1">
         <v>3043</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="2" t="s">
         <v>533</v>
       </c>
@@ -20579,13 +20613,14 @@
       <c r="S44" s="6">
         <v>4</v>
       </c>
-      <c r="T44" s="33">
-        <v>8.8910646896061082E-2</v>
+      <c r="T44" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U44" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V44" s="44" t="s">
+      <c r="V44" s="42" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -20593,7 +20628,7 @@
       <c r="A45" s="1">
         <v>3044</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="2" t="s">
         <v>536</v>
       </c>
@@ -20645,11 +20680,14 @@
         <v>13</v>
       </c>
       <c r="S45" s="6"/>
-      <c r="T45" s="33"/>
+      <c r="T45" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U45" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V45" s="44" t="s">
+      <c r="V45" s="42" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -20657,7 +20695,7 @@
       <c r="A46" s="1">
         <v>3045</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="2" t="s">
         <v>540</v>
       </c>
@@ -20709,7 +20747,10 @@
         <v>7</v>
       </c>
       <c r="S46" s="6"/>
-      <c r="T46" s="33"/>
+      <c r="T46" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U46" s="7" t="s">
         <v>380</v>
       </c>
@@ -20721,7 +20762,7 @@
       <c r="A47" s="1">
         <v>3046</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="2" t="s">
         <v>543</v>
       </c>
@@ -20773,11 +20814,14 @@
         <v>6</v>
       </c>
       <c r="S47" s="6"/>
-      <c r="T47" s="33"/>
+      <c r="T47" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U47" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V47" s="44" t="s">
+      <c r="V47" s="42" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -20785,7 +20829,7 @@
       <c r="A48" s="1">
         <v>3047</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="2" t="s">
         <v>546</v>
       </c>
@@ -20839,13 +20883,14 @@
       <c r="S48" s="6">
         <v>2</v>
       </c>
-      <c r="T48" s="33">
-        <v>0.17657169617380053</v>
+      <c r="T48" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V48" s="44" t="s">
+      <c r="V48" s="42" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -20853,7 +20898,7 @@
       <c r="A49" s="1">
         <v>3048</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="2" t="s">
         <v>550</v>
       </c>
@@ -20907,8 +20952,9 @@
       <c r="S49" s="6">
         <v>1</v>
       </c>
-      <c r="T49" s="33">
-        <v>0.15404810385089485</v>
+      <c r="T49" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>380</v>
@@ -20921,7 +20967,7 @@
       <c r="A50" s="1">
         <v>3049</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="2" t="s">
         <v>553</v>
       </c>
@@ -20973,7 +21019,7 @@
         <v>11</v>
       </c>
       <c r="S50" s="6"/>
-      <c r="T50" s="33"/>
+      <c r="T50" s="50"/>
       <c r="U50" s="7" t="s">
         <v>380</v>
       </c>
@@ -20985,7 +21031,7 @@
       <c r="A51" s="1">
         <v>3050</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="2" t="s">
         <v>557</v>
       </c>
@@ -21037,7 +21083,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="33"/>
+      <c r="T51" s="50"/>
       <c r="U51" s="7" t="s">
         <v>380</v>
       </c>
@@ -21049,7 +21095,7 @@
       <c r="A52" s="1">
         <v>3051</v>
       </c>
-      <c r="B52" s="39"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="2" t="s">
         <v>560</v>
       </c>
@@ -21101,12 +21147,12 @@
         <v>10</v>
       </c>
       <c r="S52" s="6"/>
-      <c r="T52" s="33"/>
+      <c r="T52" s="50"/>
       <c r="U52" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(L52 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21114,7 +21160,7 @@
       <c r="A53" s="1">
         <v>3052</v>
       </c>
-      <c r="B53" s="39"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="2" t="s">
         <v>563</v>
       </c>
@@ -21168,13 +21214,14 @@
       <c r="S53" s="6">
         <v>5</v>
       </c>
-      <c r="T53" s="33">
-        <v>0.12004037534627748</v>
+      <c r="T53" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U53" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V53" s="44" t="s">
+      <c r="V53" s="42" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -21182,7 +21229,7 @@
       <c r="A54" s="1">
         <v>3053</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="2" t="s">
         <v>567</v>
       </c>
@@ -21236,14 +21283,15 @@
       <c r="S54" s="6">
         <v>5</v>
       </c>
-      <c r="T54" s="33">
-        <v>5.8409227655741816E-2</v>
+      <c r="T54" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(L54 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21251,7 +21299,7 @@
       <c r="A55" s="1">
         <v>3054</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="2" t="s">
         <v>571</v>
       </c>
@@ -21305,13 +21353,14 @@
       <c r="S55" s="6">
         <v>41</v>
       </c>
-      <c r="T55" s="33">
-        <v>0.12268524609653164</v>
+      <c r="T55" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U55" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V55" s="44" t="s">
+      <c r="V55" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -21319,7 +21368,7 @@
       <c r="A56" s="1">
         <v>3055</v>
       </c>
-      <c r="B56" s="39"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="2" t="s">
         <v>575</v>
       </c>
@@ -21371,11 +21420,11 @@
         <v>12</v>
       </c>
       <c r="S56" s="6"/>
-      <c r="T56" s="33"/>
+      <c r="T56" s="50"/>
       <c r="U56" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V56" s="47" t="s">
+      <c r="V56" s="45" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -21383,7 +21432,7 @@
       <c r="A57" s="1">
         <v>3056</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="2" t="s">
         <v>579</v>
       </c>
@@ -21437,8 +21486,9 @@
       <c r="S57" s="6">
         <v>8</v>
       </c>
-      <c r="T57" s="33">
-        <v>0.16765499120781757</v>
+      <c r="T57" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U57" s="7" t="s">
         <v>380</v>
@@ -21451,7 +21501,7 @@
       <c r="A58" s="1">
         <v>3057</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="2" t="s">
         <v>582</v>
       </c>
@@ -21505,8 +21555,9 @@
       <c r="S58" s="6">
         <v>3</v>
       </c>
-      <c r="T58" s="33">
-        <v>5.3099040240354528E-2</v>
+      <c r="T58" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>380</v>
@@ -21519,7 +21570,7 @@
       <c r="A59" s="1">
         <v>3058</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="2" t="s">
         <v>585</v>
       </c>
@@ -21573,8 +21624,9 @@
       <c r="S59" s="6">
         <v>19</v>
       </c>
-      <c r="T59" s="33">
-        <v>0.13343591241152564</v>
+      <c r="T59" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>380</v>
@@ -21587,7 +21639,7 @@
       <c r="A60" s="1">
         <v>3059</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="2" t="s">
         <v>588</v>
       </c>
@@ -21641,14 +21693,15 @@
       <c r="S60" s="6">
         <v>4</v>
       </c>
-      <c r="T60" s="33">
-        <v>0.14369838422641984</v>
+      <c r="T60" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U60" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(L60 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -21656,7 +21709,7 @@
       <c r="A61" s="1">
         <v>3060</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="2" t="s">
         <v>592</v>
       </c>
@@ -21710,8 +21763,9 @@
       <c r="S61" s="6">
         <v>4</v>
       </c>
-      <c r="T61" s="33">
-        <v>5.2754874934872388E-2</v>
+      <c r="T61" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>380</v>
@@ -21724,7 +21778,7 @@
       <c r="A62" s="1">
         <v>3061</v>
       </c>
-      <c r="B62" s="39"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="2" t="s">
         <v>595</v>
       </c>
@@ -21776,7 +21830,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="6"/>
-      <c r="T62" s="33"/>
+      <c r="T62" s="50"/>
       <c r="U62" s="7" t="s">
         <v>380</v>
       </c>
@@ -21788,7 +21842,7 @@
       <c r="A63" s="1">
         <v>3062</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="2" t="s">
         <v>598</v>
       </c>
@@ -21842,8 +21896,9 @@
       <c r="S63" s="6">
         <v>4</v>
       </c>
-      <c r="T63" s="33">
-        <v>0.21409296167321878</v>
+      <c r="T63" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U63" s="7" t="s">
         <v>380</v>
@@ -21856,7 +21911,7 @@
       <c r="A64" s="1">
         <v>3063</v>
       </c>
-      <c r="B64" s="39"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="2" t="s">
         <v>601</v>
       </c>
@@ -21910,8 +21965,9 @@
       <c r="S64" s="6">
         <v>6</v>
       </c>
-      <c r="T64" s="33">
-        <v>0.16862893130527024</v>
+      <c r="T64" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U64" s="7" t="s">
         <v>380</v>
@@ -21924,7 +21980,7 @@
       <c r="A65" s="1">
         <v>3064</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="2" t="s">
         <v>604</v>
       </c>
@@ -21978,8 +22034,9 @@
       <c r="S65" s="6">
         <v>22</v>
       </c>
-      <c r="T65" s="33">
-        <v>0.23033974253308476</v>
+      <c r="T65" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U65" s="7" t="s">
         <v>380</v>
@@ -21992,7 +22049,7 @@
       <c r="A66" s="1">
         <v>3065</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="2" t="s">
         <v>608</v>
       </c>
@@ -22046,8 +22103,9 @@
       <c r="S66" s="6">
         <v>21</v>
       </c>
-      <c r="T66" s="33">
-        <v>9.4956172037010664E-2</v>
+      <c r="T66" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U66" s="7" t="s">
         <v>380</v>
@@ -22060,7 +22118,7 @@
       <c r="A67" s="1">
         <v>3066</v>
       </c>
-      <c r="B67" s="39"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="2" t="s">
         <v>611</v>
       </c>
@@ -22114,8 +22172,9 @@
       <c r="S67" s="6">
         <v>8</v>
       </c>
-      <c r="T67" s="33">
-        <v>7.4381128492263582E-2</v>
+      <c r="T67" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>380</v>
@@ -22128,7 +22187,7 @@
       <c r="A68" s="1">
         <v>3067</v>
       </c>
-      <c r="B68" s="39"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="2" t="s">
         <v>614</v>
       </c>
@@ -22180,7 +22239,7 @@
         <v>9</v>
       </c>
       <c r="S68" s="6"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="50"/>
       <c r="U68" s="7" t="s">
         <v>380</v>
       </c>
@@ -22192,7 +22251,7 @@
       <c r="A69" s="1">
         <v>3068</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="2" t="s">
         <v>618</v>
       </c>
@@ -22244,7 +22303,7 @@
         <v>2</v>
       </c>
       <c r="S69" s="6"/>
-      <c r="T69" s="33"/>
+      <c r="T69" s="50"/>
       <c r="U69" s="7" t="s">
         <v>380</v>
       </c>
@@ -22256,7 +22315,7 @@
       <c r="A70" s="1">
         <v>3069</v>
       </c>
-      <c r="B70" s="39"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="2" t="s">
         <v>621</v>
       </c>
@@ -22310,8 +22369,9 @@
       <c r="S70" s="6">
         <v>10</v>
       </c>
-      <c r="T70" s="33">
-        <v>0.17002019985211597</v>
+      <c r="T70" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>380</v>
@@ -22324,7 +22384,7 @@
       <c r="A71" s="1">
         <v>3070</v>
       </c>
-      <c r="B71" s="39"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="2" t="s">
         <v>624</v>
       </c>
@@ -22376,7 +22436,7 @@
         <v>2</v>
       </c>
       <c r="S71" s="6"/>
-      <c r="T71" s="33"/>
+      <c r="T71" s="50"/>
       <c r="U71" s="7" t="s">
         <v>380</v>
       </c>
@@ -22388,7 +22448,7 @@
       <c r="A72" s="1">
         <v>3071</v>
       </c>
-      <c r="B72" s="39"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="2" t="s">
         <v>628</v>
       </c>
@@ -22440,7 +22500,7 @@
         <v>1</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="33"/>
+      <c r="T72" s="50"/>
       <c r="U72" s="7" t="s">
         <v>380</v>
       </c>
@@ -22452,7 +22512,7 @@
       <c r="A73" s="1">
         <v>3072</v>
       </c>
-      <c r="B73" s="39"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="2" t="s">
         <v>631</v>
       </c>
@@ -22506,13 +22566,14 @@
       <c r="S73" s="6">
         <v>2</v>
       </c>
-      <c r="T73" s="33">
-        <v>0.22311713227926505</v>
+      <c r="T73" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V73" s="44" t="s">
+      <c r="V73" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -22520,7 +22581,7 @@
       <c r="A74" s="1">
         <v>3073</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="2" t="s">
         <v>635</v>
       </c>
@@ -22572,7 +22633,10 @@
         <v>3</v>
       </c>
       <c r="S74" s="6"/>
-      <c r="T74" s="33"/>
+      <c r="T74" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U74" s="7" t="s">
         <v>380</v>
       </c>
@@ -22584,7 +22648,7 @@
       <c r="A75" s="1">
         <v>3074</v>
       </c>
-      <c r="B75" s="39"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="2" t="s">
         <v>638</v>
       </c>
@@ -22638,8 +22702,9 @@
       <c r="S75" s="6">
         <v>22</v>
       </c>
-      <c r="T75" s="33">
-        <v>0.22460326202234226</v>
+      <c r="T75" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>380</v>
@@ -22652,7 +22717,7 @@
       <c r="A76" s="1">
         <v>3075</v>
       </c>
-      <c r="B76" s="39"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="2" t="s">
         <v>641</v>
       </c>
@@ -22706,8 +22771,9 @@
       <c r="S76" s="6">
         <v>6</v>
       </c>
-      <c r="T76" s="33">
-        <v>8.7890398442729001E-2</v>
+      <c r="T76" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>380</v>
@@ -22720,7 +22786,7 @@
       <c r="A77" s="1">
         <v>3076</v>
       </c>
-      <c r="B77" s="39"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="2" t="s">
         <v>644</v>
       </c>
@@ -22774,13 +22840,14 @@
       <c r="S77" s="6">
         <v>21</v>
       </c>
-      <c r="T77" s="33">
-        <v>5.5073369471372959E-2</v>
+      <c r="T77" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V77" s="47" t="s">
+      <c r="V77" s="45" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -22788,7 +22855,7 @@
       <c r="A78" s="1">
         <v>3077</v>
       </c>
-      <c r="B78" s="39"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="2" t="s">
         <v>647</v>
       </c>
@@ -22840,11 +22907,11 @@
         <v>7</v>
       </c>
       <c r="S78" s="6"/>
-      <c r="T78" s="33"/>
+      <c r="T78" s="50"/>
       <c r="U78" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V78" s="44" t="s">
+      <c r="V78" s="42" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -22852,7 +22919,7 @@
       <c r="A79" s="1">
         <v>3078</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="2" t="s">
         <v>650</v>
       </c>
@@ -22904,7 +22971,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="6"/>
-      <c r="T79" s="33"/>
+      <c r="T79" s="50"/>
       <c r="U79" s="7" t="s">
         <v>380</v>
       </c>
@@ -22916,7 +22983,7 @@
       <c r="A80" s="1">
         <v>3079</v>
       </c>
-      <c r="B80" s="39"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="2" t="s">
         <v>653</v>
       </c>
@@ -22968,7 +23035,7 @@
         <v>7</v>
       </c>
       <c r="S80" s="6"/>
-      <c r="T80" s="33"/>
+      <c r="T80" s="50"/>
       <c r="U80" s="7" t="s">
         <v>380</v>
       </c>
@@ -22980,7 +23047,7 @@
       <c r="A81" s="1">
         <v>3080</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="2" t="s">
         <v>656</v>
       </c>
@@ -23032,7 +23099,7 @@
         <v>2</v>
       </c>
       <c r="S81" s="6"/>
-      <c r="T81" s="33"/>
+      <c r="T81" s="50"/>
       <c r="U81" s="7" t="s">
         <v>380</v>
       </c>
@@ -23044,7 +23111,7 @@
       <c r="A82" s="1">
         <v>3081</v>
       </c>
-      <c r="B82" s="39"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="2" t="s">
         <v>659</v>
       </c>
@@ -23096,7 +23163,7 @@
         <v>13</v>
       </c>
       <c r="S82" s="6"/>
-      <c r="T82" s="33"/>
+      <c r="T82" s="50"/>
       <c r="U82" s="7" t="s">
         <v>380</v>
       </c>
@@ -23108,7 +23175,7 @@
       <c r="A83" s="1">
         <v>3082</v>
       </c>
-      <c r="B83" s="39"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="2" t="s">
         <v>662</v>
       </c>
@@ -23162,8 +23229,9 @@
       <c r="S83" s="6">
         <v>6</v>
       </c>
-      <c r="T83" s="33">
-        <v>0.17515031842671308</v>
+      <c r="T83" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U83" s="7" t="s">
         <v>380</v>
@@ -23176,7 +23244,7 @@
       <c r="A84" s="1">
         <v>3083</v>
       </c>
-      <c r="B84" s="39"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="2" t="s">
         <v>666</v>
       </c>
@@ -23230,14 +23298,15 @@
       <c r="S84" s="6">
         <v>8</v>
       </c>
-      <c r="T84" s="33">
-        <v>0.21075787528867063</v>
+      <c r="T84" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V84" t="str">
-        <f t="shared" ref="V84:V131" si="1">IF(L84 =3,$V$4, )</f>
+        <f>IF(L84 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -23245,7 +23314,7 @@
       <c r="A85" s="1">
         <v>3084</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="2" t="s">
         <v>670</v>
       </c>
@@ -23297,12 +23366,12 @@
         <v>8</v>
       </c>
       <c r="S85" s="6"/>
-      <c r="T85" s="33"/>
+      <c r="T85" s="50"/>
       <c r="U85" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V85" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L85 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -23310,7 +23379,7 @@
       <c r="A86" s="1">
         <v>3085</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="2" t="s">
         <v>673</v>
       </c>
@@ -23362,7 +23431,7 @@
         <v>11</v>
       </c>
       <c r="S86" s="6"/>
-      <c r="T86" s="33"/>
+      <c r="T86" s="50"/>
       <c r="U86" s="7" t="s">
         <v>380</v>
       </c>
@@ -23374,7 +23443,7 @@
       <c r="A87" s="1">
         <v>3086</v>
       </c>
-      <c r="B87" s="39"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="2" t="s">
         <v>676</v>
       </c>
@@ -23426,7 +23495,7 @@
         <v>8</v>
       </c>
       <c r="S87" s="6"/>
-      <c r="T87" s="33"/>
+      <c r="T87" s="50"/>
       <c r="U87" s="7" t="s">
         <v>380</v>
       </c>
@@ -23438,7 +23507,7 @@
       <c r="A88" s="1">
         <v>3087</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="2" t="s">
         <v>679</v>
       </c>
@@ -23492,8 +23561,9 @@
       <c r="S88" s="6">
         <v>37</v>
       </c>
-      <c r="T88" s="33">
-        <v>0.17221234967106303</v>
+      <c r="T88" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>380</v>
@@ -23506,7 +23576,7 @@
       <c r="A89" s="1">
         <v>3088</v>
       </c>
-      <c r="B89" s="39"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="2" t="s">
         <v>682</v>
       </c>
@@ -23558,11 +23628,11 @@
         <v>13</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="33"/>
+      <c r="T89" s="50"/>
       <c r="U89" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V89" s="44" t="s">
+      <c r="V89" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -23570,7 +23640,7 @@
       <c r="A90" s="1">
         <v>3089</v>
       </c>
-      <c r="B90" s="39"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="2" t="s">
         <v>685</v>
       </c>
@@ -23624,13 +23694,14 @@
       <c r="S90" s="6">
         <v>29</v>
       </c>
-      <c r="T90" s="33">
-        <v>9.5929262305830459E-2</v>
+      <c r="T90" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V90" s="44" t="s">
+      <c r="V90" s="42" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -23638,7 +23709,7 @@
       <c r="A91" s="1">
         <v>3090</v>
       </c>
-      <c r="B91" s="39"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="2" t="s">
         <v>688</v>
       </c>
@@ -23690,11 +23761,11 @@
         <v>6</v>
       </c>
       <c r="S91" s="6"/>
-      <c r="T91" s="33"/>
+      <c r="T91" s="50"/>
       <c r="U91" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V91" s="44" t="s">
+      <c r="V91" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -23702,7 +23773,7 @@
       <c r="A92" s="1">
         <v>3091</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="2" t="s">
         <v>691</v>
       </c>
@@ -23754,11 +23825,11 @@
         <v>10</v>
       </c>
       <c r="S92" s="6"/>
-      <c r="T92" s="33"/>
+      <c r="T92" s="50"/>
       <c r="U92" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V92" s="44" t="s">
+      <c r="V92" s="42" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -23766,7 +23837,7 @@
       <c r="A93" s="1">
         <v>3092</v>
       </c>
-      <c r="B93" s="39"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="2" t="s">
         <v>695</v>
       </c>
@@ -23818,7 +23889,7 @@
         <v>4</v>
       </c>
       <c r="S93" s="6"/>
-      <c r="T93" s="33"/>
+      <c r="T93" s="50"/>
       <c r="U93" s="7" t="s">
         <v>380</v>
       </c>
@@ -23830,7 +23901,7 @@
       <c r="A94" s="1">
         <v>3093</v>
       </c>
-      <c r="B94" s="39"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="2" t="s">
         <v>698</v>
       </c>
@@ -23882,7 +23953,7 @@
         <v>3</v>
       </c>
       <c r="S94" s="6"/>
-      <c r="T94" s="33"/>
+      <c r="T94" s="50"/>
       <c r="U94" s="7" t="s">
         <v>390</v>
       </c>
@@ -23894,7 +23965,7 @@
       <c r="A95" s="1">
         <v>3094</v>
       </c>
-      <c r="B95" s="39"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="2" t="s">
         <v>701</v>
       </c>
@@ -23946,11 +24017,11 @@
         <v>14</v>
       </c>
       <c r="S95" s="6"/>
-      <c r="T95" s="33"/>
+      <c r="T95" s="50"/>
       <c r="U95" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V95" s="44" t="s">
+      <c r="V95" s="42" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -23958,7 +24029,7 @@
       <c r="A96" s="1">
         <v>3095</v>
       </c>
-      <c r="B96" s="39"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="2" t="s">
         <v>704</v>
       </c>
@@ -24012,8 +24083,9 @@
       <c r="S96" s="6">
         <v>41</v>
       </c>
-      <c r="T96" s="33">
-        <v>9.9007041505844121E-2</v>
+      <c r="T96" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U96" s="7" t="s">
         <v>380</v>
@@ -24026,7 +24098,7 @@
       <c r="A97" s="1">
         <v>3096</v>
       </c>
-      <c r="B97" s="39"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="2" t="s">
         <v>707</v>
       </c>
@@ -24078,7 +24150,7 @@
         <v>7</v>
       </c>
       <c r="S97" s="6"/>
-      <c r="T97" s="33"/>
+      <c r="T97" s="50"/>
       <c r="U97" s="7" t="s">
         <v>380</v>
       </c>
@@ -24090,7 +24162,7 @@
       <c r="A98" s="1">
         <v>3097</v>
       </c>
-      <c r="B98" s="39"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="2" t="s">
         <v>710</v>
       </c>
@@ -24144,8 +24216,9 @@
       <c r="S98" s="6">
         <v>17</v>
       </c>
-      <c r="T98" s="33">
-        <v>9.0923177642016323E-2</v>
+      <c r="T98" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U98" s="7" t="s">
         <v>380</v>
@@ -24158,7 +24231,7 @@
       <c r="A99" s="1">
         <v>3098</v>
       </c>
-      <c r="B99" s="39"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="2" t="s">
         <v>713</v>
       </c>
@@ -24210,11 +24283,11 @@
         <v>10</v>
       </c>
       <c r="S99" s="6"/>
-      <c r="T99" s="33"/>
+      <c r="T99" s="50"/>
       <c r="U99" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V99" s="44" t="s">
+      <c r="V99" s="42" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -24222,7 +24295,7 @@
       <c r="A100" s="1">
         <v>3099</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="37" t="s">
         <v>1105</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -24278,8 +24351,9 @@
       <c r="S100" s="6">
         <v>9</v>
       </c>
-      <c r="T100" s="33">
-        <v>0.24471219336460792</v>
+      <c r="T100" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U100" s="7" t="s">
         <v>380</v>
@@ -24292,7 +24366,7 @@
       <c r="A101" s="1">
         <v>3100</v>
       </c>
-      <c r="B101" s="40">
+      <c r="B101" s="38">
         <v>45657</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -24346,7 +24420,10 @@
         <v>13</v>
       </c>
       <c r="S101" s="6"/>
-      <c r="T101" s="33"/>
+      <c r="T101" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U101" s="7" t="s">
         <v>380</v>
       </c>
@@ -24358,7 +24435,7 @@
       <c r="A102" s="1">
         <v>3101</v>
       </c>
-      <c r="B102" s="39"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="2" t="s">
         <v>722</v>
       </c>
@@ -24412,8 +24489,9 @@
       <c r="S102" s="6">
         <v>12</v>
       </c>
-      <c r="T102" s="33">
-        <v>0.14014265639174467</v>
+      <c r="T102" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U102" s="7" t="s">
         <v>380</v>
@@ -24426,7 +24504,7 @@
       <c r="A103" s="1">
         <v>3102</v>
       </c>
-      <c r="B103" s="39"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="2" t="s">
         <v>725</v>
       </c>
@@ -24480,8 +24558,9 @@
       <c r="S103" s="6">
         <v>28</v>
       </c>
-      <c r="T103" s="33">
-        <v>0.2496258783096228</v>
+      <c r="T103" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U103" s="7" t="s">
         <v>380</v>
@@ -24494,7 +24573,7 @@
       <c r="A104" s="1">
         <v>3103</v>
       </c>
-      <c r="B104" s="39"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="2" t="s">
         <v>728</v>
       </c>
@@ -24546,11 +24625,14 @@
         <v>4</v>
       </c>
       <c r="S104" s="6"/>
-      <c r="T104" s="33"/>
+      <c r="T104" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U104" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V104" s="44" t="s">
+      <c r="V104" s="42" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -24558,7 +24640,7 @@
       <c r="A105" s="1">
         <v>3104</v>
       </c>
-      <c r="B105" s="39"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="2" t="s">
         <v>731</v>
       </c>
@@ -24612,8 +24694,9 @@
       <c r="S105" s="6">
         <v>13</v>
       </c>
-      <c r="T105" s="33">
-        <v>0.12692838987932381</v>
+      <c r="T105" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U105" s="7" t="s">
         <v>380</v>
@@ -24626,7 +24709,7 @@
       <c r="A106" s="1">
         <v>3105</v>
       </c>
-      <c r="B106" s="39"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="2" t="s">
         <v>734</v>
       </c>
@@ -24678,7 +24761,10 @@
         <v>1</v>
       </c>
       <c r="S106" s="6"/>
-      <c r="T106" s="33"/>
+      <c r="T106" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U106" s="7" t="s">
         <v>380</v>
       </c>
@@ -24690,7 +24776,7 @@
       <c r="A107" s="1">
         <v>3106</v>
       </c>
-      <c r="B107" s="39"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="2" t="s">
         <v>737</v>
       </c>
@@ -24742,7 +24828,10 @@
         <v>8</v>
       </c>
       <c r="S107" s="6"/>
-      <c r="T107" s="33"/>
+      <c r="T107" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U107" s="7" t="s">
         <v>380</v>
       </c>
@@ -24754,7 +24843,7 @@
       <c r="A108" s="1">
         <v>3107</v>
       </c>
-      <c r="B108" s="39"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="2" t="s">
         <v>740</v>
       </c>
@@ -24808,14 +24897,15 @@
       <c r="S108" s="6">
         <v>8</v>
       </c>
-      <c r="T108" s="33">
-        <v>0.20579577371388896</v>
+      <c r="T108" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V108" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L108 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -24823,7 +24913,7 @@
       <c r="A109" s="1">
         <v>3108</v>
       </c>
-      <c r="B109" s="39"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="2" t="s">
         <v>743</v>
       </c>
@@ -24875,7 +24965,10 @@
         <v>4</v>
       </c>
       <c r="S109" s="6"/>
-      <c r="T109" s="33"/>
+      <c r="T109" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U109" s="7" t="s">
         <v>380</v>
       </c>
@@ -24887,7 +24980,7 @@
       <c r="A110" s="1">
         <v>3109</v>
       </c>
-      <c r="B110" s="39"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="2" t="s">
         <v>746</v>
       </c>
@@ -24941,8 +25034,9 @@
       <c r="S110" s="6">
         <v>11</v>
       </c>
-      <c r="T110" s="33">
-        <v>0.22101220348627648</v>
+      <c r="T110" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U110" s="7" t="s">
         <v>380</v>
@@ -24955,7 +25049,7 @@
       <c r="A111" s="1">
         <v>3110</v>
       </c>
-      <c r="B111" s="39"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="2" t="s">
         <v>749</v>
       </c>
@@ -25009,13 +25103,14 @@
       <c r="S111" s="6">
         <v>22</v>
       </c>
-      <c r="T111" s="33">
-        <v>0.11834612347098904</v>
+      <c r="T111" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V111" s="44" t="s">
+      <c r="V111" s="42" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -25023,7 +25118,7 @@
       <c r="A112" s="1">
         <v>3111</v>
       </c>
-      <c r="B112" s="39"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="2" t="s">
         <v>753</v>
       </c>
@@ -25075,12 +25170,15 @@
         <v>4</v>
       </c>
       <c r="S112" s="6"/>
-      <c r="T112" s="33"/>
+      <c r="T112" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U112" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V112" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L112 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25088,7 +25186,7 @@
       <c r="A113" s="1">
         <v>3112</v>
       </c>
-      <c r="B113" s="39"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="2" t="s">
         <v>756</v>
       </c>
@@ -25142,8 +25240,9 @@
       <c r="S113" s="6">
         <v>21</v>
       </c>
-      <c r="T113" s="33">
-        <v>5.6492214817701926E-2</v>
+      <c r="T113" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U113" s="7" t="s">
         <v>380</v>
@@ -25156,7 +25255,7 @@
       <c r="A114" s="1">
         <v>3113</v>
       </c>
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="37" t="s">
         <v>1104</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -25210,11 +25309,14 @@
         <v>4</v>
       </c>
       <c r="S114" s="6"/>
-      <c r="T114" s="33"/>
+      <c r="T114" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U114" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V114" s="44" t="s">
+      <c r="V114" s="42" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -25222,7 +25324,7 @@
       <c r="A115" s="1">
         <v>3114</v>
       </c>
-      <c r="B115" s="39"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="2" t="s">
         <v>763</v>
       </c>
@@ -25274,7 +25376,10 @@
         <v>6</v>
       </c>
       <c r="S115" s="6"/>
-      <c r="T115" s="33"/>
+      <c r="T115" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U115" s="7" t="s">
         <v>380</v>
       </c>
@@ -25286,7 +25391,7 @@
       <c r="A116" s="1">
         <v>3115</v>
       </c>
-      <c r="B116" s="39"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="2" t="s">
         <v>766</v>
       </c>
@@ -25340,8 +25445,9 @@
       <c r="S116" s="6">
         <v>4</v>
       </c>
-      <c r="T116" s="33">
-        <v>9.8513044563602881E-2</v>
+      <c r="T116" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U116" s="7" t="s">
         <v>380</v>
@@ -25354,7 +25460,7 @@
       <c r="A117" s="1">
         <v>3116</v>
       </c>
-      <c r="B117" s="39"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="2" t="s">
         <v>769</v>
       </c>
@@ -25408,8 +25514,9 @@
       <c r="S117" s="6">
         <v>12</v>
       </c>
-      <c r="T117" s="33">
-        <v>0.15783334197277493</v>
+      <c r="T117" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U117" s="7" t="s">
         <v>380</v>
@@ -25422,7 +25529,7 @@
       <c r="A118" s="1">
         <v>3117</v>
       </c>
-      <c r="B118" s="39"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="2" t="s">
         <v>772</v>
       </c>
@@ -25474,7 +25581,10 @@
         <v>4</v>
       </c>
       <c r="S118" s="6"/>
-      <c r="T118" s="33"/>
+      <c r="T118" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U118" s="7" t="s">
         <v>380</v>
       </c>
@@ -25486,7 +25596,7 @@
       <c r="A119" s="1">
         <v>3118</v>
       </c>
-      <c r="B119" s="39"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="2" t="s">
         <v>775</v>
       </c>
@@ -25540,8 +25650,9 @@
       <c r="S119" s="6">
         <v>23</v>
       </c>
-      <c r="T119" s="33">
-        <v>6.4198313003311872E-2</v>
+      <c r="T119" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U119" s="7" t="s">
         <v>380</v>
@@ -25554,7 +25665,7 @@
       <c r="A120" s="1">
         <v>3119</v>
       </c>
-      <c r="B120" s="39"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="2" t="s">
         <v>778</v>
       </c>
@@ -25608,8 +25719,9 @@
       <c r="S120" s="6">
         <v>3</v>
       </c>
-      <c r="T120" s="33">
-        <v>0.1196430951990988</v>
+      <c r="T120" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U120" s="7" t="s">
         <v>380</v>
@@ -25622,7 +25734,7 @@
       <c r="A121" s="1">
         <v>3120</v>
       </c>
-      <c r="B121" s="39"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="2" t="s">
         <v>781</v>
       </c>
@@ -25674,12 +25786,15 @@
         <v>6</v>
       </c>
       <c r="S121" s="6"/>
-      <c r="T121" s="33"/>
+      <c r="T121" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U121" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V121" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L121 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25687,7 +25802,7 @@
       <c r="A122" s="1">
         <v>3121</v>
       </c>
-      <c r="B122" s="39"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="2" t="s">
         <v>784</v>
       </c>
@@ -25741,14 +25856,15 @@
       <c r="S122" s="6">
         <v>5</v>
       </c>
-      <c r="T122" s="33">
-        <v>8.2083390177939933E-2</v>
+      <c r="T122" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U122" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V122" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L122 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -25756,7 +25872,7 @@
       <c r="A123" s="1">
         <v>3122</v>
       </c>
-      <c r="B123" s="39"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="2" t="s">
         <v>787</v>
       </c>
@@ -25808,11 +25924,14 @@
         <v>1</v>
       </c>
       <c r="S123" s="6"/>
-      <c r="T123" s="33"/>
+      <c r="T123" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U123" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V123" s="44" t="s">
+      <c r="V123" s="42" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -25820,7 +25939,7 @@
       <c r="A124" s="1">
         <v>3123</v>
       </c>
-      <c r="B124" s="39"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="2" t="s">
         <v>790</v>
       </c>
@@ -25872,7 +25991,10 @@
         <v>6</v>
       </c>
       <c r="S124" s="6"/>
-      <c r="T124" s="33"/>
+      <c r="T124" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U124" s="7" t="s">
         <v>380</v>
       </c>
@@ -25884,7 +26006,7 @@
       <c r="A125" s="1">
         <v>3124</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="2" t="s">
         <v>793</v>
       </c>
@@ -25936,11 +26058,14 @@
         <v>3</v>
       </c>
       <c r="S125" s="6"/>
-      <c r="T125" s="33"/>
+      <c r="T125" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U125" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V125" s="44" t="s">
+      <c r="V125" s="42" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -25948,7 +26073,7 @@
       <c r="A126" s="1">
         <v>3125</v>
       </c>
-      <c r="B126" s="39"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="2" t="s">
         <v>796</v>
       </c>
@@ -26000,11 +26125,14 @@
         <v>13</v>
       </c>
       <c r="S126" s="6"/>
-      <c r="T126" s="33"/>
+      <c r="T126" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U126" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V126" s="44" t="s">
+      <c r="V126" s="42" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -26012,7 +26140,7 @@
       <c r="A127" s="1">
         <v>3126</v>
       </c>
-      <c r="B127" s="39"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="2" t="s">
         <v>799</v>
       </c>
@@ -26064,7 +26192,10 @@
         <v>9</v>
       </c>
       <c r="S127" s="6"/>
-      <c r="T127" s="33"/>
+      <c r="T127" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U127" s="7" t="s">
         <v>380</v>
       </c>
@@ -26076,7 +26207,7 @@
       <c r="A128" s="1">
         <v>3127</v>
       </c>
-      <c r="B128" s="39"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="2" t="s">
         <v>802</v>
       </c>
@@ -26128,7 +26259,10 @@
         <v>12</v>
       </c>
       <c r="S128" s="6"/>
-      <c r="T128" s="33"/>
+      <c r="T128" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U128" s="7" t="s">
         <v>380</v>
       </c>
@@ -26140,7 +26274,7 @@
       <c r="A129" s="1">
         <v>3128</v>
       </c>
-      <c r="B129" s="39"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="2" t="s">
         <v>805</v>
       </c>
@@ -26192,7 +26326,10 @@
         <v>12</v>
       </c>
       <c r="S129" s="6"/>
-      <c r="T129" s="33"/>
+      <c r="T129" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U129" s="7" t="s">
         <v>380</v>
       </c>
@@ -26204,7 +26341,7 @@
       <c r="A130" s="1">
         <v>3129</v>
       </c>
-      <c r="B130" s="39"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="2" t="s">
         <v>808</v>
       </c>
@@ -26256,7 +26393,10 @@
         <v>1</v>
       </c>
       <c r="S130" s="6"/>
-      <c r="T130" s="33"/>
+      <c r="T130" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U130" s="7" t="s">
         <v>380</v>
       </c>
@@ -26268,7 +26408,7 @@
       <c r="A131" s="1">
         <v>3130</v>
       </c>
-      <c r="B131" s="39"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="2" t="s">
         <v>811</v>
       </c>
@@ -26322,14 +26462,15 @@
       <c r="S131" s="6">
         <v>3</v>
       </c>
-      <c r="T131" s="33">
-        <v>7.6448741251397612E-2</v>
+      <c r="T131" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U131" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V131" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(L131 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -26337,7 +26478,7 @@
       <c r="A132" s="1">
         <v>3131</v>
       </c>
-      <c r="B132" s="39"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="2" t="s">
         <v>814</v>
       </c>
@@ -26391,8 +26532,9 @@
       <c r="S132" s="6">
         <v>42</v>
       </c>
-      <c r="T132" s="33">
-        <v>0.2095433005227601</v>
+      <c r="T132" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U132" s="7" t="s">
         <v>380</v>
@@ -26406,7 +26548,7 @@
       <c r="A133" s="1">
         <v>3132</v>
       </c>
-      <c r="B133" s="39"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="2" t="s">
         <v>817</v>
       </c>
@@ -26458,7 +26600,10 @@
         <v>11</v>
       </c>
       <c r="S133" s="6"/>
-      <c r="T133" s="33"/>
+      <c r="T133" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U133" s="7" t="s">
         <v>380</v>
       </c>
@@ -26470,7 +26615,7 @@
       <c r="A134" s="1">
         <v>3133</v>
       </c>
-      <c r="B134" s="39"/>
+      <c r="B134" s="37"/>
       <c r="C134" s="2" t="s">
         <v>820</v>
       </c>
@@ -26522,7 +26667,10 @@
         <v>1</v>
       </c>
       <c r="S134" s="6"/>
-      <c r="T134" s="33"/>
+      <c r="T134" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U134" s="7" t="s">
         <v>380</v>
       </c>
@@ -26535,7 +26683,7 @@
       <c r="A135" s="1">
         <v>3134</v>
       </c>
-      <c r="B135" s="39"/>
+      <c r="B135" s="37"/>
       <c r="C135" s="2" t="s">
         <v>823</v>
       </c>
@@ -26589,8 +26737,9 @@
       <c r="S135" s="6">
         <v>5</v>
       </c>
-      <c r="T135" s="33">
-        <v>0.20569304825257567</v>
+      <c r="T135" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U135" s="7" t="s">
         <v>380</v>
@@ -26604,7 +26753,7 @@
       <c r="A136" s="1">
         <v>3135</v>
       </c>
-      <c r="B136" s="39"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="2" t="s">
         <v>826</v>
       </c>
@@ -26658,8 +26807,9 @@
       <c r="S136" s="6">
         <v>36</v>
       </c>
-      <c r="T136" s="33">
-        <v>0.20616957261711039</v>
+      <c r="T136" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U136" s="7" t="s">
         <v>380</v>
@@ -26673,7 +26823,7 @@
       <c r="A137" s="1">
         <v>3136</v>
       </c>
-      <c r="B137" s="39"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="2" t="s">
         <v>830</v>
       </c>
@@ -26725,7 +26875,10 @@
         <v>6</v>
       </c>
       <c r="S137" s="6"/>
-      <c r="T137" s="33"/>
+      <c r="T137" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U137" s="7" t="s">
         <v>380</v>
       </c>
@@ -26738,7 +26891,7 @@
       <c r="A138" s="1">
         <v>3137</v>
       </c>
-      <c r="B138" s="39"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="2" t="s">
         <v>834</v>
       </c>
@@ -26790,7 +26943,10 @@
         <v>3</v>
       </c>
       <c r="S138" s="6"/>
-      <c r="T138" s="33"/>
+      <c r="T138" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U138" s="7" t="s">
         <v>380</v>
       </c>
@@ -26802,7 +26958,7 @@
       <c r="A139" s="1">
         <v>3138</v>
       </c>
-      <c r="B139" s="39"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="2" t="s">
         <v>837</v>
       </c>
@@ -26854,7 +27010,10 @@
         <v>8</v>
       </c>
       <c r="S139" s="6"/>
-      <c r="T139" s="33"/>
+      <c r="T139" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U139" s="7" t="s">
         <v>380</v>
       </c>
@@ -26867,7 +27026,7 @@
       <c r="A140" s="1">
         <v>3139</v>
       </c>
-      <c r="B140" s="39"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="2" t="s">
         <v>840</v>
       </c>
@@ -26919,7 +27078,10 @@
         <v>9</v>
       </c>
       <c r="S140" s="6"/>
-      <c r="T140" s="33"/>
+      <c r="T140" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U140" s="7" t="s">
         <v>380</v>
       </c>
@@ -26931,7 +27093,7 @@
       <c r="A141" s="1">
         <v>3140</v>
       </c>
-      <c r="B141" s="39"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="2" t="s">
         <v>843</v>
       </c>
@@ -26983,7 +27145,10 @@
         <v>13</v>
       </c>
       <c r="S141" s="6"/>
-      <c r="T141" s="33"/>
+      <c r="T141" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U141" s="7" t="s">
         <v>380</v>
       </c>
@@ -26995,7 +27160,7 @@
       <c r="A142" s="1">
         <v>3141</v>
       </c>
-      <c r="B142" s="39"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="2" t="s">
         <v>847</v>
       </c>
@@ -27047,7 +27212,10 @@
         <v>6</v>
       </c>
       <c r="S142" s="6"/>
-      <c r="T142" s="33"/>
+      <c r="T142" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U142" s="7" t="s">
         <v>380</v>
       </c>
@@ -27059,7 +27227,7 @@
       <c r="A143" s="1">
         <v>3142</v>
       </c>
-      <c r="B143" s="39"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="2" t="s">
         <v>850</v>
       </c>
@@ -27111,7 +27279,10 @@
         <v>6</v>
       </c>
       <c r="S143" s="6"/>
-      <c r="T143" s="33"/>
+      <c r="T143" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U143" s="7" t="s">
         <v>380</v>
       </c>
@@ -27123,7 +27294,7 @@
       <c r="A144" s="1">
         <v>3143</v>
       </c>
-      <c r="B144" s="39"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="2" t="s">
         <v>853</v>
       </c>
@@ -27177,8 +27348,9 @@
       <c r="S144" s="6">
         <v>29</v>
       </c>
-      <c r="T144" s="33">
-        <v>0.10198013365153409</v>
+      <c r="T144" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U144" s="7" t="s">
         <v>380</v>
@@ -27191,7 +27363,7 @@
       <c r="A145" s="1">
         <v>3144</v>
       </c>
-      <c r="B145" s="39"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="2" t="s">
         <v>856</v>
       </c>
@@ -27245,8 +27417,9 @@
       <c r="S145" s="6">
         <v>32</v>
       </c>
-      <c r="T145" s="33">
-        <v>5.6701706101136055E-2</v>
+      <c r="T145" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U145" s="7" t="s">
         <v>380</v>
@@ -27259,7 +27432,7 @@
       <c r="A146" s="1">
         <v>3145</v>
       </c>
-      <c r="B146" s="39"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="2" t="s">
         <v>859</v>
       </c>
@@ -27311,12 +27484,15 @@
         <v>8</v>
       </c>
       <c r="S146" s="6"/>
-      <c r="T146" s="33"/>
+      <c r="T146" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U146" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V146" t="str">
-        <f t="shared" ref="V146:V175" si="2">IF(L146 =3,$V$4, )</f>
+        <f>IF(L146 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -27324,7 +27500,7 @@
       <c r="A147" s="1">
         <v>3146</v>
       </c>
-      <c r="B147" s="39"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="2" t="s">
         <v>862</v>
       </c>
@@ -27378,8 +27554,9 @@
       <c r="S147" s="6">
         <v>6</v>
       </c>
-      <c r="T147" s="33">
-        <v>0.1314785817146551</v>
+      <c r="T147" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U147" s="7" t="s">
         <v>380</v>
@@ -27392,7 +27569,7 @@
       <c r="A148" s="1">
         <v>3147</v>
       </c>
-      <c r="B148" s="39"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="2" t="s">
         <v>865</v>
       </c>
@@ -27446,8 +27623,9 @@
       <c r="S148" s="6">
         <v>9</v>
       </c>
-      <c r="T148" s="33">
-        <v>6.9741387796328644E-2</v>
+      <c r="T148" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U148" s="7" t="s">
         <v>380</v>
@@ -27460,7 +27638,7 @@
       <c r="A149" s="1">
         <v>3148</v>
       </c>
-      <c r="B149" s="39"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="2" t="s">
         <v>868</v>
       </c>
@@ -27512,7 +27690,10 @@
         <v>7</v>
       </c>
       <c r="S149" s="6"/>
-      <c r="T149" s="33"/>
+      <c r="T149" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U149" s="7" t="s">
         <v>380</v>
       </c>
@@ -27520,7 +27701,7 @@
         <f>IF(L149 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-      <c r="AB149" s="44" t="s">
+      <c r="AB149" s="42" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -27528,7 +27709,7 @@
       <c r="A150" s="1">
         <v>3149</v>
       </c>
-      <c r="B150" s="39"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="2" t="s">
         <v>871</v>
       </c>
@@ -27580,7 +27761,10 @@
         <v>10</v>
       </c>
       <c r="S150" s="6"/>
-      <c r="T150" s="33"/>
+      <c r="T150" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U150" s="7" t="s">
         <v>380</v>
       </c>
@@ -27593,7 +27777,7 @@
       <c r="A151" s="1">
         <v>3150</v>
       </c>
-      <c r="B151" s="39"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="2" t="s">
         <v>874</v>
       </c>
@@ -27647,8 +27831,9 @@
       <c r="S151" s="6">
         <v>44</v>
       </c>
-      <c r="T151" s="33">
-        <v>0.21728196533777849</v>
+      <c r="T151" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U151" s="7" t="s">
         <v>380</v>
@@ -27657,7 +27842,7 @@
         <f>IF(L151 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-      <c r="AB151" s="44" t="s">
+      <c r="AB151" s="42" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -27665,7 +27850,7 @@
       <c r="A152" s="1">
         <v>3151</v>
       </c>
-      <c r="B152" s="39"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="2" t="s">
         <v>877</v>
       </c>
@@ -27717,7 +27902,10 @@
         <v>11</v>
       </c>
       <c r="S152" s="6"/>
-      <c r="T152" s="33"/>
+      <c r="T152" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U152" s="7" t="s">
         <v>380</v>
       </c>
@@ -27730,7 +27918,7 @@
       <c r="A153" s="1">
         <v>3152</v>
       </c>
-      <c r="B153" s="39"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="2" t="s">
         <v>880</v>
       </c>
@@ -27782,7 +27970,10 @@
         <v>3</v>
       </c>
       <c r="S153" s="6"/>
-      <c r="T153" s="33"/>
+      <c r="T153" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U153" s="7" t="s">
         <v>380</v>
       </c>
@@ -27794,7 +27985,7 @@
       <c r="A154" s="1">
         <v>3153</v>
       </c>
-      <c r="B154" s="39"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="2" t="s">
         <v>883</v>
       </c>
@@ -27848,8 +28039,9 @@
       <c r="S154" s="6">
         <v>32</v>
       </c>
-      <c r="T154" s="33">
-        <v>0.17998276584131473</v>
+      <c r="T154" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U154" s="7" t="s">
         <v>380</v>
@@ -27863,7 +28055,7 @@
       <c r="A155" s="1">
         <v>3154</v>
       </c>
-      <c r="B155" s="39"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="2" t="s">
         <v>886</v>
       </c>
@@ -27917,8 +28109,9 @@
       <c r="S155" s="6">
         <v>30</v>
       </c>
-      <c r="T155" s="33">
-        <v>0.1813407832510156</v>
+      <c r="T155" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U155" s="7" t="s">
         <v>380</v>
@@ -27932,7 +28125,7 @@
       <c r="A156" s="1">
         <v>3155</v>
       </c>
-      <c r="B156" s="39"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="2" t="s">
         <v>889</v>
       </c>
@@ -27986,8 +28179,9 @@
       <c r="S156" s="6">
         <v>15</v>
       </c>
-      <c r="T156" s="33">
-        <v>0.11547144538414554</v>
+      <c r="T156" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U156" s="7" t="s">
         <v>380</v>
@@ -28001,7 +28195,7 @@
       <c r="A157" s="1">
         <v>3156</v>
       </c>
-      <c r="B157" s="39"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="2" t="s">
         <v>892</v>
       </c>
@@ -28055,8 +28249,9 @@
       <c r="S157" s="6">
         <v>9</v>
       </c>
-      <c r="T157" s="33">
-        <v>0.22869128722860449</v>
+      <c r="T157" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U157" s="7" t="s">
         <v>380</v>
@@ -28070,7 +28265,7 @@
       <c r="A158" s="1">
         <v>3157</v>
       </c>
-      <c r="B158" s="39"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="2" t="s">
         <v>895</v>
       </c>
@@ -28122,7 +28317,10 @@
         <v>9</v>
       </c>
       <c r="S158" s="6"/>
-      <c r="T158" s="33"/>
+      <c r="T158" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U158" s="7" t="s">
         <v>380</v>
       </c>
@@ -28135,7 +28333,7 @@
       <c r="A159" s="1">
         <v>3158</v>
       </c>
-      <c r="B159" s="39"/>
+      <c r="B159" s="37"/>
       <c r="C159" s="2" t="s">
         <v>898</v>
       </c>
@@ -28189,8 +28387,9 @@
       <c r="S159" s="6">
         <v>13</v>
       </c>
-      <c r="T159" s="33">
-        <v>5.9751213063190846E-2</v>
+      <c r="T159" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U159" s="7" t="s">
         <v>380</v>
@@ -28204,7 +28403,7 @@
       <c r="A160" s="1">
         <v>3159</v>
       </c>
-      <c r="B160" s="39"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="2" t="s">
         <v>901</v>
       </c>
@@ -28256,7 +28455,10 @@
         <v>9</v>
       </c>
       <c r="S160" s="6"/>
-      <c r="T160" s="33"/>
+      <c r="T160" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U160" s="7" t="s">
         <v>380</v>
       </c>
@@ -28269,7 +28471,7 @@
       <c r="A161" s="1">
         <v>3160</v>
       </c>
-      <c r="B161" s="39"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="2" t="s">
         <v>904</v>
       </c>
@@ -28323,8 +28525,9 @@
       <c r="S161" s="6">
         <v>16</v>
       </c>
-      <c r="T161" s="33">
-        <v>0.10434239979467175</v>
+      <c r="T161" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U161" s="7" t="s">
         <v>380</v>
@@ -28337,7 +28540,7 @@
       <c r="A162" s="1">
         <v>3161</v>
       </c>
-      <c r="B162" s="39"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="2" t="s">
         <v>907</v>
       </c>
@@ -28391,8 +28594,9 @@
       <c r="S162" s="6">
         <v>8</v>
       </c>
-      <c r="T162" s="33">
-        <v>0.16075149978012182</v>
+      <c r="T162" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U162" s="7" t="s">
         <v>380</v>
@@ -28405,7 +28609,7 @@
       <c r="A163" s="1">
         <v>3162</v>
       </c>
-      <c r="B163" s="39"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="2" t="s">
         <v>910</v>
       </c>
@@ -28457,7 +28661,10 @@
         <v>14</v>
       </c>
       <c r="S163" s="6"/>
-      <c r="T163" s="33"/>
+      <c r="T163" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U163" s="7" t="s">
         <v>380</v>
       </c>
@@ -28469,7 +28676,7 @@
       <c r="A164" s="1">
         <v>3163</v>
       </c>
-      <c r="B164" s="39"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="2" t="s">
         <v>913</v>
       </c>
@@ -28523,8 +28730,9 @@
       <c r="S164" s="6">
         <v>8</v>
       </c>
-      <c r="T164" s="33">
-        <v>0.22380075652971321</v>
+      <c r="T164" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U164" s="7" t="s">
         <v>380</v>
@@ -28538,7 +28746,7 @@
       <c r="A165" s="1">
         <v>3164</v>
       </c>
-      <c r="B165" s="39"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="2" t="s">
         <v>916</v>
       </c>
@@ -28590,7 +28798,10 @@
         <v>1</v>
       </c>
       <c r="S165" s="6"/>
-      <c r="T165" s="33"/>
+      <c r="T165" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U165" s="7" t="s">
         <v>380</v>
       </c>
@@ -28603,7 +28814,7 @@
       <c r="A166" s="1">
         <v>3165</v>
       </c>
-      <c r="B166" s="39"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="2" t="s">
         <v>919</v>
       </c>
@@ -28655,7 +28866,10 @@
         <v>11</v>
       </c>
       <c r="S166" s="6"/>
-      <c r="T166" s="33"/>
+      <c r="T166" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U166" s="7" t="s">
         <v>380</v>
       </c>
@@ -28668,7 +28882,7 @@
       <c r="A167" s="1">
         <v>3166</v>
       </c>
-      <c r="B167" s="39"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="2" t="s">
         <v>922</v>
       </c>
@@ -28722,8 +28936,9 @@
       <c r="S167" s="6">
         <v>6</v>
       </c>
-      <c r="T167" s="33">
-        <v>0.13896507888211912</v>
+      <c r="T167" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U167" s="7" t="s">
         <v>380</v>
@@ -28737,7 +28952,7 @@
       <c r="A168" s="1">
         <v>3167</v>
       </c>
-      <c r="B168" s="39"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="2" t="s">
         <v>925</v>
       </c>
@@ -28789,12 +29004,15 @@
         <v>7</v>
       </c>
       <c r="S168" s="6"/>
-      <c r="T168" s="33"/>
+      <c r="T168" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U168" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V168" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(L168 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -28802,7 +29020,7 @@
       <c r="A169" s="1">
         <v>3168</v>
       </c>
-      <c r="B169" s="39"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="2" t="s">
         <v>928</v>
       </c>
@@ -28854,7 +29072,10 @@
         <v>14</v>
       </c>
       <c r="S169" s="6"/>
-      <c r="T169" s="33"/>
+      <c r="T169" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U169" s="7" t="s">
         <v>380</v>
       </c>
@@ -28867,7 +29088,7 @@
       <c r="A170" s="1">
         <v>3169</v>
       </c>
-      <c r="B170" s="39"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="2" t="s">
         <v>930</v>
       </c>
@@ -28919,7 +29140,10 @@
         <v>9</v>
       </c>
       <c r="S170" s="6"/>
-      <c r="T170" s="33"/>
+      <c r="T170" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U170" s="7" t="s">
         <v>380</v>
       </c>
@@ -28932,7 +29156,7 @@
       <c r="A171" s="1">
         <v>3170</v>
       </c>
-      <c r="B171" s="39"/>
+      <c r="B171" s="37"/>
       <c r="C171" s="2" t="s">
         <v>933</v>
       </c>
@@ -28984,12 +29208,15 @@
         <v>9</v>
       </c>
       <c r="S171" s="6"/>
-      <c r="T171" s="33"/>
+      <c r="T171" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U171" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V171" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(L171 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -28997,7 +29224,7 @@
       <c r="A172" s="1">
         <v>3171</v>
       </c>
-      <c r="B172" s="39"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="2" t="s">
         <v>936</v>
       </c>
@@ -29049,7 +29276,10 @@
         <v>3</v>
       </c>
       <c r="S172" s="6"/>
-      <c r="T172" s="33"/>
+      <c r="T172" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U172" s="7" t="s">
         <v>380</v>
       </c>
@@ -29061,7 +29291,7 @@
       <c r="A173" s="1">
         <v>3172</v>
       </c>
-      <c r="B173" s="40" t="s">
+      <c r="B173" s="38" t="s">
         <v>1103</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -29117,8 +29347,9 @@
       <c r="S173" s="6">
         <v>8</v>
       </c>
-      <c r="T173" s="33">
-        <v>7.7256559285791185E-2</v>
+      <c r="T173" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U173" s="7" t="s">
         <v>380</v>
@@ -29131,7 +29362,7 @@
       <c r="A174" s="1">
         <v>3173</v>
       </c>
-      <c r="B174" s="39"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="2" t="s">
         <v>942</v>
       </c>
@@ -29185,8 +29416,9 @@
       <c r="S174" s="6">
         <v>21</v>
       </c>
-      <c r="T174" s="33">
-        <v>9.8269350418562995E-2</v>
+      <c r="T174" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U174" s="7" t="s">
         <v>380</v>
@@ -29200,7 +29432,7 @@
       <c r="A175" s="1">
         <v>3174</v>
       </c>
-      <c r="B175" s="39"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="2" t="s">
         <v>945</v>
       </c>
@@ -29252,12 +29484,15 @@
         <v>10</v>
       </c>
       <c r="S175" s="6"/>
-      <c r="T175" s="33"/>
+      <c r="T175" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U175" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V175" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(L175 =3,$V$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
     </row>
@@ -29265,7 +29500,7 @@
       <c r="A176" s="1">
         <v>3175</v>
       </c>
-      <c r="B176" s="39"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="2" t="s">
         <v>949</v>
       </c>
@@ -29319,8 +29554,9 @@
       <c r="S176" s="6">
         <v>27</v>
       </c>
-      <c r="T176" s="33">
-        <v>0.13693666505206453</v>
+      <c r="T176" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U176" s="7" t="s">
         <v>390</v>
@@ -29334,7 +29570,7 @@
       <c r="A177" s="1">
         <v>3176</v>
       </c>
-      <c r="B177" s="39"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="2" t="s">
         <v>952</v>
       </c>
@@ -29386,7 +29622,10 @@
         <v>9</v>
       </c>
       <c r="S177" s="6"/>
-      <c r="T177" s="33"/>
+      <c r="T177" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U177" s="7" t="s">
         <v>380</v>
       </c>
@@ -29399,7 +29638,7 @@
       <c r="A178" s="1">
         <v>3177</v>
       </c>
-      <c r="B178" s="39"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="2" t="s">
         <v>955</v>
       </c>
@@ -29453,8 +29692,9 @@
       <c r="S178" s="6">
         <v>19</v>
       </c>
-      <c r="T178" s="33">
-        <v>0.23400699943024011</v>
+      <c r="T178" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U178" s="7" t="s">
         <v>380</v>
@@ -29468,7 +29708,7 @@
       <c r="A179" s="1">
         <v>3178</v>
       </c>
-      <c r="B179" s="39"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="2" t="s">
         <v>958</v>
       </c>
@@ -29520,7 +29760,10 @@
         <v>7</v>
       </c>
       <c r="S179" s="6"/>
-      <c r="T179" s="33"/>
+      <c r="T179" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U179" s="7" t="s">
         <v>380</v>
       </c>
@@ -29533,7 +29776,7 @@
       <c r="A180" s="1">
         <v>3179</v>
       </c>
-      <c r="B180" s="39"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="2" t="s">
         <v>961</v>
       </c>
@@ -29585,7 +29828,10 @@
         <v>1</v>
       </c>
       <c r="S180" s="6"/>
-      <c r="T180" s="33"/>
+      <c r="T180" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
+      </c>
       <c r="U180" s="7" t="s">
         <v>380</v>
       </c>
@@ -29597,7 +29843,7 @@
       <c r="A181" s="1">
         <v>3180</v>
       </c>
-      <c r="B181" s="39"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="2" t="s">
         <v>964</v>
       </c>
@@ -29651,8 +29897,9 @@
       <c r="S181" s="6">
         <v>21</v>
       </c>
-      <c r="T181" s="33">
-        <v>0.15023775787043414</v>
+      <c r="T181" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U181" s="7" t="s">
         <v>380</v>
@@ -29666,7 +29913,7 @@
       <c r="A182" s="1">
         <v>3181</v>
       </c>
-      <c r="B182" s="39"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="2" t="s">
         <v>967</v>
       </c>
@@ -29720,8 +29967,9 @@
       <c r="S182" s="6">
         <v>21</v>
       </c>
-      <c r="T182" s="33">
-        <v>0.14326794959507605</v>
+      <c r="T182" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U182" s="7" t="s">
         <v>380</v>
@@ -29735,7 +29983,7 @@
       <c r="A183" s="1">
         <v>3182</v>
       </c>
-      <c r="B183" s="39"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="2" t="s">
         <v>970</v>
       </c>
@@ -29789,8 +30037,9 @@
       <c r="S183" s="6">
         <v>6</v>
       </c>
-      <c r="T183" s="33">
-        <v>0.22720553096494284</v>
+      <c r="T183" s="50" t="e">
+        <f>#REF! *100</f>
+        <v>#REF!</v>
       </c>
       <c r="U183" s="7" t="s">
         <v>390</v>
@@ -29804,7 +30053,7 @@
       <c r="A184" s="1">
         <v>3183</v>
       </c>
-      <c r="B184" s="39"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="2" t="s">
         <v>973</v>
       </c>
@@ -29856,7 +30105,7 @@
         <v>1</v>
       </c>
       <c r="S184" s="6"/>
-      <c r="T184" s="33"/>
+      <c r="T184" s="47"/>
       <c r="U184" s="7" t="s">
         <v>380</v>
       </c>
@@ -29865,102 +30114,46 @@
         <v>/images/properties/Home12.jpg</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T185" s="34"/>
-    </row>
-    <row r="186" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T186" s="34"/>
-    </row>
-    <row r="187" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T187" s="34"/>
-    </row>
-    <row r="188" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T188" s="34"/>
-    </row>
-    <row r="189" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T189" s="34"/>
-    </row>
-    <row r="190" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T190" s="34"/>
-    </row>
-    <row r="191" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T191" s="34"/>
-    </row>
-    <row r="192" spans="1:22" ht="15.75" customHeight="1">
-      <c r="T192" s="34"/>
-    </row>
-    <row r="193" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T193" s="34"/>
-    </row>
-    <row r="194" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T194" s="34"/>
-    </row>
-    <row r="195" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T195" s="34"/>
-    </row>
-    <row r="196" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T196" s="34"/>
-    </row>
-    <row r="197" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T197" s="34"/>
-    </row>
-    <row r="198" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T198" s="34"/>
-    </row>
-    <row r="199" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T199" s="34"/>
-    </row>
-    <row r="200" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T200" s="34"/>
-    </row>
-    <row r="201" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T201" s="34"/>
-    </row>
-    <row r="202" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T202" s="34"/>
-    </row>
-    <row r="203" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T203" s="34"/>
-    </row>
-    <row r="204" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T204" s="34"/>
-    </row>
-    <row r="205" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T205" s="34"/>
-    </row>
-    <row r="206" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T206" s="34"/>
-    </row>
-    <row r="207" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T207" s="34"/>
-    </row>
-    <row r="208" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T208" s="34"/>
-    </row>
-    <row r="209" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T209" s="34"/>
-    </row>
-    <row r="210" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T210" s="34"/>
-    </row>
-    <row r="211" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T211" s="34"/>
-    </row>
-    <row r="212" spans="20:20" ht="15.75" customHeight="1">
-      <c r="T212" s="34"/>
-    </row>
-    <row r="213" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="214" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="215" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="216" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="217" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="218" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="219" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="220" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="221" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="222" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="223" spans="20:20" ht="15.75" customHeight="1"/>
-    <row r="224" spans="20:20" ht="15.75" customHeight="1"/>
+    <row r="185" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="186" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="187" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="188" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="189" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="190" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="191" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="192" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -30768,106 +30961,106 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37">
+      <c r="A2" s="35">
         <v>3009</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <v>45630</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37">
+      <c r="A3" s="35">
         <v>3009</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="36">
         <v>45631</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>3172</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="36">
         <v>45656</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>3172</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <v>45657</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>3172</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>45658</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>3113</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <v>45631</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>3113</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="36">
         <v>45632</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>3113</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="36">
         <v>45633</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>3099</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <v>45655</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>3099</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <v>45656</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>3099</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="36">
         <v>45657</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>3099</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="36">
         <v>45658</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>3100</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="36">
         <v>45657</v>
       </c>
     </row>
@@ -32529,7 +32722,7 @@
         <f>VLOOKUP(B2,[1]Properties!$A$2:Q184,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="44">
         <f>VLOOKUP(B2,[1]Properties!$A$2:Q184,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32572,7 +32765,7 @@
         <f>VLOOKUP(B3,[1]Properties!$A$2:Q185,12,FALSE)</f>
         <v>26.36</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="44">
         <f>VLOOKUP(B3,[1]Properties!$A$2:Q185,17,FALSE)</f>
         <v>0.21728196533777849</v>
       </c>
@@ -32597,7 +32790,7 @@
       <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>45602</v>
       </c>
       <c r="E4" s="8">
@@ -32615,7 +32808,7 @@
         <f>VLOOKUP(B4,[1]Properties!$A$2:Q186,12,FALSE)</f>
         <v>13.74</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="44">
         <f>VLOOKUP(B4,[1]Properties!$A$2:Q186,17,FALSE)</f>
         <v>0.15783334197277493</v>
       </c>
@@ -32658,7 +32851,7 @@
         <f>VLOOKUP(B5,[1]Properties!$A$2:Q187,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="44">
         <f>VLOOKUP(B5,[1]Properties!$A$2:Q187,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32701,7 +32894,7 @@
         <f>VLOOKUP(B6,[1]Properties!$A$2:Q188,12,FALSE)</f>
         <v>25.57</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="44">
         <f>VLOOKUP(B6,[1]Properties!$A$2:Q188,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32712,7 +32905,7 @@
       <c r="K6" s="7">
         <v>21903</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -32744,7 +32937,7 @@
         <f>VLOOKUP(B7,[1]Properties!$A$2:Q189,12,FALSE)</f>
         <v>27.65</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="44">
         <f>VLOOKUP(B7,[1]Properties!$A$2:Q189,17,FALSE)</f>
         <v>8.7890398442729001E-2</v>
       </c>
@@ -32787,7 +32980,7 @@
         <f>VLOOKUP(B8,[1]Properties!$A$2:Q190,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="44">
         <f>VLOOKUP(B8,[1]Properties!$A$2:Q190,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32830,7 +33023,7 @@
         <f>VLOOKUP(B9,[1]Properties!$A$2:Q191,12,FALSE)</f>
         <v>19.190000000000001</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="44">
         <f>VLOOKUP(B9,[1]Properties!$A$2:Q191,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -32841,7 +33034,7 @@
       <c r="K9" s="7">
         <v>21906</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -32873,7 +33066,7 @@
         <f>VLOOKUP(B10,[1]Properties!$A$2:Q192,12,FALSE)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="44">
         <f>VLOOKUP(B10,[1]Properties!$A$2:Q192,17,FALSE)</f>
         <v>0.17515031842671308</v>
       </c>
@@ -32916,7 +33109,7 @@
         <f>VLOOKUP(B11,[1]Properties!$A$2:Q193,12,FALSE)</f>
         <v>18.440000000000001</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="44">
         <f>VLOOKUP(B11,[1]Properties!$A$2:Q193,17,FALSE)</f>
         <v>7.7256559285791185E-2</v>
       </c>
@@ -32959,7 +33152,7 @@
         <f>VLOOKUP(B12,[1]Properties!$A$2:Q194,12,FALSE)</f>
         <v>24.75</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="44">
         <f>VLOOKUP(B12,[1]Properties!$A$2:Q194,17,FALSE)</f>
         <v>0.16765499120781757</v>
       </c>
@@ -32987,7 +33180,7 @@
       <c r="D13" s="8">
         <v>45624</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>45627</v>
       </c>
       <c r="F13" s="23">
@@ -33002,7 +33195,7 @@
         <f>VLOOKUP(B13,[1]Properties!$A$2:Q195,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="44">
         <f>VLOOKUP(B13,[1]Properties!$A$2:Q195,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -33030,7 +33223,7 @@
       <c r="D14" s="8">
         <v>45597</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>45601</v>
       </c>
       <c r="F14" s="23">
@@ -33045,7 +33238,7 @@
         <f>VLOOKUP(B14,[1]Properties!$A$2:Q196,12,FALSE)</f>
         <v>25.57</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="44">
         <f>VLOOKUP(B14,[1]Properties!$A$2:Q196,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33088,7 +33281,7 @@
         <f>VLOOKUP(B15,[1]Properties!$A$2:Q197,12,FALSE)</f>
         <v>24.31</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="44">
         <f>VLOOKUP(B15,[1]Properties!$A$2:Q197,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33131,7 +33324,7 @@
         <f>VLOOKUP(B16,[1]Properties!$A$2:Q198,12,FALSE)</f>
         <v>13.3</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="44">
         <f>VLOOKUP(B16,[1]Properties!$A$2:Q198,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33159,7 +33352,7 @@
       <c r="D17" s="8">
         <v>45597</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="36">
         <v>45612</v>
       </c>
       <c r="F17" s="23">
@@ -33174,7 +33367,7 @@
         <f>VLOOKUP(B17,[1]Properties!$A$2:Q199,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="44">
         <f>VLOOKUP(B17,[1]Properties!$A$2:Q199,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33217,7 +33410,7 @@
         <f>VLOOKUP(B18,[1]Properties!$A$2:Q200,12,FALSE)</f>
         <v>5.88</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="44">
         <f>VLOOKUP(B18,[1]Properties!$A$2:Q200,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33260,7 +33453,7 @@
         <f>VLOOKUP(B19,[1]Properties!$A$2:Q201,12,FALSE)</f>
         <v>29.74</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="44">
         <f>VLOOKUP(B19,[1]Properties!$A$2:Q201,17,FALSE)</f>
         <v>0.15023775787043414</v>
       </c>
@@ -33285,7 +33478,7 @@
       <c r="C20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>45628</v>
       </c>
       <c r="E20" s="8">
@@ -33303,7 +33496,7 @@
         <f>VLOOKUP(B20,[1]Properties!$A$2:Q202,12,FALSE)</f>
         <v>8.27</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="44">
         <f>VLOOKUP(B20,[1]Properties!$A$2:Q202,17,FALSE)</f>
         <v>0.16075149978012182</v>
       </c>
@@ -33314,7 +33507,7 @@
       <c r="K20" s="7">
         <v>21917</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -33346,7 +33539,7 @@
         <f>VLOOKUP(B21,[1]Properties!$A$2:Q203,12,FALSE)</f>
         <v>5.88</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="44">
         <f>VLOOKUP(B21,[1]Properties!$A$2:Q203,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33389,7 +33582,7 @@
         <f>VLOOKUP(B22,[1]Properties!$A$2:Q204,12,FALSE)</f>
         <v>24.26</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="44">
         <f>VLOOKUP(B22,[1]Properties!$A$2:Q204,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33414,7 +33607,7 @@
       <c r="C23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>45636</v>
       </c>
       <c r="E23" s="8">
@@ -33432,7 +33625,7 @@
         <f>VLOOKUP(B23,[1]Properties!$A$2:Q205,12,FALSE)</f>
         <v>6.56</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="44">
         <f>VLOOKUP(B23,[1]Properties!$A$2:Q205,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33457,7 +33650,7 @@
       <c r="C24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>45635</v>
       </c>
       <c r="E24" s="8">
@@ -33475,7 +33668,7 @@
         <f>VLOOKUP(B24,[1]Properties!$A$2:Q206,12,FALSE)</f>
         <v>18.64</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="44">
         <f>VLOOKUP(B24,[1]Properties!$A$2:Q206,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33503,7 +33696,7 @@
       <c r="D25" s="8">
         <v>45618</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="36">
         <v>45627</v>
       </c>
       <c r="F25" s="23">
@@ -33518,7 +33711,7 @@
         <f>VLOOKUP(B25,[1]Properties!$A$2:Q207,12,FALSE)</f>
         <v>8.27</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="44">
         <f>VLOOKUP(B25,[1]Properties!$A$2:Q207,17,FALSE)</f>
         <v>0.16075149978012182</v>
       </c>
@@ -33529,7 +33722,7 @@
       <c r="K25" s="7">
         <v>21919</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -33561,7 +33754,7 @@
         <f>VLOOKUP(B26,[1]Properties!$A$2:Q208,12,FALSE)</f>
         <v>13.02</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="44">
         <f>VLOOKUP(B26,[1]Properties!$A$2:Q208,17,FALSE)</f>
         <v>0.17221234967106303</v>
       </c>
@@ -33604,7 +33797,7 @@
         <f>VLOOKUP(B27,[1]Properties!$A$2:Q209,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="44">
         <f>VLOOKUP(B27,[1]Properties!$A$2:Q209,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -33629,7 +33822,7 @@
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>45638</v>
       </c>
       <c r="E28" s="8">
@@ -33647,7 +33840,7 @@
         <f>VLOOKUP(B28,[1]Properties!$A$2:Q210,12,FALSE)</f>
         <v>11.07</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="44">
         <f>VLOOKUP(B28,[1]Properties!$A$2:Q210,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33690,7 +33883,7 @@
         <f>VLOOKUP(B29,[1]Properties!$A$2:Q211,12,FALSE)</f>
         <v>14.53</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="44">
         <f>VLOOKUP(B29,[1]Properties!$A$2:Q211,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33733,7 +33926,7 @@
         <f>VLOOKUP(B30,[1]Properties!$A$2:Q212,12,FALSE)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="44">
         <f>VLOOKUP(B30,[1]Properties!$A$2:Q212,17,FALSE)</f>
         <v>9.0923177642016323E-2</v>
       </c>
@@ -33776,7 +33969,7 @@
         <f>VLOOKUP(B31,[1]Properties!$A$2:Q213,12,FALSE)</f>
         <v>13.02</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="44">
         <f>VLOOKUP(B31,[1]Properties!$A$2:Q213,17,FALSE)</f>
         <v>0.17221234967106303</v>
       </c>
@@ -33804,7 +33997,7 @@
       <c r="D32" s="8">
         <v>45642</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>45648</v>
       </c>
       <c r="F32" s="23">
@@ -33819,7 +34012,7 @@
         <f>VLOOKUP(B32,[1]Properties!$A$2:Q214,12,FALSE)</f>
         <v>5.36</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="44">
         <f>VLOOKUP(B32,[1]Properties!$A$2:Q214,17,FALSE)</f>
         <v>0.22717037959754555</v>
       </c>
@@ -33847,7 +34040,7 @@
       <c r="D33" s="8">
         <v>45616</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>45627</v>
       </c>
       <c r="F33" s="23">
@@ -33862,7 +34055,7 @@
         <f>VLOOKUP(B33,[1]Properties!$A$2:Q215,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="44">
         <f>VLOOKUP(B33,[1]Properties!$A$2:Q215,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -33905,7 +34098,7 @@
         <f>VLOOKUP(B34,[1]Properties!$A$2:Q216,12,FALSE)</f>
         <v>17.59</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="44">
         <f>VLOOKUP(B34,[1]Properties!$A$2:Q216,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33930,7 +34123,7 @@
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <v>45654</v>
       </c>
       <c r="E35" s="8">
@@ -33948,7 +34141,7 @@
         <f>VLOOKUP(B35,[1]Properties!$A$2:Q217,12,FALSE)</f>
         <v>25.94</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="44">
         <f>VLOOKUP(B35,[1]Properties!$A$2:Q217,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -33991,7 +34184,7 @@
         <f>VLOOKUP(B36,[1]Properties!$A$2:Q218,12,FALSE)</f>
         <v>19.14</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="44">
         <f>VLOOKUP(B36,[1]Properties!$A$2:Q218,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34016,7 +34209,7 @@
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>45628</v>
       </c>
       <c r="E37" s="8">
@@ -34034,7 +34227,7 @@
         <f>VLOOKUP(B37,[1]Properties!$A$2:Q219,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="44">
         <f>VLOOKUP(B37,[1]Properties!$A$2:Q219,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34045,7 +34238,7 @@
       <c r="K37" s="7">
         <v>21926</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -34077,7 +34270,7 @@
         <f>VLOOKUP(B38,[1]Properties!$A$2:Q220,12,FALSE)</f>
         <v>11.35</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="44">
         <f>VLOOKUP(B38,[1]Properties!$A$2:Q220,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34120,7 +34313,7 @@
         <f>VLOOKUP(B39,[1]Properties!$A$2:Q221,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="44">
         <f>VLOOKUP(B39,[1]Properties!$A$2:Q221,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -34163,7 +34356,7 @@
         <f>VLOOKUP(B40,[1]Properties!$A$2:Q222,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="44">
         <f>VLOOKUP(B40,[1]Properties!$A$2:Q222,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34188,7 +34381,7 @@
       <c r="C41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="36">
         <v>45654</v>
       </c>
       <c r="E41" s="8">
@@ -34206,7 +34399,7 @@
         <f>VLOOKUP(B41,[1]Properties!$A$2:Q223,12,FALSE)</f>
         <v>23.55</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="44">
         <f>VLOOKUP(B41,[1]Properties!$A$2:Q223,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34249,7 +34442,7 @@
         <f>VLOOKUP(B42,[1]Properties!$A$2:Q224,12,FALSE)</f>
         <v>15.89</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="44">
         <f>VLOOKUP(B42,[1]Properties!$A$2:Q224,17,FALSE)</f>
         <v>0.24471219336460792</v>
       </c>
@@ -34292,7 +34485,7 @@
         <f>VLOOKUP(B43,[1]Properties!$A$2:Q225,12,FALSE)</f>
         <v>6.69</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="44">
         <f>VLOOKUP(B43,[1]Properties!$A$2:Q225,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34335,7 +34528,7 @@
         <f>VLOOKUP(B44,[1]Properties!$A$2:Q226,12,FALSE)</f>
         <v>11.91</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="44">
         <f>VLOOKUP(B44,[1]Properties!$A$2:Q226,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34378,7 +34571,7 @@
         <f>VLOOKUP(B45,[1]Properties!$A$2:Q227,12,FALSE)</f>
         <v>18.690000000000001</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="44">
         <f>VLOOKUP(B45,[1]Properties!$A$2:Q227,17,FALSE)</f>
         <v>7.8328543071037413E-2</v>
       </c>
@@ -34403,7 +34596,7 @@
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="36">
         <v>45652</v>
       </c>
       <c r="E46" s="8">
@@ -34421,7 +34614,7 @@
         <f>VLOOKUP(B46,[1]Properties!$A$2:Q228,12,FALSE)</f>
         <v>25.11</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="44">
         <f>VLOOKUP(B46,[1]Properties!$A$2:Q228,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34446,7 +34639,7 @@
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="36">
         <v>45630</v>
       </c>
       <c r="E47" s="8">
@@ -34464,7 +34657,7 @@
         <f>VLOOKUP(B47,[1]Properties!$A$2:Q229,12,FALSE)</f>
         <v>11.29</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="44">
         <f>VLOOKUP(B47,[1]Properties!$A$2:Q229,17,FALSE)</f>
         <v>0.20579577371388896</v>
       </c>
@@ -34475,7 +34668,7 @@
       <c r="K47" s="7">
         <v>21932</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="35" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -34489,7 +34682,7 @@
       <c r="C48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="36">
         <v>45632</v>
       </c>
       <c r="E48" s="8">
@@ -34507,7 +34700,7 @@
         <f>VLOOKUP(B48,[1]Properties!$A$2:Q230,12,FALSE)</f>
         <v>21.05</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="44">
         <f>VLOOKUP(B48,[1]Properties!$A$2:Q230,17,FALSE)</f>
         <v>9.4956172037010664E-2</v>
       </c>
@@ -34550,7 +34743,7 @@
         <f>VLOOKUP(B49,[1]Properties!$A$2:Q231,12,FALSE)</f>
         <v>6.82</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="44">
         <f>VLOOKUP(B49,[1]Properties!$A$2:Q231,17,FALSE)</f>
         <v>0</v>
       </c>
@@ -34593,7 +34786,7 @@
         <f>VLOOKUP(B50,[1]Properties!$A$2:Q232,12,FALSE)</f>
         <v>5.62</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="44">
         <f>VLOOKUP(B50,[1]Properties!$A$2:Q232,17,FALSE)</f>
         <v>5.8409227655741816E-2</v>
       </c>

--- a/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
+++ b/FinalProject/wwwroot/Data/SeedingDataBevoBnB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis333k\final\FinalProject\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9A996-4432-43C4-A1BA-4D722EC30AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21472DCF-6860-43B9-8FC0-4FF43FE62551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,9 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Properties!$E$1:$E$1000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1132">
   <si>
     <t>Password</t>
   </si>
@@ -3437,6 +3440,9 @@
   </si>
   <si>
     <t>/images/properties/Home15.jpg</t>
+  </si>
+  <si>
+    <t>Discount %</t>
   </si>
 </sst>
 </file>
@@ -3690,11 +3696,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3758,20 +3763,20 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17677,8 +17682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="P166" workbookViewId="0">
+      <selection activeCell="Y181" sqref="Y181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17700,10 +17705,11 @@
     <col min="17" max="17" width="13.54296875" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
     <col min="19" max="19" width="21.6328125" customWidth="1"/>
-    <col min="20" max="20" width="14.36328125" style="49" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="26.7265625" customWidth="1"/>
-    <col min="23" max="26" width="8.6328125" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" customWidth="1"/>
+    <col min="21" max="21" width="26.7265625" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="51" customWidth="1"/>
+    <col min="23" max="23" width="18.7265625" customWidth="1"/>
+    <col min="24" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.5">
@@ -17764,14 +17770,17 @@
       <c r="S1" s="32" t="s">
         <v>1099</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W1" s="47" t="s">
         <v>1014</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>1098</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="14.5">
@@ -17830,13 +17839,13 @@
         <v>9</v>
       </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>1107</v>
       </c>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:27" ht="14.5">
       <c r="A3" s="1">
@@ -17896,14 +17905,18 @@
       <c r="S3" s="6">
         <v>4</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="V3" s="48">
+        <v>0.13755395258049169</v>
+      </c>
+      <c r="W3" s="49">
+        <f>ROUND(V3*100,0)</f>
         <v>14</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>1108</v>
       </c>
       <c r="X3">
         <f>14</f>
@@ -17966,12 +17979,16 @@
         <v>8</v>
       </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="U4" s="42" t="s">
         <v>1109</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="49">
+        <f t="shared" ref="W4:W67" si="0">ROUND(V4*100,0)</f>
+        <v>0</v>
       </c>
       <c r="AA4" s="42" t="s">
         <v>1115</v>
@@ -18033,12 +18050,16 @@
         <v>14</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="U5" s="43" t="s">
         <v>1113</v>
+      </c>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.5">
@@ -18097,12 +18118,16 @@
         <v>12</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="U6" s="42" t="s">
         <v>1110</v>
+      </c>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.5">
@@ -18163,14 +18188,18 @@
       <c r="S7" s="6">
         <v>10</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U7" s="42" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V7" s="48">
+        <v>0.23569316449850608</v>
+      </c>
+      <c r="W7" s="49">
+        <f t="shared" si="0"/>
         <v>24</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>1115</v>
       </c>
       <c r="X7">
         <v>24</v>
@@ -18232,12 +18261,16 @@
         <v>9</v>
       </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="U8" s="42" t="s">
         <v>1115</v>
+      </c>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.5">
@@ -18298,14 +18331,18 @@
       <c r="S9" s="6">
         <v>7</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V9" s="48">
+        <v>5.2902566929787058E-2</v>
+      </c>
+      <c r="W9" s="49">
+        <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V9" s="42" t="s">
-        <v>1112</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -18369,12 +18406,16 @@
         <v>4</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="U10" s="42" t="s">
         <v>1111</v>
+      </c>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.5">
@@ -18433,12 +18474,16 @@
         <v>3</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V11" s="45" t="s">
+      <c r="U11" s="45" t="s">
         <v>1110</v>
+      </c>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.5">
@@ -18497,13 +18542,17 @@
         <v>14</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V12" t="str">
-        <f>IF(L12=0,AA4,V6)</f>
+      <c r="U12" t="str">
+        <f>IF(L12=0,AA4,U6)</f>
         <v>/images/properties/Home4.jpg</v>
+      </c>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.5">
@@ -18562,13 +18611,17 @@
         <v>8</v>
       </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V13" t="str">
-        <f>IF(L13=0,AA5,V7)</f>
+      <c r="U13" t="str">
+        <f>IF(L13=0,AA5,U7)</f>
         <v>/images/properties/Home9.jpg</v>
+      </c>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.5">
@@ -18627,12 +18680,16 @@
         <v>4</v>
       </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="7" t="s">
+      <c r="T14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V14" s="46" t="s">
+      <c r="U14" s="46" t="s">
         <v>1115</v>
+      </c>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.5">
@@ -18691,12 +18748,16 @@
         <v>14</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="7" t="s">
+      <c r="T15" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V15" s="42" t="s">
+      <c r="U15" s="42" t="s">
         <v>1115</v>
+      </c>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.5">
@@ -18755,16 +18816,20 @@
         <v>11</v>
       </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="7" t="s">
+      <c r="T16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V16" t="str">
-        <f>IF(L16 =3,$V$4, )</f>
+      <c r="U16" t="str">
+        <f>IF(L16 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="14.5">
+      <c r="V16" s="48"/>
+      <c r="W16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14.5">
       <c r="A17" s="1">
         <v>3016</v>
       </c>
@@ -18822,17 +18887,21 @@
       <c r="S17" s="6">
         <v>22</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V17" s="48">
+        <v>0.12839496075567658</v>
+      </c>
+      <c r="W17" s="49">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="14.5">
+    </row>
+    <row r="18" spans="1:23" ht="14.5">
       <c r="A18" s="1">
         <v>3017</v>
       </c>
@@ -18888,15 +18957,19 @@
         <v>1</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="7" t="s">
+      <c r="T18" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V18" t="s">
+      <c r="U18" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="14.5">
+      <c r="V18" s="48"/>
+      <c r="W18" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.5">
       <c r="A19" s="1">
         <v>3018</v>
       </c>
@@ -18954,17 +19027,21 @@
       <c r="S19" s="6">
         <v>30</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V19" s="48">
+        <v>0.10807582150363287</v>
+      </c>
+      <c r="W19" s="49">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V19" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="14.5">
+    </row>
+    <row r="20" spans="1:23" ht="14.5">
       <c r="A20" s="1">
         <v>3019</v>
       </c>
@@ -19020,15 +19097,19 @@
         <v>5</v>
       </c>
       <c r="S20" s="6"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="7" t="s">
+      <c r="T20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V20" s="48"/>
+      <c r="W20" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>3020</v>
       </c>
@@ -19084,15 +19165,19 @@
         <v>12</v>
       </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V21" s="42" t="s">
+      <c r="U21" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V21" s="48"/>
+      <c r="W21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>3021</v>
       </c>
@@ -19148,16 +19233,20 @@
         <v>12</v>
       </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V22" t="str">
-        <f>IF(L22 =3,$V$4, )</f>
+      <c r="U22" t="str">
+        <f>IF(L22 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V22" s="48"/>
+      <c r="W22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>3022</v>
       </c>
@@ -19215,17 +19304,21 @@
       <c r="S23" s="6">
         <v>21</v>
       </c>
-      <c r="T23" s="47">
+      <c r="T23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U23" s="42" t="s">
+        <v>1113</v>
+      </c>
+      <c r="V23" s="48">
+        <v>0.12510246334246305</v>
+      </c>
+      <c r="W23" s="49">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="U23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V23" s="42" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>3023</v>
       </c>
@@ -19281,15 +19374,19 @@
         <v>11</v>
       </c>
       <c r="S24" s="6"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="7" t="s">
+      <c r="T24" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V24" t="s">
+      <c r="U24" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V24" s="48"/>
+      <c r="W24" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>3024</v>
       </c>
@@ -19345,15 +19442,19 @@
         <v>6</v>
       </c>
       <c r="S25" s="6"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="7" t="s">
+      <c r="T25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V25" s="42" t="s">
+      <c r="U25" s="42" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V25" s="48"/>
+      <c r="W25" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>3025</v>
       </c>
@@ -19409,15 +19510,19 @@
         <v>11</v>
       </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="7" t="s">
+      <c r="T26" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V26" s="42" t="s">
+      <c r="U26" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V26" s="48"/>
+      <c r="W26" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>3026</v>
       </c>
@@ -19475,17 +19580,21 @@
       <c r="S27" s="6">
         <v>28</v>
       </c>
-      <c r="T27" s="47">
+      <c r="T27" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V27" s="48">
+        <v>6.1195224251615034E-2</v>
+      </c>
+      <c r="W27" s="49">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U27" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V27" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>3027</v>
       </c>
@@ -19543,17 +19652,21 @@
       <c r="S28" s="6">
         <v>3</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>1113</v>
+      </c>
+      <c r="V28" s="48">
+        <v>7.8328543071037413E-2</v>
+      </c>
+      <c r="W28" s="49">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U28" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V28" s="42" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>3028</v>
       </c>
@@ -19611,17 +19724,21 @@
       <c r="S29" s="6">
         <v>20</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V29" s="48">
+        <v>5.5568162308632776E-2</v>
+      </c>
+      <c r="W29" s="49">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U29" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V29" s="42" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>3029</v>
       </c>
@@ -19677,15 +19794,19 @@
         <v>9</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="7" t="s">
+      <c r="T30" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V30" t="s">
+      <c r="U30" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V30" s="48"/>
+      <c r="W30" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>3030</v>
       </c>
@@ -19741,15 +19862,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="7" t="s">
+      <c r="T31" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V31" t="s">
+      <c r="U31" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V31" s="48"/>
+      <c r="W31" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>3031</v>
       </c>
@@ -19805,15 +19930,19 @@
         <v>11</v>
       </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="7" t="s">
+      <c r="T32" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V32" s="42" t="s">
+      <c r="U32" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V32" s="48"/>
+      <c r="W32" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>3032</v>
       </c>
@@ -19871,18 +20000,22 @@
       <c r="S33" s="6">
         <v>30</v>
       </c>
-      <c r="T33" s="47">
+      <c r="T33" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="U33" t="str">
+        <f>IF(L33 =3,$U$4, )</f>
+        <v>/images/properties/Home3.jpg</v>
+      </c>
+      <c r="V33" s="48">
+        <v>0.23449968152149903</v>
+      </c>
+      <c r="W33" s="49">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="U33" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V33" t="str">
-        <f>IF(L33 =3,$V$4, )</f>
-        <v>/images/properties/Home3.jpg</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>3033</v>
       </c>
@@ -19938,15 +20071,19 @@
         <v>2</v>
       </c>
       <c r="S34" s="6"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="7" t="s">
+      <c r="T34" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V34" t="s">
+      <c r="U34" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V34" s="48"/>
+      <c r="W34" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>3034</v>
       </c>
@@ -20002,15 +20139,19 @@
         <v>14</v>
       </c>
       <c r="S35" s="6"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="7" t="s">
+      <c r="T35" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V35" s="42" t="s">
+      <c r="U35" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V35" s="48"/>
+      <c r="W35" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>3035</v>
       </c>
@@ -20068,18 +20209,21 @@
       <c r="S36" s="6">
         <v>42</v>
       </c>
-      <c r="T36" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U36" s="7" t="s">
+      <c r="T36" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V36" t="s">
+      <c r="U36" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V36" s="48">
+        <v>0.13216511725638552</v>
+      </c>
+      <c r="W36" s="49">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>3036</v>
       </c>
@@ -20137,18 +20281,21 @@
       <c r="S37" s="6">
         <v>7</v>
       </c>
-      <c r="T37" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U37" s="7" t="s">
+      <c r="T37" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V37" s="42" t="s">
+      <c r="U37" s="42" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V37" s="48">
+        <v>0.11378216453826158</v>
+      </c>
+      <c r="W37" s="49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>3037</v>
       </c>
@@ -20206,18 +20353,21 @@
       <c r="S38" s="6">
         <v>19</v>
       </c>
-      <c r="T38" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U38" s="7" t="s">
+      <c r="T38" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V38" s="42" t="s">
+      <c r="U38" s="42" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V38" s="48">
+        <v>9.4467332093035178E-2</v>
+      </c>
+      <c r="W38" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>3038</v>
       </c>
@@ -20275,19 +20425,22 @@
       <c r="S39" s="6">
         <v>30</v>
       </c>
-      <c r="T39" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U39" s="7" t="s">
+      <c r="T39" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V39" t="str">
-        <f>IF(L39 =3,$V$4, )</f>
+      <c r="U39" t="str">
+        <f>IF(L39 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V39" s="48">
+        <v>0.22717037959754555</v>
+      </c>
+      <c r="W39" s="49">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>3039</v>
       </c>
@@ -20343,18 +20496,19 @@
         <v>1</v>
       </c>
       <c r="S40" s="6"/>
-      <c r="T40" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U40" s="7" t="s">
+      <c r="T40" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V40" s="48"/>
+      <c r="W40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>3040</v>
       </c>
@@ -20410,18 +20564,19 @@
         <v>9</v>
       </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U41" s="7" t="s">
+      <c r="T41" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V41" t="s">
+      <c r="U41" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V41" s="48"/>
+      <c r="W41" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>3041</v>
       </c>
@@ -20477,18 +20632,19 @@
         <v>14</v>
       </c>
       <c r="S42" s="6"/>
-      <c r="T42" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U42" s="7" t="s">
+      <c r="T42" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V42" t="s">
+      <c r="U42" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V42" s="48"/>
+      <c r="W42" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>3042</v>
       </c>
@@ -20544,18 +20700,19 @@
         <v>2</v>
       </c>
       <c r="S43" s="6"/>
-      <c r="T43" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U43" s="7" t="s">
+      <c r="T43" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V43" t="s">
+      <c r="U43" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V43" s="48"/>
+      <c r="W43" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>3043</v>
       </c>
@@ -20613,18 +20770,21 @@
       <c r="S44" s="6">
         <v>4</v>
       </c>
-      <c r="T44" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U44" s="7" t="s">
+      <c r="T44" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V44" s="42" t="s">
+      <c r="U44" s="42" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V44" s="48">
+        <v>8.8910646896061082E-2</v>
+      </c>
+      <c r="W44" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>3044</v>
       </c>
@@ -20680,18 +20840,19 @@
         <v>13</v>
       </c>
       <c r="S45" s="6"/>
-      <c r="T45" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U45" s="7" t="s">
+      <c r="T45" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V45" s="42" t="s">
+      <c r="U45" s="42" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V45" s="48"/>
+      <c r="W45" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>3045</v>
       </c>
@@ -20747,18 +20908,19 @@
         <v>7</v>
       </c>
       <c r="S46" s="6"/>
-      <c r="T46" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U46" s="7" t="s">
+      <c r="T46" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V46" t="s">
+      <c r="U46" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V46" s="48"/>
+      <c r="W46" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>3046</v>
       </c>
@@ -20814,18 +20976,19 @@
         <v>6</v>
       </c>
       <c r="S47" s="6"/>
-      <c r="T47" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U47" s="7" t="s">
+      <c r="T47" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V47" s="42" t="s">
+      <c r="U47" s="42" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V47" s="48"/>
+      <c r="W47" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>3047</v>
       </c>
@@ -20883,18 +21046,21 @@
       <c r="S48" s="6">
         <v>2</v>
       </c>
-      <c r="T48" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U48" s="7" t="s">
+      <c r="T48" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V48" s="42" t="s">
+      <c r="U48" s="42" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V48" s="48">
+        <v>0.17657169617380053</v>
+      </c>
+      <c r="W48" s="49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>3048</v>
       </c>
@@ -20952,18 +21118,21 @@
       <c r="S49" s="6">
         <v>1</v>
       </c>
-      <c r="T49" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U49" s="7" t="s">
+      <c r="T49" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V49" t="s">
+      <c r="U49" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V49" s="48">
+        <v>0.15404810385089485</v>
+      </c>
+      <c r="W49" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>3049</v>
       </c>
@@ -21019,15 +21188,19 @@
         <v>11</v>
       </c>
       <c r="S50" s="6"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V50" t="s">
+      <c r="U50" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V50" s="48"/>
+      <c r="W50" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>3050</v>
       </c>
@@ -21083,15 +21256,19 @@
         <v>1</v>
       </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="7" t="s">
+      <c r="T51" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V51" t="s">
+      <c r="U51" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V51" s="48"/>
+      <c r="W51" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>3051</v>
       </c>
@@ -21147,16 +21324,20 @@
         <v>10</v>
       </c>
       <c r="S52" s="6"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="7" t="s">
+      <c r="T52" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V52" t="str">
-        <f>IF(L52 =3,$V$4, )</f>
+      <c r="U52" t="str">
+        <f>IF(L52 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V52" s="48"/>
+      <c r="W52" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>3052</v>
       </c>
@@ -21214,18 +21395,21 @@
       <c r="S53" s="6">
         <v>5</v>
       </c>
-      <c r="T53" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U53" s="7" t="s">
+      <c r="T53" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V53" s="42" t="s">
+      <c r="U53" s="42" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V53" s="48">
+        <v>0.12004037534627748</v>
+      </c>
+      <c r="W53" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>3053</v>
       </c>
@@ -21283,19 +21467,22 @@
       <c r="S54" s="6">
         <v>5</v>
       </c>
-      <c r="T54" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U54" s="7" t="s">
+      <c r="T54" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V54" t="str">
-        <f>IF(L54 =3,$V$4, )</f>
+      <c r="U54" t="str">
+        <f>IF(L54 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V54" s="48">
+        <v>5.8409227655741816E-2</v>
+      </c>
+      <c r="W54" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>3054</v>
       </c>
@@ -21353,18 +21540,21 @@
       <c r="S55" s="6">
         <v>41</v>
       </c>
-      <c r="T55" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U55" s="7" t="s">
+      <c r="T55" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V55" s="42" t="s">
+      <c r="U55" s="42" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V55" s="48">
+        <v>0.12268524609653164</v>
+      </c>
+      <c r="W55" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>3055</v>
       </c>
@@ -21420,15 +21610,19 @@
         <v>12</v>
       </c>
       <c r="S56" s="6"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="7" t="s">
+      <c r="T56" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V56" s="45" t="s">
+      <c r="U56" s="45" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V56" s="48"/>
+      <c r="W56" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>3056</v>
       </c>
@@ -21486,18 +21680,21 @@
       <c r="S57" s="6">
         <v>8</v>
       </c>
-      <c r="T57" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U57" s="7" t="s">
+      <c r="T57" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V57" t="s">
+      <c r="U57" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V57" s="48">
+        <v>0.16765499120781757</v>
+      </c>
+      <c r="W57" s="49">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>3057</v>
       </c>
@@ -21555,18 +21752,21 @@
       <c r="S58" s="6">
         <v>3</v>
       </c>
-      <c r="T58" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U58" s="7" t="s">
+      <c r="T58" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V58" t="s">
+      <c r="U58" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V58" s="48">
+        <v>5.3099040240354528E-2</v>
+      </c>
+      <c r="W58" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>3058</v>
       </c>
@@ -21624,18 +21824,21 @@
       <c r="S59" s="6">
         <v>19</v>
       </c>
-      <c r="T59" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U59" s="7" t="s">
+      <c r="T59" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V59" t="s">
+      <c r="U59" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V59" s="48">
+        <v>0.13343591241152564</v>
+      </c>
+      <c r="W59" s="49">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>3059</v>
       </c>
@@ -21693,19 +21896,22 @@
       <c r="S60" s="6">
         <v>4</v>
       </c>
-      <c r="T60" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U60" s="7" t="s">
+      <c r="T60" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V60" t="str">
-        <f>IF(L60 =3,$V$4, )</f>
+      <c r="U60" t="str">
+        <f>IF(L60 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V60" s="48">
+        <v>0.14369838422641984</v>
+      </c>
+      <c r="W60" s="49">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>3060</v>
       </c>
@@ -21763,18 +21969,21 @@
       <c r="S61" s="6">
         <v>4</v>
       </c>
-      <c r="T61" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U61" s="7" t="s">
+      <c r="T61" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V61" t="s">
+      <c r="U61" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V61" s="48">
+        <v>5.2754874934872388E-2</v>
+      </c>
+      <c r="W61" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>3061</v>
       </c>
@@ -21830,15 +22039,19 @@
         <v>1</v>
       </c>
       <c r="S62" s="6"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="7" t="s">
+      <c r="T62" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V62" t="s">
+      <c r="U62" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V62" s="48"/>
+      <c r="W62" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>3062</v>
       </c>
@@ -21896,18 +22109,21 @@
       <c r="S63" s="6">
         <v>4</v>
       </c>
-      <c r="T63" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U63" s="7" t="s">
+      <c r="T63" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V63" t="s">
+      <c r="U63" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V63" s="48">
+        <v>0.21409296167321878</v>
+      </c>
+      <c r="W63" s="49">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>3063</v>
       </c>
@@ -21965,18 +22181,21 @@
       <c r="S64" s="6">
         <v>6</v>
       </c>
-      <c r="T64" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U64" s="7" t="s">
+      <c r="T64" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V64" t="s">
+      <c r="U64" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V64" s="48">
+        <v>0.16862893130527024</v>
+      </c>
+      <c r="W64" s="49">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>3064</v>
       </c>
@@ -22034,18 +22253,21 @@
       <c r="S65" s="6">
         <v>22</v>
       </c>
-      <c r="T65" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U65" s="7" t="s">
+      <c r="T65" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V65" t="s">
+      <c r="U65" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V65" s="48">
+        <v>0.23033974253308476</v>
+      </c>
+      <c r="W65" s="49">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>3065</v>
       </c>
@@ -22103,18 +22325,21 @@
       <c r="S66" s="6">
         <v>21</v>
       </c>
-      <c r="T66" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U66" s="7" t="s">
+      <c r="T66" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V66" t="s">
+      <c r="U66" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V66" s="48">
+        <v>9.4956172037010664E-2</v>
+      </c>
+      <c r="W66" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>3066</v>
       </c>
@@ -22172,18 +22397,21 @@
       <c r="S67" s="6">
         <v>8</v>
       </c>
-      <c r="T67" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U67" s="7" t="s">
+      <c r="T67" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V67" t="s">
+      <c r="U67" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V67" s="48">
+        <v>7.4381128492263582E-2</v>
+      </c>
+      <c r="W67" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>3067</v>
       </c>
@@ -22239,15 +22467,19 @@
         <v>9</v>
       </c>
       <c r="S68" s="6"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="7" t="s">
+      <c r="T68" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V68" t="s">
+      <c r="U68" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V68" s="48"/>
+      <c r="W68" s="49">
+        <f t="shared" ref="W68:W131" si="1">ROUND(V68*100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>3068</v>
       </c>
@@ -22303,15 +22535,19 @@
         <v>2</v>
       </c>
       <c r="S69" s="6"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="7" t="s">
+      <c r="T69" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V69" t="s">
+      <c r="U69" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V69" s="48"/>
+      <c r="W69" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>3069</v>
       </c>
@@ -22369,18 +22605,21 @@
       <c r="S70" s="6">
         <v>10</v>
       </c>
-      <c r="T70" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U70" s="7" t="s">
+      <c r="T70" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V70" t="s">
+      <c r="U70" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V70" s="48">
+        <v>0.17002019985211597</v>
+      </c>
+      <c r="W70" s="49">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>3070</v>
       </c>
@@ -22436,15 +22675,19 @@
         <v>2</v>
       </c>
       <c r="S71" s="6"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="7" t="s">
+      <c r="T71" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V71" t="s">
+      <c r="U71" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V71" s="48"/>
+      <c r="W71" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>3071</v>
       </c>
@@ -22500,15 +22743,19 @@
         <v>1</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="7" t="s">
+      <c r="T72" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V72" t="s">
+      <c r="U72" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V72" s="48"/>
+      <c r="W72" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>3072</v>
       </c>
@@ -22566,18 +22813,21 @@
       <c r="S73" s="6">
         <v>2</v>
       </c>
-      <c r="T73" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U73" s="7" t="s">
+      <c r="T73" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V73" s="42" t="s">
+      <c r="U73" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V73" s="48">
+        <v>0.22311713227926505</v>
+      </c>
+      <c r="W73" s="49">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>3073</v>
       </c>
@@ -22633,18 +22883,19 @@
         <v>3</v>
       </c>
       <c r="S74" s="6"/>
-      <c r="T74" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U74" s="7" t="s">
+      <c r="T74" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V74" t="s">
+      <c r="U74" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V74" s="48"/>
+      <c r="W74" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>3074</v>
       </c>
@@ -22702,18 +22953,21 @@
       <c r="S75" s="6">
         <v>22</v>
       </c>
-      <c r="T75" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U75" s="7" t="s">
+      <c r="T75" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V75" t="s">
+      <c r="U75" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V75" s="48">
+        <v>0.22460326202234226</v>
+      </c>
+      <c r="W75" s="49">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>3075</v>
       </c>
@@ -22771,18 +23025,21 @@
       <c r="S76" s="6">
         <v>6</v>
       </c>
-      <c r="T76" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U76" s="7" t="s">
+      <c r="T76" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V76" t="s">
+      <c r="U76" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V76" s="48">
+        <v>8.7890398442729001E-2</v>
+      </c>
+      <c r="W76" s="49">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>3076</v>
       </c>
@@ -22840,18 +23097,21 @@
       <c r="S77" s="6">
         <v>21</v>
       </c>
-      <c r="T77" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U77" s="7" t="s">
+      <c r="T77" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V77" s="45" t="s">
+      <c r="U77" s="45" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V77" s="48">
+        <v>5.5073369471372959E-2</v>
+      </c>
+      <c r="W77" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>3077</v>
       </c>
@@ -22907,15 +23167,19 @@
         <v>7</v>
       </c>
       <c r="S78" s="6"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="7" t="s">
+      <c r="T78" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V78" s="42" t="s">
+      <c r="U78" s="42" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V78" s="48"/>
+      <c r="W78" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>3078</v>
       </c>
@@ -22971,15 +23235,19 @@
         <v>5</v>
       </c>
       <c r="S79" s="6"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="7" t="s">
+      <c r="T79" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V79" t="s">
+      <c r="U79" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V79" s="48"/>
+      <c r="W79" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>3079</v>
       </c>
@@ -23035,15 +23303,19 @@
         <v>7</v>
       </c>
       <c r="S80" s="6"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="7" t="s">
+      <c r="T80" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V80" t="s">
+      <c r="U80" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V80" s="48"/>
+      <c r="W80" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>3080</v>
       </c>
@@ -23099,15 +23371,19 @@
         <v>2</v>
       </c>
       <c r="S81" s="6"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="7" t="s">
+      <c r="T81" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V81" t="s">
+      <c r="U81" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V81" s="48"/>
+      <c r="W81" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>3081</v>
       </c>
@@ -23163,15 +23439,19 @@
         <v>13</v>
       </c>
       <c r="S82" s="6"/>
-      <c r="T82" s="50"/>
-      <c r="U82" s="7" t="s">
+      <c r="T82" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V82" t="s">
+      <c r="U82" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V82" s="48"/>
+      <c r="W82" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>3082</v>
       </c>
@@ -23229,18 +23509,21 @@
       <c r="S83" s="6">
         <v>6</v>
       </c>
-      <c r="T83" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U83" s="7" t="s">
+      <c r="T83" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V83" t="s">
+      <c r="U83" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V83" s="48">
+        <v>0.17515031842671308</v>
+      </c>
+      <c r="W83" s="49">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>3083</v>
       </c>
@@ -23298,19 +23581,22 @@
       <c r="S84" s="6">
         <v>8</v>
       </c>
-      <c r="T84" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U84" s="7" t="s">
+      <c r="T84" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V84" t="str">
-        <f>IF(L84 =3,$V$4, )</f>
+      <c r="U84" t="str">
+        <f>IF(L84 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V84" s="48">
+        <v>0.21075787528867063</v>
+      </c>
+      <c r="W84" s="49">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>3084</v>
       </c>
@@ -23366,16 +23652,20 @@
         <v>8</v>
       </c>
       <c r="S85" s="6"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="7" t="s">
+      <c r="T85" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V85" t="str">
-        <f>IF(L85 =3,$V$4, )</f>
+      <c r="U85" t="str">
+        <f>IF(L85 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V85" s="48"/>
+      <c r="W85" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>3085</v>
       </c>
@@ -23431,15 +23721,19 @@
         <v>11</v>
       </c>
       <c r="S86" s="6"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="7" t="s">
+      <c r="T86" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V86" t="s">
+      <c r="U86" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V86" s="48"/>
+      <c r="W86" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>3086</v>
       </c>
@@ -23495,15 +23789,19 @@
         <v>8</v>
       </c>
       <c r="S87" s="6"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="7" t="s">
+      <c r="T87" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V87" t="s">
+      <c r="U87" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V87" s="48"/>
+      <c r="W87" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>3087</v>
       </c>
@@ -23561,18 +23859,21 @@
       <c r="S88" s="6">
         <v>37</v>
       </c>
-      <c r="T88" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U88" s="7" t="s">
+      <c r="T88" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V88" t="s">
+      <c r="U88" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V88" s="48">
+        <v>0.17221234967106303</v>
+      </c>
+      <c r="W88" s="49">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>3088</v>
       </c>
@@ -23628,15 +23929,19 @@
         <v>13</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="7" t="s">
+      <c r="T89" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V89" s="42" t="s">
+      <c r="U89" s="42" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V89" s="48"/>
+      <c r="W89" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>3089</v>
       </c>
@@ -23694,18 +23999,21 @@
       <c r="S90" s="6">
         <v>29</v>
       </c>
-      <c r="T90" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U90" s="7" t="s">
+      <c r="T90" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V90" s="42" t="s">
+      <c r="U90" s="42" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V90" s="48">
+        <v>9.5929262305830459E-2</v>
+      </c>
+      <c r="W90" s="49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>3090</v>
       </c>
@@ -23761,15 +24069,19 @@
         <v>6</v>
       </c>
       <c r="S91" s="6"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="7" t="s">
+      <c r="T91" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V91" s="42" t="s">
+      <c r="U91" s="42" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V91" s="48"/>
+      <c r="W91" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>3091</v>
       </c>
@@ -23825,15 +24137,19 @@
         <v>10</v>
       </c>
       <c r="S92" s="6"/>
-      <c r="T92" s="50"/>
-      <c r="U92" s="7" t="s">
+      <c r="T92" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V92" s="42" t="s">
+      <c r="U92" s="42" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V92" s="48"/>
+      <c r="W92" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>3092</v>
       </c>
@@ -23889,15 +24205,19 @@
         <v>4</v>
       </c>
       <c r="S93" s="6"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="7" t="s">
+      <c r="T93" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V93" t="s">
+      <c r="U93" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V93" s="48"/>
+      <c r="W93" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>3093</v>
       </c>
@@ -23953,15 +24273,19 @@
         <v>3</v>
       </c>
       <c r="S94" s="6"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="7" t="s">
+      <c r="T94" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V94" t="s">
+      <c r="U94" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V94" s="48"/>
+      <c r="W94" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>3094</v>
       </c>
@@ -24017,15 +24341,19 @@
         <v>14</v>
       </c>
       <c r="S95" s="6"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="7" t="s">
+      <c r="T95" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V95" s="42" t="s">
+      <c r="U95" s="42" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V95" s="48"/>
+      <c r="W95" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>3095</v>
       </c>
@@ -24083,18 +24411,21 @@
       <c r="S96" s="6">
         <v>41</v>
       </c>
-      <c r="T96" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U96" s="7" t="s">
+      <c r="T96" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V96" t="s">
+      <c r="U96" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V96" s="48">
+        <v>9.9007041505844121E-2</v>
+      </c>
+      <c r="W96" s="49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>3096</v>
       </c>
@@ -24150,15 +24481,19 @@
         <v>7</v>
       </c>
       <c r="S97" s="6"/>
-      <c r="T97" s="50"/>
-      <c r="U97" s="7" t="s">
+      <c r="T97" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V97" t="s">
+      <c r="U97" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V97" s="48"/>
+      <c r="W97" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>3097</v>
       </c>
@@ -24216,18 +24551,21 @@
       <c r="S98" s="6">
         <v>17</v>
       </c>
-      <c r="T98" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U98" s="7" t="s">
+      <c r="T98" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V98" t="s">
+      <c r="U98" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V98" s="48">
+        <v>9.0923177642016323E-2</v>
+      </c>
+      <c r="W98" s="49">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>3098</v>
       </c>
@@ -24283,15 +24621,19 @@
         <v>10</v>
       </c>
       <c r="S99" s="6"/>
-      <c r="T99" s="50"/>
-      <c r="U99" s="7" t="s">
+      <c r="T99" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V99" s="42" t="s">
+      <c r="U99" s="42" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V99" s="48"/>
+      <c r="W99" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>3099</v>
       </c>
@@ -24351,18 +24693,21 @@
       <c r="S100" s="6">
         <v>9</v>
       </c>
-      <c r="T100" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U100" s="7" t="s">
+      <c r="T100" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V100" t="s">
+      <c r="U100" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V100" s="48">
+        <v>0.24471219336460792</v>
+      </c>
+      <c r="W100" s="49">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>3100</v>
       </c>
@@ -24420,18 +24765,19 @@
         <v>13</v>
       </c>
       <c r="S101" s="6"/>
-      <c r="T101" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U101" s="7" t="s">
+      <c r="T101" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V101" t="s">
+      <c r="U101" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V101" s="48"/>
+      <c r="W101" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>3101</v>
       </c>
@@ -24489,18 +24835,21 @@
       <c r="S102" s="6">
         <v>12</v>
       </c>
-      <c r="T102" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U102" s="7" t="s">
+      <c r="T102" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V102" t="s">
+      <c r="U102" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V102" s="48">
+        <v>0.14014265639174467</v>
+      </c>
+      <c r="W102" s="49">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>3102</v>
       </c>
@@ -24558,18 +24907,21 @@
       <c r="S103" s="6">
         <v>28</v>
       </c>
-      <c r="T103" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U103" s="7" t="s">
+      <c r="T103" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V103" t="s">
+      <c r="U103" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V103" s="48">
+        <v>0.2496258783096228</v>
+      </c>
+      <c r="W103" s="49">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>3103</v>
       </c>
@@ -24625,18 +24977,19 @@
         <v>4</v>
       </c>
       <c r="S104" s="6"/>
-      <c r="T104" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U104" s="7" t="s">
+      <c r="T104" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V104" s="42" t="s">
+      <c r="U104" s="42" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V104" s="48"/>
+      <c r="W104" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>3104</v>
       </c>
@@ -24694,18 +25047,21 @@
       <c r="S105" s="6">
         <v>13</v>
       </c>
-      <c r="T105" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U105" s="7" t="s">
+      <c r="T105" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V105" t="s">
+      <c r="U105" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V105" s="48">
+        <v>0.12692838987932381</v>
+      </c>
+      <c r="W105" s="49">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>3105</v>
       </c>
@@ -24761,18 +25117,19 @@
         <v>1</v>
       </c>
       <c r="S106" s="6"/>
-      <c r="T106" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U106" s="7" t="s">
+      <c r="T106" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V106" t="s">
+      <c r="U106" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V106" s="48"/>
+      <c r="W106" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>3106</v>
       </c>
@@ -24828,18 +25185,19 @@
         <v>8</v>
       </c>
       <c r="S107" s="6"/>
-      <c r="T107" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U107" s="7" t="s">
+      <c r="T107" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V107" t="s">
+      <c r="U107" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V107" s="48"/>
+      <c r="W107" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>3107</v>
       </c>
@@ -24897,19 +25255,22 @@
       <c r="S108" s="6">
         <v>8</v>
       </c>
-      <c r="T108" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U108" s="7" t="s">
+      <c r="T108" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V108" t="str">
-        <f>IF(L108 =3,$V$4, )</f>
+      <c r="U108" t="str">
+        <f>IF(L108 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V108" s="48">
+        <v>0.20579577371388896</v>
+      </c>
+      <c r="W108" s="49">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>3108</v>
       </c>
@@ -24965,18 +25326,19 @@
         <v>4</v>
       </c>
       <c r="S109" s="6"/>
-      <c r="T109" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U109" s="7" t="s">
+      <c r="T109" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V109" t="s">
+      <c r="U109" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V109" s="48"/>
+      <c r="W109" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>3109</v>
       </c>
@@ -25034,18 +25396,21 @@
       <c r="S110" s="6">
         <v>11</v>
       </c>
-      <c r="T110" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U110" s="7" t="s">
+      <c r="T110" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V110" t="s">
+      <c r="U110" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V110" s="48">
+        <v>0.22101220348627648</v>
+      </c>
+      <c r="W110" s="49">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>3110</v>
       </c>
@@ -25103,18 +25468,21 @@
       <c r="S111" s="6">
         <v>22</v>
       </c>
-      <c r="T111" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U111" s="7" t="s">
+      <c r="T111" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V111" s="42" t="s">
+      <c r="U111" s="42" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V111" s="48">
+        <v>0.11834612347098904</v>
+      </c>
+      <c r="W111" s="49">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>3111</v>
       </c>
@@ -25170,19 +25538,20 @@
         <v>4</v>
       </c>
       <c r="S112" s="6"/>
-      <c r="T112" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U112" s="7" t="s">
+      <c r="T112" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V112" t="str">
-        <f>IF(L112 =3,$V$4, )</f>
+      <c r="U112" t="str">
+        <f>IF(L112 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V112" s="48"/>
+      <c r="W112" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>3112</v>
       </c>
@@ -25240,18 +25609,21 @@
       <c r="S113" s="6">
         <v>21</v>
       </c>
-      <c r="T113" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U113" s="7" t="s">
+      <c r="T113" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V113" t="s">
+      <c r="U113" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V113" s="48">
+        <v>5.6492214817701926E-2</v>
+      </c>
+      <c r="W113" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>3113</v>
       </c>
@@ -25309,18 +25681,19 @@
         <v>4</v>
       </c>
       <c r="S114" s="6"/>
-      <c r="T114" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U114" s="7" t="s">
+      <c r="T114" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V114" s="42" t="s">
+      <c r="U114" s="42" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V114" s="48"/>
+      <c r="W114" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>3114</v>
       </c>
@@ -25376,18 +25749,19 @@
         <v>6</v>
       </c>
       <c r="S115" s="6"/>
-      <c r="T115" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U115" s="7" t="s">
+      <c r="T115" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V115" t="s">
+      <c r="U115" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V115" s="48"/>
+      <c r="W115" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>3115</v>
       </c>
@@ -25445,18 +25819,21 @@
       <c r="S116" s="6">
         <v>4</v>
       </c>
-      <c r="T116" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U116" s="7" t="s">
+      <c r="T116" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V116" t="s">
+      <c r="U116" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V116" s="48">
+        <v>9.8513044563602881E-2</v>
+      </c>
+      <c r="W116" s="49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>3116</v>
       </c>
@@ -25514,18 +25891,21 @@
       <c r="S117" s="6">
         <v>12</v>
       </c>
-      <c r="T117" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U117" s="7" t="s">
+      <c r="T117" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V117" t="s">
+      <c r="U117" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V117" s="48">
+        <v>0.15783334197277493</v>
+      </c>
+      <c r="W117" s="49">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>3117</v>
       </c>
@@ -25581,18 +25961,19 @@
         <v>4</v>
       </c>
       <c r="S118" s="6"/>
-      <c r="T118" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U118" s="7" t="s">
+      <c r="T118" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V118" t="s">
+      <c r="U118" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V118" s="48"/>
+      <c r="W118" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>3118</v>
       </c>
@@ -25650,18 +26031,21 @@
       <c r="S119" s="6">
         <v>23</v>
       </c>
-      <c r="T119" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U119" s="7" t="s">
+      <c r="T119" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V119" t="s">
+      <c r="U119" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V119" s="48">
+        <v>6.4198313003311872E-2</v>
+      </c>
+      <c r="W119" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>3119</v>
       </c>
@@ -25719,18 +26103,21 @@
       <c r="S120" s="6">
         <v>3</v>
       </c>
-      <c r="T120" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U120" s="7" t="s">
+      <c r="T120" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V120" t="s">
+      <c r="U120" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V120" s="48">
+        <v>0.1196430951990988</v>
+      </c>
+      <c r="W120" s="49">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>3120</v>
       </c>
@@ -25786,19 +26173,20 @@
         <v>6</v>
       </c>
       <c r="S121" s="6"/>
-      <c r="T121" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U121" s="7" t="s">
+      <c r="T121" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V121" t="str">
-        <f>IF(L121 =3,$V$4, )</f>
+      <c r="U121" t="str">
+        <f>IF(L121 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V121" s="48"/>
+      <c r="W121" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>3121</v>
       </c>
@@ -25856,19 +26244,22 @@
       <c r="S122" s="6">
         <v>5</v>
       </c>
-      <c r="T122" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U122" s="7" t="s">
+      <c r="T122" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V122" t="str">
-        <f>IF(L122 =3,$V$4, )</f>
+      <c r="U122" t="str">
+        <f>IF(L122 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V122" s="48">
+        <v>8.2083390177939933E-2</v>
+      </c>
+      <c r="W122" s="49">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>3122</v>
       </c>
@@ -25924,18 +26315,19 @@
         <v>1</v>
       </c>
       <c r="S123" s="6"/>
-      <c r="T123" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U123" s="7" t="s">
+      <c r="T123" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V123" s="42" t="s">
+      <c r="U123" s="42" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V123" s="48"/>
+      <c r="W123" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>3123</v>
       </c>
@@ -25991,18 +26383,19 @@
         <v>6</v>
       </c>
       <c r="S124" s="6"/>
-      <c r="T124" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U124" s="7" t="s">
+      <c r="T124" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V124" t="s">
+      <c r="U124" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V124" s="48"/>
+      <c r="W124" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>3124</v>
       </c>
@@ -26058,18 +26451,19 @@
         <v>3</v>
       </c>
       <c r="S125" s="6"/>
-      <c r="T125" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U125" s="7" t="s">
+      <c r="T125" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V125" s="42" t="s">
+      <c r="U125" s="42" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V125" s="48"/>
+      <c r="W125" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>3125</v>
       </c>
@@ -26125,18 +26519,19 @@
         <v>13</v>
       </c>
       <c r="S126" s="6"/>
-      <c r="T126" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U126" s="7" t="s">
+      <c r="T126" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V126" s="42" t="s">
+      <c r="U126" s="42" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V126" s="48"/>
+      <c r="W126" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>3126</v>
       </c>
@@ -26192,18 +26587,19 @@
         <v>9</v>
       </c>
       <c r="S127" s="6"/>
-      <c r="T127" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U127" s="7" t="s">
+      <c r="T127" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V127" t="s">
+      <c r="U127" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V127" s="48"/>
+      <c r="W127" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>3127</v>
       </c>
@@ -26259,18 +26655,19 @@
         <v>12</v>
       </c>
       <c r="S128" s="6"/>
-      <c r="T128" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U128" s="7" t="s">
+      <c r="T128" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V128" t="s">
+      <c r="U128" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V128" s="48"/>
+      <c r="W128" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>3128</v>
       </c>
@@ -26326,18 +26723,19 @@
         <v>12</v>
       </c>
       <c r="S129" s="6"/>
-      <c r="T129" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U129" s="7" t="s">
+      <c r="T129" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V129" t="s">
+      <c r="U129" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V129" s="48"/>
+      <c r="W129" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>3129</v>
       </c>
@@ -26393,18 +26791,19 @@
         <v>1</v>
       </c>
       <c r="S130" s="6"/>
-      <c r="T130" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U130" s="7" t="s">
+      <c r="T130" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V130" t="s">
+      <c r="U130" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V130" s="48"/>
+      <c r="W130" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>3130</v>
       </c>
@@ -26462,19 +26861,22 @@
       <c r="S131" s="6">
         <v>3</v>
       </c>
-      <c r="T131" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U131" s="7" t="s">
+      <c r="T131" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V131" t="str">
-        <f>IF(L131 =3,$V$4, )</f>
+      <c r="U131" t="str">
+        <f>IF(L131 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V131" s="48">
+        <v>7.6448741251397612E-2</v>
+      </c>
+      <c r="W131" s="49">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>3131</v>
       </c>
@@ -26532,19 +26934,22 @@
       <c r="S132" s="6">
         <v>42</v>
       </c>
-      <c r="T132" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U132" s="7" t="s">
+      <c r="T132" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V132" t="str">
+      <c r="U132" t="str">
         <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V132" s="48">
+        <v>0.2095433005227601</v>
+      </c>
+      <c r="W132" s="49">
+        <f t="shared" ref="W132:W184" si="2">ROUND(V132*100,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>3132</v>
       </c>
@@ -26600,18 +27005,19 @@
         <v>11</v>
       </c>
       <c r="S133" s="6"/>
-      <c r="T133" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U133" s="7" t="s">
+      <c r="T133" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V133" t="s">
+      <c r="U133" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V133" s="48"/>
+      <c r="W133" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>3133</v>
       </c>
@@ -26667,19 +27073,20 @@
         <v>1</v>
       </c>
       <c r="S134" s="6"/>
-      <c r="T134" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U134" s="7" t="s">
+      <c r="T134" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V134" t="str">
+      <c r="U134" t="str">
         <f>IF(L160 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V134" s="48"/>
+      <c r="W134" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>3134</v>
       </c>
@@ -26737,19 +27144,22 @@
       <c r="S135" s="6">
         <v>5</v>
       </c>
-      <c r="T135" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U135" s="7" t="s">
+      <c r="T135" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V135" t="str">
+      <c r="U135" t="str">
         <f>IF(L161 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V135" s="48">
+        <v>0.20569304825257567</v>
+      </c>
+      <c r="W135" s="49">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>3135</v>
       </c>
@@ -26807,19 +27217,22 @@
       <c r="S136" s="6">
         <v>36</v>
       </c>
-      <c r="T136" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U136" s="7" t="s">
+      <c r="T136" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V136" t="str">
+      <c r="U136" t="str">
         <f>IF(L162 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V136" s="48">
+        <v>0.20616957261711039</v>
+      </c>
+      <c r="W136" s="49">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>3136</v>
       </c>
@@ -26875,19 +27288,20 @@
         <v>6</v>
       </c>
       <c r="S137" s="6"/>
-      <c r="T137" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U137" s="7" t="s">
+      <c r="T137" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V137" t="str">
+      <c r="U137" t="str">
         <f>IF(L163 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V137" s="48"/>
+      <c r="W137" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>3137</v>
       </c>
@@ -26943,18 +27357,19 @@
         <v>3</v>
       </c>
       <c r="S138" s="6"/>
-      <c r="T138" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U138" s="7" t="s">
+      <c r="T138" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V138" t="s">
+      <c r="U138" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V138" s="48"/>
+      <c r="W138" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>3138</v>
       </c>
@@ -27010,19 +27425,20 @@
         <v>8</v>
       </c>
       <c r="S139" s="6"/>
-      <c r="T139" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U139" s="7" t="s">
+      <c r="T139" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V139" t="str">
+      <c r="U139" t="str">
         <f>IF(L165 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V139" s="48"/>
+      <c r="W139" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>3139</v>
       </c>
@@ -27078,18 +27494,19 @@
         <v>9</v>
       </c>
       <c r="S140" s="6"/>
-      <c r="T140" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U140" s="7" t="s">
+      <c r="T140" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V140" t="s">
+      <c r="U140" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V140" s="48"/>
+      <c r="W140" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>3140</v>
       </c>
@@ -27145,18 +27562,19 @@
         <v>13</v>
       </c>
       <c r="S141" s="6"/>
-      <c r="T141" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U141" s="7" t="s">
+      <c r="T141" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V141" t="s">
+      <c r="U141" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V141" s="48"/>
+      <c r="W141" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>3141</v>
       </c>
@@ -27212,18 +27630,19 @@
         <v>6</v>
       </c>
       <c r="S142" s="6"/>
-      <c r="T142" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U142" s="7" t="s">
+      <c r="T142" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V142" t="s">
+      <c r="U142" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V142" s="48"/>
+      <c r="W142" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>3142</v>
       </c>
@@ -27279,18 +27698,19 @@
         <v>6</v>
       </c>
       <c r="S143" s="6"/>
-      <c r="T143" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U143" s="7" t="s">
+      <c r="T143" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V143" t="s">
+      <c r="U143" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V143" s="48"/>
+      <c r="W143" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>3143</v>
       </c>
@@ -27348,15 +27768,18 @@
       <c r="S144" s="6">
         <v>29</v>
       </c>
-      <c r="T144" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U144" s="7" t="s">
+      <c r="T144" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V144" t="s">
+      <c r="U144" t="s">
         <v>1128</v>
+      </c>
+      <c r="V144" s="48">
+        <v>0.10198013365153409</v>
+      </c>
+      <c r="W144" s="49">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:28" ht="15.75" customHeight="1">
@@ -27417,15 +27840,18 @@
       <c r="S145" s="6">
         <v>32</v>
       </c>
-      <c r="T145" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U145" s="7" t="s">
+      <c r="T145" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V145" t="s">
+      <c r="U145" t="s">
         <v>1115</v>
+      </c>
+      <c r="V145" s="48">
+        <v>5.6701706101136055E-2</v>
+      </c>
+      <c r="W145" s="49">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:28" ht="15.75" customHeight="1">
@@ -27484,16 +27910,17 @@
         <v>8</v>
       </c>
       <c r="S146" s="6"/>
-      <c r="T146" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U146" s="7" t="s">
+      <c r="T146" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V146" t="str">
-        <f>IF(L146 =3,$V$4, )</f>
+      <c r="U146" t="str">
+        <f>IF(L146 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
+      </c>
+      <c r="V146" s="48"/>
+      <c r="W146" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:28" ht="15.75" customHeight="1">
@@ -27554,15 +27981,18 @@
       <c r="S147" s="6">
         <v>6</v>
       </c>
-      <c r="T147" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U147" s="7" t="s">
+      <c r="T147" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V147" t="s">
+      <c r="U147" t="s">
         <v>1127</v>
+      </c>
+      <c r="V147" s="48">
+        <v>0.1314785817146551</v>
+      </c>
+      <c r="W147" s="49">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:28" ht="15.75" customHeight="1">
@@ -27623,15 +28053,18 @@
       <c r="S148" s="6">
         <v>9</v>
       </c>
-      <c r="T148" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U148" s="7" t="s">
+      <c r="T148" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V148" t="s">
+      <c r="U148" t="s">
         <v>1115</v>
+      </c>
+      <c r="V148" s="48">
+        <v>6.9741387796328644E-2</v>
+      </c>
+      <c r="W148" s="49">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:28" ht="15.75" customHeight="1">
@@ -27690,16 +28123,17 @@
         <v>7</v>
       </c>
       <c r="S149" s="6"/>
-      <c r="T149" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U149" s="7" t="s">
+      <c r="T149" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V149" t="str">
+      <c r="U149" t="str">
         <f>IF(L149 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V149" s="48"/>
+      <c r="W149" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB149" s="42" t="s">
         <v>1117</v>
@@ -27761,16 +28195,17 @@
         <v>10</v>
       </c>
       <c r="S150" s="6"/>
-      <c r="T150" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U150" s="7" t="s">
+      <c r="T150" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V150" t="str">
+      <c r="U150" t="str">
         <f>IF(L150 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V150" s="48"/>
+      <c r="W150" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:28" ht="15.75" customHeight="1">
@@ -27831,16 +28266,19 @@
       <c r="S151" s="6">
         <v>44</v>
       </c>
-      <c r="T151" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U151" s="7" t="s">
+      <c r="T151" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V151" t="str">
+      <c r="U151" t="str">
         <f>IF(L151 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V151" s="48">
+        <v>0.21728196533777849</v>
+      </c>
+      <c r="W151" s="49">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="AB151" s="42" t="s">
         <v>1118</v>
@@ -27902,16 +28340,17 @@
         <v>11</v>
       </c>
       <c r="S152" s="6"/>
-      <c r="T152" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U152" s="7" t="s">
+      <c r="T152" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V152" t="str">
+      <c r="U152" t="str">
         <f>IF(L152 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
+      </c>
+      <c r="V152" s="48"/>
+      <c r="W152" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:28" ht="15.75" customHeight="1">
@@ -27970,15 +28409,16 @@
         <v>3</v>
       </c>
       <c r="S153" s="6"/>
-      <c r="T153" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U153" s="7" t="s">
+      <c r="T153" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V153" t="s">
+      <c r="U153" t="s">
         <v>1129</v>
+      </c>
+      <c r="V153" s="48"/>
+      <c r="W153" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28" ht="15.75" customHeight="1">
@@ -28039,16 +28479,19 @@
       <c r="S154" s="6">
         <v>32</v>
       </c>
-      <c r="T154" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U154" s="7" t="s">
+      <c r="T154" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V154" t="str">
+      <c r="U154" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
+      </c>
+      <c r="V154" s="48">
+        <v>0.17998276584131473</v>
+      </c>
+      <c r="W154" s="49">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:28" ht="15.75" customHeight="1">
@@ -28109,16 +28552,19 @@
       <c r="S155" s="6">
         <v>30</v>
       </c>
-      <c r="T155" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U155" s="7" t="s">
+      <c r="T155" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V155" t="str">
+      <c r="U155" t="str">
         <f>IF(L155 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V155" s="48">
+        <v>0.1813407832510156</v>
+      </c>
+      <c r="W155" s="49">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:28" ht="15.75" customHeight="1">
@@ -28179,16 +28625,19 @@
       <c r="S156" s="6">
         <v>15</v>
       </c>
-      <c r="T156" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U156" s="7" t="s">
+      <c r="T156" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V156" t="str">
+      <c r="U156" t="str">
         <f>IF(L156 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V156" s="48">
+        <v>0.11547144538414554</v>
+      </c>
+      <c r="W156" s="49">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:28" ht="15.75" customHeight="1">
@@ -28249,16 +28698,19 @@
       <c r="S157" s="6">
         <v>9</v>
       </c>
-      <c r="T157" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U157" s="7" t="s">
+      <c r="T157" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V157" t="str">
+      <c r="U157" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
+      </c>
+      <c r="V157" s="48">
+        <v>0.22869128722860449</v>
+      </c>
+      <c r="W157" s="49">
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:28" ht="15.75" customHeight="1">
@@ -28317,16 +28769,17 @@
         <v>9</v>
       </c>
       <c r="S158" s="6"/>
-      <c r="T158" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U158" s="7" t="s">
+      <c r="T158" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V158" t="str">
+      <c r="U158" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
+      </c>
+      <c r="V158" s="48"/>
+      <c r="W158" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:28" ht="15.75" customHeight="1">
@@ -28387,16 +28840,19 @@
       <c r="S159" s="6">
         <v>13</v>
       </c>
-      <c r="T159" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U159" s="7" t="s">
+      <c r="T159" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V159" t="str">
+      <c r="U159" t="str">
         <f>IF(L159 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
+      </c>
+      <c r="V159" s="48">
+        <v>5.9751213063190846E-2</v>
+      </c>
+      <c r="W159" s="49">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:28" ht="15.75" customHeight="1">
@@ -28455,19 +28911,20 @@
         <v>9</v>
       </c>
       <c r="S160" s="6"/>
-      <c r="T160" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U160" s="7" t="s">
+      <c r="T160" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V160" t="str">
+      <c r="U160" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V160" s="48"/>
+      <c r="W160" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="15.75" customHeight="1">
       <c r="A161" s="1">
         <v>3160</v>
       </c>
@@ -28525,18 +28982,21 @@
       <c r="S161" s="6">
         <v>16</v>
       </c>
-      <c r="T161" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U161" s="7" t="s">
+      <c r="T161" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V161" t="s">
+      <c r="U161" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V161" s="48">
+        <v>0.10434239979467175</v>
+      </c>
+      <c r="W161" s="49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>3161</v>
       </c>
@@ -28594,18 +29054,21 @@
       <c r="S162" s="6">
         <v>8</v>
       </c>
-      <c r="T162" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U162" s="7" t="s">
+      <c r="T162" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V162" t="s">
+      <c r="U162" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V162" s="48">
+        <v>0.16075149978012182</v>
+      </c>
+      <c r="W162" s="49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="15.75" customHeight="1">
       <c r="A163" s="1">
         <v>3162</v>
       </c>
@@ -28661,18 +29124,19 @@
         <v>14</v>
       </c>
       <c r="S163" s="6"/>
-      <c r="T163" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U163" s="7" t="s">
+      <c r="T163" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V163" t="s">
+      <c r="U163" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V163" s="48"/>
+      <c r="W163" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="15.75" customHeight="1">
       <c r="A164" s="1">
         <v>3163</v>
       </c>
@@ -28730,19 +29194,22 @@
       <c r="S164" s="6">
         <v>8</v>
       </c>
-      <c r="T164" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U164" s="7" t="s">
+      <c r="T164" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V164" t="str">
+      <c r="U164" t="str">
         <f>IF(L164 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V164" s="48">
+        <v>0.22380075652971321</v>
+      </c>
+      <c r="W164" s="49">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="15.75" customHeight="1">
       <c r="A165" s="1">
         <v>3164</v>
       </c>
@@ -28798,19 +29265,20 @@
         <v>1</v>
       </c>
       <c r="S165" s="6"/>
-      <c r="T165" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U165" s="7" t="s">
+      <c r="T165" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V165" t="str">
+      <c r="U165" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V165" s="48"/>
+      <c r="W165" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="15.75" customHeight="1">
       <c r="A166" s="1">
         <v>3165</v>
       </c>
@@ -28866,19 +29334,20 @@
         <v>11</v>
       </c>
       <c r="S166" s="6"/>
-      <c r="T166" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U166" s="7" t="s">
+      <c r="T166" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V166" t="str">
+      <c r="U166" t="str">
         <f>IF(L166 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V166" s="48"/>
+      <c r="W166" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="15.75" customHeight="1">
       <c r="A167" s="1">
         <v>3166</v>
       </c>
@@ -28936,19 +29405,22 @@
       <c r="S167" s="6">
         <v>6</v>
       </c>
-      <c r="T167" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U167" s="7" t="s">
+      <c r="T167" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V167" t="str">
+      <c r="U167" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V167" s="48">
+        <v>0.13896507888211912</v>
+      </c>
+      <c r="W167" s="49">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="15.75" customHeight="1">
       <c r="A168" s="1">
         <v>3167</v>
       </c>
@@ -29004,19 +29476,20 @@
         <v>7</v>
       </c>
       <c r="S168" s="6"/>
-      <c r="T168" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U168" s="7" t="s">
+      <c r="T168" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V168" t="str">
-        <f>IF(L168 =3,$V$4, )</f>
+      <c r="U168" t="str">
+        <f>IF(L168 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V168" s="48"/>
+      <c r="W168" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="15.75" customHeight="1">
       <c r="A169" s="1">
         <v>3168</v>
       </c>
@@ -29072,19 +29545,20 @@
         <v>14</v>
       </c>
       <c r="S169" s="6"/>
-      <c r="T169" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U169" s="7" t="s">
+      <c r="T169" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V169" t="str">
+      <c r="U169" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V169" s="48"/>
+      <c r="W169" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="15.75" customHeight="1">
       <c r="A170" s="1">
         <v>3169</v>
       </c>
@@ -29140,19 +29614,20 @@
         <v>9</v>
       </c>
       <c r="S170" s="6"/>
-      <c r="T170" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U170" s="7" t="s">
+      <c r="T170" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V170" t="str">
+      <c r="U170" t="str">
         <f>IF(L154 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V170" s="48"/>
+      <c r="W170" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="15.75" customHeight="1">
       <c r="A171" s="1">
         <v>3170</v>
       </c>
@@ -29208,19 +29683,20 @@
         <v>9</v>
       </c>
       <c r="S171" s="6"/>
-      <c r="T171" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U171" s="7" t="s">
+      <c r="T171" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V171" t="str">
-        <f>IF(L171 =3,$V$4, )</f>
+      <c r="U171" t="str">
+        <f>IF(L171 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V171" s="48"/>
+      <c r="W171" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="15.75" customHeight="1">
       <c r="A172" s="1">
         <v>3171</v>
       </c>
@@ -29276,18 +29752,19 @@
         <v>3</v>
       </c>
       <c r="S172" s="6"/>
-      <c r="T172" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U172" s="7" t="s">
+      <c r="T172" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V172" t="s">
+      <c r="U172" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V172" s="48"/>
+      <c r="W172" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>3172</v>
       </c>
@@ -29347,18 +29824,21 @@
       <c r="S173" s="6">
         <v>8</v>
       </c>
-      <c r="T173" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U173" s="7" t="s">
+      <c r="T173" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V173" t="s">
+      <c r="U173" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V173" s="48">
+        <v>7.7256559285791185E-2</v>
+      </c>
+      <c r="W173" s="49">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>3173</v>
       </c>
@@ -29416,19 +29896,22 @@
       <c r="S174" s="6">
         <v>21</v>
       </c>
-      <c r="T174" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U174" s="7" t="s">
+      <c r="T174" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V174" t="str">
+      <c r="U174" t="str">
         <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V174" s="48">
+        <v>9.8269350418562995E-2</v>
+      </c>
+      <c r="W174" s="49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>3174</v>
       </c>
@@ -29484,19 +29967,20 @@
         <v>10</v>
       </c>
       <c r="S175" s="6"/>
-      <c r="T175" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U175" s="7" t="s">
+      <c r="T175" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V175" t="str">
-        <f>IF(L175 =3,$V$4, )</f>
+      <c r="U175" t="str">
+        <f>IF(L175 =3,$U$4, )</f>
         <v>/images/properties/Home3.jpg</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V175" s="48"/>
+      <c r="W175" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>3175</v>
       </c>
@@ -29554,19 +30038,22 @@
       <c r="S176" s="6">
         <v>27</v>
       </c>
-      <c r="T176" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U176" s="7" t="s">
+      <c r="T176" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V176" t="str">
+      <c r="U176" t="str">
         <f>IF(L149 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V176" s="48">
+        <v>0.13693666505206453</v>
+      </c>
+      <c r="W176" s="49">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>3176</v>
       </c>
@@ -29622,19 +30109,20 @@
         <v>9</v>
       </c>
       <c r="S177" s="6"/>
-      <c r="T177" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U177" s="7" t="s">
+      <c r="T177" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V177" t="str">
+      <c r="U177" t="str">
         <f>IF(L150 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V177" s="48"/>
+      <c r="W177" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="15.75" customHeight="1">
       <c r="A178" s="1">
         <v>3177</v>
       </c>
@@ -29692,19 +30180,22 @@
       <c r="S178" s="6">
         <v>19</v>
       </c>
-      <c r="T178" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U178" s="7" t="s">
+      <c r="T178" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V178" t="str">
+      <c r="U178" t="str">
         <f>IF(L151 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V178" s="48">
+        <v>0.23400699943024011</v>
+      </c>
+      <c r="W178" s="49">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="15.75" customHeight="1">
       <c r="A179" s="1">
         <v>3178</v>
       </c>
@@ -29760,19 +30251,20 @@
         <v>7</v>
       </c>
       <c r="S179" s="6"/>
-      <c r="T179" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U179" s="7" t="s">
+      <c r="T179" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V179" t="str">
+      <c r="U179" t="str">
         <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V179" s="48"/>
+      <c r="W179" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="15.75" customHeight="1">
       <c r="A180" s="1">
         <v>3179</v>
       </c>
@@ -29828,18 +30320,19 @@
         <v>1</v>
       </c>
       <c r="S180" s="6"/>
-      <c r="T180" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U180" s="7" t="s">
+      <c r="T180" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V180" t="s">
+      <c r="U180" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V180" s="48"/>
+      <c r="W180" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="15.75" customHeight="1">
       <c r="A181" s="1">
         <v>3180</v>
       </c>
@@ -29897,19 +30390,22 @@
       <c r="S181" s="6">
         <v>21</v>
       </c>
-      <c r="T181" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U181" s="7" t="s">
+      <c r="T181" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V181" t="str">
+      <c r="U181" t="str">
         <f>IF(L160 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V181" s="48">
+        <v>0.15023775787043414</v>
+      </c>
+      <c r="W181" s="49">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="15.75" customHeight="1">
       <c r="A182" s="1">
         <v>3181</v>
       </c>
@@ -29967,19 +30463,22 @@
       <c r="S182" s="6">
         <v>21</v>
       </c>
-      <c r="T182" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U182" s="7" t="s">
+      <c r="T182" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V182" t="str">
+      <c r="U182" t="str">
         <f>IF(L155 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V182" s="48">
+        <v>0.14326794959507605</v>
+      </c>
+      <c r="W182" s="49">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="15.75" customHeight="1">
       <c r="A183" s="1">
         <v>3182</v>
       </c>
@@ -30037,19 +30536,22 @@
       <c r="S183" s="6">
         <v>6</v>
       </c>
-      <c r="T183" s="50" t="e">
-        <f>#REF! *100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U183" s="7" t="s">
+      <c r="T183" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="V183" t="str">
+      <c r="U183" t="str">
         <f>IF(L156 =0,$AB$149, )</f>
         <v>/images/properties/Home11.jpg</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" ht="15.75" customHeight="1">
+      <c r="V183" s="48">
+        <v>0.22720553096494284</v>
+      </c>
+      <c r="W183" s="49">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>3183</v>
       </c>
@@ -30105,23 +30607,27 @@
         <v>1</v>
       </c>
       <c r="S184" s="6"/>
-      <c r="T184" s="47"/>
-      <c r="U184" s="7" t="s">
+      <c r="T184" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="V184" t="str">
+      <c r="U184" t="str">
         <f>IF(L158 =2,$AB$151, )</f>
         <v>/images/properties/Home12.jpg</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="186" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="187" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="188" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="189" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="190" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="191" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="192" spans="1:22" ht="15.75" customHeight="1"/>
+      <c r="V184" s="48"/>
+      <c r="W184" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="186" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="187" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="188" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="189" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="190" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="191" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="192" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="193" ht="15.75" customHeight="1"/>
     <row r="194" ht="15.75" customHeight="1"/>
     <row r="195" ht="15.75" customHeight="1"/>
@@ -30931,6 +31437,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="E1:E1000" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
